--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>Jaworzanka Jawor</t>
+  </si>
+  <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>KS Iskra Kochlice</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
-    <t>Jaworzanka Jawor</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Limanovia Limanowa</t>
   </si>
   <si>
+    <t>Huragan Morag</t>
+  </si>
+  <si>
     <t>KTSK Luzino</t>
   </si>
   <si>
-    <t>Huragan Morag</t>
-  </si>
-  <si>
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Miedz Legnica II</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -430,10 +430,10 @@
     <t>Granit Roztoka</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Odra Scinawa</t>
-  </si>
-  <si>
-    <t>LKS Pogon Lebork</t>
   </si>
   <si>
     <t>GKS Kowale</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457508</v>
+        <v>6457509</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8">
+        <v>3.6</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>4.333</v>
-      </c>
       <c r="M8">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q8">
         <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1686,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457509</v>
+        <v>6457508</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -3377,7 +3377,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -4442,7 +4442,7 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600585</v>
+        <v>6600587</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4623,52 +4623,52 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
+        <v>1.3</v>
+      </c>
+      <c r="N42">
         <v>5.75</v>
-      </c>
-      <c r="N42">
-        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600587</v>
+        <v>6600585</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4712,52 +4712,52 @@
         <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>189</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L43">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M43">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="N43">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O43">
         <v>5.5</v>
       </c>
       <c r="P43">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="Q43">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4766,16 +4766,16 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6670,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,76 +7290,76 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.95</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>0.5</v>
+      </c>
+      <c r="AC72">
         <v>-0.5</v>
-      </c>
-      <c r="AA72">
-        <v>0.475</v>
-      </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
-      <c r="AC72">
-        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,76 +7379,76 @@
         <v>45088.25</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>1.95</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.85</v>
+      </c>
+      <c r="V73">
+        <v>1.95</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>3.333</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>2</v>
-      </c>
-      <c r="V73">
-        <v>1.8</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AA73">
+        <v>0.475</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.95</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.5</v>
-      </c>
-      <c r="AC73">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7916,7 +7916,7 @@
         <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,49 +10227,49 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
       <c r="J105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -10278,19 +10278,19 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068599</v>
+        <v>7068603</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G106" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M106">
+        <v>1.615</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
         <v>4.333</v>
       </c>
-      <c r="N106">
-        <v>1.5</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
-      </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
         <v>1.8</v>
-      </c>
-      <c r="S106">
-        <v>2</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,40 +10405,40 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K107">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O107">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
         <v>2</v>
@@ -10447,34 +10447,34 @@
         <v>1.8</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11565,64 +11565,64 @@
         <v>109</v>
       </c>
       <c r="G120" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K120">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N120">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q120">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X120">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11631,7 +11631,7 @@
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11654,64 +11654,64 @@
         <v>110</v>
       </c>
       <c r="G121" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K121">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11720,7 +11720,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,46 +12719,46 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>189</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,19 +12776,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,46 +12808,46 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G134" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>189</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,19 +12865,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N136">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q136">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,76 +14766,76 @@
         <v>45213.25</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G156" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K156">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X156">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14843,7 +14843,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14855,76 +14855,76 @@
         <v>45213.25</v>
       </c>
       <c r="F157" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G157" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16371,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16724,7 +16724,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G178" t="s">
         <v>58</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>KS Iskra Kochlice</t>
+  </si>
+  <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Jaworzanka Jawor</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
-    <t>KS Iskra Kochlice</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Limanovia Limanowa</t>
   </si>
   <si>
+    <t>KTSK Luzino</t>
+  </si>
+  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
-    <t>KTSK Luzino</t>
-  </si>
-  <si>
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -430,10 +430,10 @@
     <t>Granit Roztoka</t>
   </si>
   <si>
+    <t>Odra Scinawa</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
-    <t>Odra Scinawa</t>
   </si>
   <si>
     <t>GKS Kowale</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457509</v>
+        <v>6457508</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
         <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1686,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457508</v>
+        <v>6457509</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>4.333</v>
-      </c>
       <c r="M10">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -3377,7 +3377,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -4442,7 +4442,7 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600587</v>
+        <v>6600585</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4623,52 +4623,52 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600585</v>
+        <v>6600587</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4712,52 +4712,52 @@
         <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>189</v>
       </c>
       <c r="K43">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
+        <v>1.3</v>
+      </c>
+      <c r="N43">
         <v>5.75</v>
-      </c>
-      <c r="N43">
-        <v>1.25</v>
       </c>
       <c r="O43">
         <v>5.5</v>
       </c>
       <c r="P43">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4766,16 +4766,16 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5246,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6670,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,76 +7290,76 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
+        <v>1.95</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>3.333</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>-0.5</v>
       </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>3.75</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
-      <c r="V72">
-        <v>1.8</v>
-      </c>
-      <c r="W72">
-        <v>0.909</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
+      <c r="AA72">
+        <v>0.475</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.95</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.5</v>
-      </c>
-      <c r="AC72">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,76 +7379,76 @@
         <v>45088.25</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
       </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.95</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
+        <v>0.5</v>
+      </c>
+      <c r="AC73">
         <v>-0.5</v>
-      </c>
-      <c r="AA73">
-        <v>0.475</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
-      <c r="AC73">
-        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <v>1.062</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <v>1.062</v>
+      </c>
+      <c r="Q74">
+        <v>3.25</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
+        <v>4.25</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z74">
+        <v>0.45</v>
+      </c>
+      <c r="AA74">
+        <v>-0.5</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74">
-        <v>1.444</v>
-      </c>
-      <c r="L74">
-        <v>4.5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>0.475</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
-      <c r="AC74">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
         <v>1.9</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.9</v>
       </c>
-      <c r="T75">
-        <v>4.25</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7916,7 +7916,7 @@
         <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K102">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,46 +12719,46 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G133" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>189</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,19 +12776,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,46 +12808,46 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>189</v>
       </c>
       <c r="K134">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,19 +12865,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P136">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N137">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -14054,7 +14054,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s">
         <v>172</v>
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,76 +14766,76 @@
         <v>45213.25</v>
       </c>
       <c r="F156" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G156" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K156">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14843,7 +14843,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14855,76 +14855,76 @@
         <v>45213.25</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G157" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P157">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16371,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H174">
         <v>2</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -112,24 +112,24 @@
     <t>Wloclavia Wloclawek</t>
   </si>
   <si>
+    <t>GKS Gryf Gryfow Slaski</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>GKS Gryf Gryfow Slaski</t>
-  </si>
-  <si>
     <t>BKS Boleslawiec</t>
   </si>
   <si>
     <t>KS Iskra Kochlice</t>
   </si>
   <si>
+    <t>Jaworzanka Jawor</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
-    <t>Jaworzanka Jawor</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>KS Mszczonowianka</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
+    <t>Gryf Wejherowo</t>
+  </si>
+  <si>
     <t>LKS Mewa Kunice</t>
   </si>
   <si>
-    <t>Gryf Wejherowo</t>
-  </si>
-  <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>MKS Piaseczno</t>
   </si>
   <si>
+    <t>Barciczanka Barcice</t>
+  </si>
+  <si>
+    <t>Pogon Zdunska Wola</t>
+  </si>
+  <si>
     <t>MKS Slask Swietochlowice</t>
   </si>
   <si>
-    <t>Barciczanka Barcice</t>
-  </si>
-  <si>
-    <t>Pogon Zdunska Wola</t>
-  </si>
-  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Tecza Biskupiec</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Mieszko Gniezno</t>
+  </si>
+  <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Szczakowianka Jaworzno</t>
+  </si>
+  <si>
     <t>Zabkovia Zabki</t>
   </si>
   <si>
-    <t>Szczakowianka Jaworzno</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>Kujawianka Izbica Kujawska</t>
   </si>
   <si>
+    <t>KS Luzyce Luban</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>KS Luzyce Luban</t>
-  </si>
-  <si>
     <t>Granit Roztoka</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -562,19 +562,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
   </si>
   <si>
-    <t>Unia Wabrzezno</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>Mragowia Mragowo</t>
+  </si>
+  <si>
     <t>GKS Nowiny</t>
-  </si>
-  <si>
-    <t>Mragowia Mragowo</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6446360</v>
+        <v>6446359</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1333,70 +1333,70 @@
         <v>135</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K5">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M5">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6446359</v>
+        <v>6446360</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1422,70 +1422,70 @@
         <v>136</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K6">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6457510</v>
+        <v>6457509</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1686,73 +1686,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K9">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457509</v>
+        <v>6457510</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,73 +1775,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
+        <v>0.4</v>
+      </c>
+      <c r="AA10">
+        <v>-0.5</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.825</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6486239</v>
+        <v>6486237</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2039,76 +2039,76 @@
         <v>45021.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L13">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
         <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2116,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6486237</v>
+        <v>6486239</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2128,76 +2128,76 @@
         <v>45021.5</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O14">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
         <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2217,7 +2217,7 @@
         <v>45021.50277777778</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -2662,7 +2662,7 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
@@ -3021,7 +3021,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6569193</v>
+        <v>6568693</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,70 +3377,70 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>1.363</v>
+      </c>
+      <c r="O28">
+        <v>4.333</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>-1.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.85</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>2.2</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>2.55</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.75</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6568693</v>
+        <v>6569193</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,70 +3555,70 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K30">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
         <v>4.2</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q30">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6600589</v>
+        <v>6600583</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3911,73 +3911,73 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L34">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
+        <v>3.5</v>
+      </c>
+      <c r="U34">
+        <v>1.95</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>3.75</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-      <c r="V34">
-        <v>1.8</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600583</v>
+        <v>6600593</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4089,73 +4089,73 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>3.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4163,7 +4163,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6600593</v>
+        <v>6600589</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4178,46 +4178,46 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L37">
         <v>4.333</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
         <v>4.333</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
         <v>2</v>
@@ -4229,22 +4229,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600591</v>
+        <v>6600585</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,56 +4442,56 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.75</v>
+      </c>
+      <c r="N40">
+        <v>1.25</v>
+      </c>
+      <c r="O40">
         <v>5.5</v>
       </c>
-      <c r="M40">
-        <v>1.285</v>
-      </c>
-      <c r="N40">
-        <v>6.5</v>
-      </c>
-      <c r="O40">
-        <v>5.75</v>
-      </c>
       <c r="P40">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
+        <v>1.825</v>
+      </c>
+      <c r="T40">
+        <v>3.75</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
         <v>1.8</v>
       </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-      <c r="U40">
-        <v>1.85</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4499,16 +4499,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.2849999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600586</v>
+        <v>6600591</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,55 +4531,55 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="L41">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M41">
+        <v>1.285</v>
+      </c>
+      <c r="N41">
+        <v>6.5</v>
+      </c>
+      <c r="O41">
         <v>5.75</v>
       </c>
-      <c r="N41">
-        <v>1.25</v>
-      </c>
-      <c r="O41">
-        <v>5.5</v>
-      </c>
       <c r="P41">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q41">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4588,19 +4588,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600585</v>
+        <v>6600586</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4620,16 +4620,16 @@
         <v>45049.5</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
@@ -4650,7 +4650,7 @@
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
         <v>-2</v>
@@ -4665,10 +4665,10 @@
         <v>3.75</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,7 +4677,7 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4686,10 +4686,10 @@
         <v>0.825</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>1</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -5154,7 +5154,7 @@
         <v>45056.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>155</v>
@@ -5243,10 +5243,10 @@
         <v>45058.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5676,7 +5676,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6671002</v>
+        <v>6670980</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5688,61 +5688,61 @@
         <v>45066.25</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>1.142</v>
+        <v>1.285</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q54">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5751,13 +5751,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5765,7 +5765,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6670980</v>
+        <v>6671002</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5777,62 +5777,62 @@
         <v>45066.25</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K55">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>9</v>
+      </c>
+      <c r="N55">
+        <v>1.142</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>13</v>
+      </c>
+      <c r="Q55">
+        <v>-2.5</v>
+      </c>
+      <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>3.75</v>
+      </c>
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
+        <v>1.85</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>5</v>
       </c>
-      <c r="M55">
-        <v>5</v>
-      </c>
-      <c r="N55">
-        <v>1.285</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
-      <c r="P55">
-        <v>7.5</v>
-      </c>
-      <c r="Q55">
-        <v>-1.75</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.975</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
-      <c r="W55">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
         <v>-1</v>
       </c>
@@ -5840,13 +5840,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6492,7 +6492,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6833,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6848,73 +6848,73 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
+        <v>4.333</v>
+      </c>
+      <c r="N67">
+        <v>1.4</v>
+      </c>
+      <c r="O67">
+        <v>4.5</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+      <c r="Q67">
+        <v>-1.25</v>
+      </c>
+      <c r="R67">
         <v>1.8</v>
       </c>
-      <c r="N67">
-        <v>3.5</v>
-      </c>
-      <c r="O67">
-        <v>4</v>
-      </c>
-      <c r="P67">
-        <v>1.727</v>
-      </c>
-      <c r="Q67">
-        <v>0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6922,7 +6922,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6937,73 +6937,73 @@
         <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K68">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
         <v>4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7290,7 +7290,7 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>88</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>3.5</v>
+      </c>
+      <c r="U74">
         <v>1.9</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.9</v>
       </c>
-      <c r="T74">
-        <v>4.25</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75">
+        <v>17</v>
+      </c>
+      <c r="L75">
+        <v>11</v>
+      </c>
+      <c r="M75">
+        <v>1.062</v>
+      </c>
+      <c r="N75">
+        <v>17</v>
+      </c>
+      <c r="O75">
+        <v>11</v>
+      </c>
+      <c r="P75">
+        <v>1.062</v>
+      </c>
+      <c r="Q75">
+        <v>3.25</v>
+      </c>
+      <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>4.25</v>
+      </c>
+      <c r="U75">
+        <v>1.8</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z75">
+        <v>0.45</v>
+      </c>
+      <c r="AA75">
+        <v>-0.5</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>190</v>
-      </c>
-      <c r="K75">
-        <v>1.444</v>
-      </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>3.5</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
-      <c r="W75">
-        <v>0.444</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>-0.5</v>
-      </c>
-      <c r="AA75">
-        <v>0.475</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
-      <c r="AC75">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7723,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7735,13 +7735,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7750,43 +7750,43 @@
         <v>190</v>
       </c>
       <c r="K77">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7795,16 +7795,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7812,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7824,13 +7824,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7839,43 +7839,43 @@
         <v>190</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P78">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7884,16 +7884,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8168,7 +8168,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8183,73 +8183,73 @@
         <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N82">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8257,7 +8257,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8272,73 +8272,73 @@
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S83">
+        <v>2.025</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="T83">
-        <v>3.5</v>
-      </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8628,7 +8628,7 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8892,7 +8892,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
         <v>79</v>
@@ -9070,7 +9070,7 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>75</v>
@@ -9159,7 +9159,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068602</v>
+        <v>7068596</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10141,70 +10141,70 @@
         <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>1.775</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068599</v>
+        <v>7068595</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,49 +10227,49 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G105" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
         <v>1.8</v>
       </c>
-      <c r="S105">
-        <v>2</v>
-      </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -10278,19 +10278,19 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068603</v>
+        <v>7068599</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
+        <v>4.5</v>
+      </c>
+      <c r="M106">
         <v>4.333</v>
       </c>
-      <c r="M106">
-        <v>1.615</v>
-      </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
+        <v>4.5</v>
+      </c>
+      <c r="P106">
         <v>4.333</v>
       </c>
-      <c r="P106">
-        <v>1.615</v>
-      </c>
       <c r="Q106">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068595</v>
+        <v>7068602</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,76 +10405,76 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G107" t="s">
         <v>164</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K107">
+        <v>2.1</v>
+      </c>
+      <c r="L107">
+        <v>4.2</v>
+      </c>
+      <c r="M107">
+        <v>2.5</v>
+      </c>
+      <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>2.55</v>
+      </c>
+      <c r="Q107">
+        <v>-0.25</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
       </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>1.95</v>
-      </c>
-      <c r="O107">
-        <v>4</v>
-      </c>
-      <c r="P107">
-        <v>2.9</v>
-      </c>
-      <c r="Q107">
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
+        <v>2.025</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>3.2</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>2</v>
-      </c>
-      <c r="S107">
-        <v>1.8</v>
-      </c>
-      <c r="T107">
-        <v>3.5</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>1.9</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068596</v>
+        <v>7068603</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10497,70 +10497,70 @@
         <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>3.333</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>1</v>
       </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.825</v>
-      </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -11476,7 +11476,7 @@
         <v>103</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11562,28 +11562,28 @@
         <v>45164.25</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K120">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
         <v>2.2</v>
@@ -11592,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="P120">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -11604,34 +11604,34 @@
         <v>2.025</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11651,67 +11651,67 @@
         <v>45164.25</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G121" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
         <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11720,7 +11720,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,76 +11740,76 @@
         <v>45164.25</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>191</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N122">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12900,7 +12900,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N136">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q136">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13164,7 +13164,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G138" t="s">
         <v>175</v>
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147">
+        <v>1.166</v>
+      </c>
+      <c r="L147">
+        <v>7</v>
+      </c>
+      <c r="M147">
+        <v>11</v>
+      </c>
+      <c r="N147">
         <v>1.3</v>
-      </c>
-      <c r="L147">
-        <v>5</v>
-      </c>
-      <c r="M147">
-        <v>7</v>
-      </c>
-      <c r="N147">
-        <v>1.25</v>
       </c>
       <c r="O147">
         <v>5.5</v>
       </c>
       <c r="P147">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
+        <v>1.9</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
         <v>1.8</v>
       </c>
-      <c r="T147">
-        <v>3.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X147">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
+        <v>-0.5</v>
+      </c>
+      <c r="AB147">
         <v>0.8</v>
       </c>
-      <c r="AB147">
-        <v>0.475</v>
-      </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K148">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
         <v>7</v>
       </c>
-      <c r="M148">
-        <v>11</v>
-      </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8</v>
+      </c>
+      <c r="AB148">
+        <v>0.475</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>0.8</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,76 +14766,76 @@
         <v>45213.25</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G156" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K156">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X156">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14843,7 +14843,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14855,76 +14855,76 @@
         <v>45213.25</v>
       </c>
       <c r="F157" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G157" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15021,7 +15021,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15033,34 +15033,34 @@
         <v>45220.25</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="G159" t="s">
         <v>182</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P159">
         <v>2.1</v>
@@ -15075,34 +15075,34 @@
         <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z159">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,34 +15122,34 @@
         <v>45220.25</v>
       </c>
       <c r="F160" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>183</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
         <v>2.1</v>
@@ -15164,34 +15164,34 @@
         <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y160">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,40 +15211,40 @@
         <v>45221.25</v>
       </c>
       <c r="F161" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G161" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>189</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -15253,13 +15253,13 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -15268,7 +15268,7 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -15277,10 +15277,10 @@
         <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,40 +15300,40 @@
         <v>45221.25</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
         <v>1</v>
-      </c>
-      <c r="I162">
-        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>189</v>
       </c>
       <c r="K162">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>2</v>
@@ -15342,13 +15342,13 @@
         <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,13 +15923,13 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>3</v>
@@ -15938,61 +15938,61 @@
         <v>189</v>
       </c>
       <c r="K169">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N169">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>3.25</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>0.75</v>
-      </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16000,7 +16000,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16012,55 +16012,55 @@
         <v>45235.375</v>
       </c>
       <c r="F170" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G170" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>189</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M170">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P170">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
         <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -16069,19 +16069,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16089,7 +16089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16101,55 +16101,55 @@
         <v>45235.375</v>
       </c>
       <c r="F171" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G171" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>189</v>
       </c>
       <c r="K171">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L171">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N171">
         <v>3.3</v>
       </c>
       <c r="O171">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q171">
         <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -16158,19 +16158,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
+        <v>0.75</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
         <v>0.8</v>
       </c>
-      <c r="Z171">
-        <v>-1</v>
-      </c>
-      <c r="AA171">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16727,7 +16727,7 @@
         <v>109</v>
       </c>
       <c r="G178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H178">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -112,12 +112,12 @@
     <t>Wloclavia Wloclawek</t>
   </si>
   <si>
+    <t>Pomorzanin Torun</t>
+  </si>
+  <si>
     <t>GKS Gryf Gryfow Slaski</t>
   </si>
   <si>
-    <t>Pomorzanin Torun</t>
-  </si>
-  <si>
     <t>BKS Boleslawiec</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>KS Mszczonowianka</t>
   </si>
   <si>
+    <t>LKS Mewa Kunice</t>
+  </si>
+  <si>
+    <t>Gryf Wejherowo</t>
+  </si>
+  <si>
     <t>Grom Nowy Staw</t>
   </si>
   <si>
-    <t>Gryf Wejherowo</t>
-  </si>
-  <si>
-    <t>LKS Mewa Kunice</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>MKS Piaseczno</t>
   </si>
   <si>
+    <t>Pogon Zdunska Wola</t>
+  </si>
+  <si>
+    <t>MKS Slask Swietochlowice</t>
+  </si>
+  <si>
     <t>Barciczanka Barcice</t>
   </si>
   <si>
-    <t>Pogon Zdunska Wola</t>
-  </si>
-  <si>
-    <t>MKS Slask Swietochlowice</t>
-  </si>
-  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Miedz Legnica II</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>Kujawianka Izbica Kujawska</t>
   </si>
   <si>
+    <t>Cuiavia Inowroclaw</t>
+  </si>
+  <si>
     <t>KS Luzyce Luban</t>
   </si>
   <si>
-    <t>Cuiavia Inowroclaw</t>
-  </si>
-  <si>
     <t>Granit Roztoka</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>MZKS Narew Ostroleka</t>
   </si>
   <si>
+    <t>Unia Redziny</t>
+  </si>
+  <si>
     <t>Karkonosze Jelenia Gora</t>
   </si>
   <si>
-    <t>Unia Redziny</t>
-  </si>
-  <si>
     <t>Jeziorak Ilawa</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
-    <t>Victoria Wrzesnia</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -562,19 +562,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
   </si>
   <si>
-    <t>MKS Myszkow</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
     <t>Mragowia Mragowo</t>
-  </si>
-  <si>
-    <t>GKS Nowiny</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6446359</v>
+        <v>6446360</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1333,70 +1333,70 @@
         <v>135</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K5">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="L5">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q5">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6446360</v>
+        <v>6446359</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1422,70 +1422,70 @@
         <v>136</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K6">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M6">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1686,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6486237</v>
+        <v>6486239</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2039,76 +2039,76 @@
         <v>45021.5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K13">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L13">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O13">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
         <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2116,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6486239</v>
+        <v>6486237</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2128,76 +2128,76 @@
         <v>45021.5</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
       <c r="J14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
         <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6568693</v>
+        <v>6569193</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,70 +3377,70 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K28">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6569193</v>
+        <v>6568693</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,70 +3555,70 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
         <v>4.2</v>
       </c>
       <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>1.363</v>
+      </c>
+      <c r="O30">
+        <v>4.333</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>-1.5</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.85</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>3.75</v>
-      </c>
-      <c r="P30">
-        <v>2.55</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>1.75</v>
-      </c>
-      <c r="S30">
-        <v>2.05</v>
-      </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6600583</v>
+        <v>6600593</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3911,73 +3911,73 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>3.5</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600588</v>
+        <v>6600589</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3997,13 +3997,13 @@
         <v>45049.25</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -4012,41 +4012,41 @@
         <v>189</v>
       </c>
       <c r="K35">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>4.333</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>4.333</v>
       </c>
       <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.25</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3.75</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.95</v>
-      </c>
-      <c r="S35">
-        <v>1.85</v>
-      </c>
-      <c r="T35">
-        <v>3.5</v>
-      </c>
-      <c r="U35">
-        <v>1.95</v>
-      </c>
-      <c r="V35">
-        <v>1.85</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
@@ -4054,16 +4054,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600593</v>
+        <v>6600583</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4086,76 +4086,76 @@
         <v>45049.25</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L36">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>3.5</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X36">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4163,7 +4163,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6600589</v>
+        <v>6600588</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4175,13 +4175,13 @@
         <v>45049.25</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -4190,40 +4190,40 @@
         <v>189</v>
       </c>
       <c r="K37">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
         <v>4.333</v>
       </c>
       <c r="M37">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O37">
         <v>4.333</v>
       </c>
       <c r="P37">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.95</v>
+      </c>
+      <c r="S37">
         <v>1.85</v>
       </c>
-      <c r="S37">
+      <c r="T37">
+        <v>3.5</v>
+      </c>
+      <c r="U37">
         <v>1.95</v>
       </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -4232,16 +4232,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB37">
         <v>0.95</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600585</v>
+        <v>6600586</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,16 +4442,16 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
@@ -4472,7 +4472,7 @@
         <v>5.5</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
         <v>-2</v>
@@ -4487,10 +4487,10 @@
         <v>3.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4499,7 +4499,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4508,10 +4508,10 @@
         <v>0.825</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600591</v>
+        <v>6600585</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,56 +4531,56 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="L41">
+        <v>4.75</v>
+      </c>
+      <c r="M41">
+        <v>5.75</v>
+      </c>
+      <c r="N41">
+        <v>1.25</v>
+      </c>
+      <c r="O41">
         <v>5.5</v>
       </c>
-      <c r="M41">
-        <v>1.285</v>
-      </c>
-      <c r="N41">
-        <v>6.5</v>
-      </c>
-      <c r="O41">
-        <v>5.75</v>
-      </c>
       <c r="P41">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
+        <v>1.825</v>
+      </c>
+      <c r="T41">
+        <v>3.75</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.8</v>
       </c>
-      <c r="T41">
-        <v>4</v>
-      </c>
-      <c r="U41">
-        <v>1.85</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4588,16 +4588,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.2849999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600586</v>
+        <v>6600587</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4620,55 +4620,55 @@
         <v>45049.5</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
+        <v>1.3</v>
+      </c>
+      <c r="N42">
         <v>5.75</v>
-      </c>
-      <c r="N42">
-        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,19 +4677,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600587</v>
+        <v>6600591</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4709,13 +4709,13 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -4724,31 +4724,31 @@
         <v>189</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L43">
         <v>5.5</v>
       </c>
       <c r="M43">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N43">
+        <v>6.5</v>
+      </c>
+      <c r="O43">
         <v>5.75</v>
       </c>
-      <c r="O43">
-        <v>5.5</v>
-      </c>
       <c r="P43">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q43">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
         <v>4</v>
@@ -4766,13 +4766,13 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
         <v>0.8500000000000001</v>
@@ -5154,7 +5154,7 @@
         <v>45056.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>155</v>
@@ -5243,10 +5243,10 @@
         <v>45058.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5780,7 +5780,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>45080.25</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6504,43 +6504,43 @@
         <v>190</v>
       </c>
       <c r="K63">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6549,16 +6549,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6566,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6578,13 +6578,13 @@
         <v>45080.25</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6593,43 +6593,43 @@
         <v>190</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L64">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6638,16 +6638,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <v>1.062</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <v>1.062</v>
+      </c>
+      <c r="Q74">
+        <v>3.25</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
+        <v>4.25</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z74">
+        <v>0.45</v>
+      </c>
+      <c r="AA74">
+        <v>-0.5</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74">
-        <v>1.444</v>
-      </c>
-      <c r="L74">
-        <v>4.5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>0.475</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
-      <c r="AC74">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
         <v>1.9</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.9</v>
       </c>
-      <c r="T75">
-        <v>4.25</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7824,7 +7824,7 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
         <v>158</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O89">
+        <v>8</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2.75</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
         <v>4.5</v>
       </c>
-      <c r="P89">
-        <v>2.3</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.85</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.75</v>
-      </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X89">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>191</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>190</v>
-      </c>
-      <c r="K90">
-        <v>1.1</v>
-      </c>
-      <c r="L90">
-        <v>8</v>
-      </c>
-      <c r="M90">
-        <v>13</v>
-      </c>
       <c r="N90">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9070,7 +9070,7 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
         <v>75</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9604,19 +9604,19 @@
         <v>45150.25</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K98">
         <v>2.375</v>
@@ -9628,22 +9628,22 @@
         <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
         <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>3.5</v>
@@ -9655,25 +9655,25 @@
         <v>1.8</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9681,7 +9681,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9693,19 +9693,19 @@
         <v>45150.25</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9717,22 +9717,22 @@
         <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
         <v>3.6</v>
       </c>
       <c r="P99">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
         <v>3.5</v>
@@ -9744,25 +9744,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,49 +10227,49 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
       <c r="J105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
         <v>1.85</v>
@@ -10278,19 +10278,19 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068599</v>
+        <v>7068602</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G106" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,76 +10405,76 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s">
         <v>164</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
+        <v>3.5</v>
+      </c>
+      <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.775</v>
-      </c>
-      <c r="V107">
-        <v>2.025</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11476,7 +11476,7 @@
         <v>103</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11654,64 +11654,64 @@
         <v>109</v>
       </c>
       <c r="G121" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K121">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11720,7 +11720,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11743,64 +11743,64 @@
         <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N122">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11809,7 +11809,7 @@
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12084,7 +12084,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12099,7 +12099,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12111,40 +12111,40 @@
         <v>189</v>
       </c>
       <c r="K126">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -12153,16 +12153,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -12188,7 +12188,7 @@
         <v>115</v>
       </c>
       <c r="G127" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12200,40 +12200,40 @@
         <v>189</v>
       </c>
       <c r="K127">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -12242,16 +12242,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,46 +12719,46 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>189</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,19 +12776,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,46 +12808,46 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G134" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>189</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,19 +12865,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12900,7 +12900,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P136">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N137">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G147" t="s">
         <v>172</v>
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,76 +14766,76 @@
         <v>45213.25</v>
       </c>
       <c r="F156" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G156" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K156">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14843,7 +14843,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14855,76 +14855,76 @@
         <v>45213.25</v>
       </c>
       <c r="F157" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G157" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K157">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P157">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15021,7 +15021,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15033,34 +15033,34 @@
         <v>45220.25</v>
       </c>
       <c r="F159" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
         <v>182</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K159">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
         <v>2.1</v>
@@ -15075,34 +15075,34 @@
         <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y159">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC159">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,34 +15122,34 @@
         <v>45220.25</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="G160" t="s">
         <v>183</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P160">
         <v>2.1</v>
@@ -15164,34 +15164,34 @@
         <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z160">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,40 +15211,40 @@
         <v>45221.25</v>
       </c>
       <c r="F161" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>189</v>
       </c>
       <c r="K161">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N161">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -15253,13 +15253,13 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -15268,7 +15268,7 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -15277,10 +15277,10 @@
         <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,40 +15300,40 @@
         <v>45221.25</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G162" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>189</v>
       </c>
       <c r="K162">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P162">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
         <v>2</v>
@@ -15342,13 +15342,13 @@
         <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,13 +15923,13 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>3</v>
@@ -15938,40 +15938,40 @@
         <v>189</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O169">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15980,19 +15980,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16089,7 +16089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16101,13 +16101,13 @@
         <v>45235.375</v>
       </c>
       <c r="F171" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G171" t="s">
         <v>186</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>3</v>
@@ -16116,61 +16116,61 @@
         <v>189</v>
       </c>
       <c r="K171">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
         <v>4</v>
       </c>
       <c r="M171">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N171">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>1.9</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
         <v>1.8</v>
       </c>
-      <c r="T171">
-        <v>3.5</v>
-      </c>
-      <c r="U171">
-        <v>1.8</v>
-      </c>
-      <c r="V171">
-        <v>2</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>0.75</v>
-      </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16724,10 +16724,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G178" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H178">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>Jaworzanka Jawor</t>
+  </si>
+  <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>KS Iskra Kochlice</t>
   </si>
   <si>
-    <t>Jaworzanka Jawor</t>
-  </si>
-  <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>LKS Mewa Kunice</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
     <t>Gryf Wejherowo</t>
   </si>
   <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -187,27 +187,27 @@
     <t>MKS Piaseczno</t>
   </si>
   <si>
+    <t>Barciczanka Barcice</t>
+  </si>
+  <si>
     <t>Pogon Zdunska Wola</t>
   </si>
   <si>
     <t>MKS Slask Swietochlowice</t>
   </si>
   <si>
-    <t>Barciczanka Barcice</t>
-  </si>
-  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
     <t>Limanovia Limanowa</t>
   </si>
   <si>
+    <t>Huragan Morag</t>
+  </si>
+  <si>
     <t>KTSK Luzino</t>
   </si>
   <si>
-    <t>Huragan Morag</t>
-  </si>
-  <si>
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Tecza Biskupiec</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Mieszko Gniezno</t>
+  </si>
+  <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>Granit Roztoka</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Odra Scinawa</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>GKS Kowale</t>
   </si>
   <si>
@@ -472,10 +472,10 @@
     <t>MZKS Narew Ostroleka</t>
   </si>
   <si>
+    <t>Karkonosze Jelenia Gora</t>
+  </si>
+  <si>
     <t>Unia Redziny</t>
-  </si>
-  <si>
-    <t>Karkonosze Jelenia Gora</t>
   </si>
   <si>
     <t>Jeziorak Ilawa</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457508</v>
+        <v>6457509</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8">
+        <v>3.6</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>4.333</v>
-      </c>
       <c r="M8">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q8">
         <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6457509</v>
+        <v>6457510</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1686,73 +1686,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.4</v>
+      </c>
+      <c r="AA9">
+        <v>-0.5</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.825</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457510</v>
+        <v>6457508</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1778,52 +1778,52 @@
         <v>139</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>190</v>
       </c>
       <c r="K10">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
         <v>4.333</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="N10">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>4.333</v>
       </c>
       <c r="P10">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1832,16 +1832,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2217,7 +2217,7 @@
         <v>45021.50277777778</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6513740</v>
+        <v>6513739</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2662,10 +2662,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2677,43 +2677,43 @@
         <v>190</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.7</v>
+      </c>
+      <c r="S20">
+        <v>2.1</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>3.75</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>1.8</v>
-      </c>
       <c r="W20">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2722,16 +2722,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6513739</v>
+        <v>6513740</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2751,10 +2751,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2766,43 +2766,43 @@
         <v>190</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3377,7 +3377,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6568694</v>
+        <v>6568693</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3466,73 +3466,73 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
         <v>4.2</v>
       </c>
       <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>1.363</v>
+      </c>
+      <c r="O29">
+        <v>4.333</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>-1.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>1.85</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="N29">
-        <v>1.85</v>
-      </c>
-      <c r="O29">
-        <v>4.2</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-      <c r="R29">
-        <v>1.925</v>
-      </c>
-      <c r="S29">
-        <v>1.875</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6568693</v>
+        <v>6568694</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,73 +3555,73 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
         <v>4.2</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6600593</v>
+        <v>6600583</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3911,73 +3911,73 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="L34">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
         <v>3.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X34">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600589</v>
+        <v>6600593</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -4000,46 +4000,46 @@
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
         <v>4.333</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
         <v>4.333</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -4051,22 +4051,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y35">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600583</v>
+        <v>6600589</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4089,73 +4089,73 @@
         <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36">
+        <v>2.25</v>
+      </c>
+      <c r="L36">
+        <v>4.333</v>
+      </c>
+      <c r="M36">
+        <v>2.3</v>
+      </c>
+      <c r="N36">
+        <v>2.05</v>
+      </c>
+      <c r="O36">
+        <v>4.333</v>
+      </c>
+      <c r="P36">
+        <v>2.5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>1.5</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
-        <v>190</v>
-      </c>
-      <c r="K36">
-        <v>1.6</v>
-      </c>
-      <c r="L36">
-        <v>4.5</v>
-      </c>
-      <c r="M36">
-        <v>3.75</v>
-      </c>
-      <c r="N36">
-        <v>1.6</v>
-      </c>
-      <c r="O36">
-        <v>4.5</v>
-      </c>
-      <c r="P36">
-        <v>3.75</v>
-      </c>
-      <c r="Q36">
-        <v>-1</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>1.8</v>
-      </c>
-      <c r="T36">
-        <v>3.5</v>
-      </c>
-      <c r="U36">
-        <v>1.95</v>
-      </c>
-      <c r="V36">
-        <v>1.85</v>
-      </c>
-      <c r="W36">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>-0</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600586</v>
+        <v>6600591</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,7 +4442,7 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -4451,46 +4451,46 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M40">
+        <v>1.285</v>
+      </c>
+      <c r="N40">
+        <v>6.5</v>
+      </c>
+      <c r="O40">
         <v>5.75</v>
       </c>
-      <c r="N40">
-        <v>1.25</v>
-      </c>
-      <c r="O40">
-        <v>5.5</v>
-      </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q40">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4499,19 +4499,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>6.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600585</v>
+        <v>6600587</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4534,52 +4534,52 @@
         <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M41">
+        <v>1.3</v>
+      </c>
+      <c r="N41">
         <v>5.75</v>
-      </c>
-      <c r="N41">
-        <v>1.25</v>
       </c>
       <c r="O41">
         <v>5.5</v>
       </c>
       <c r="P41">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="Q41">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4588,16 +4588,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600587</v>
+        <v>6600585</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4623,52 +4623,52 @@
         <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600591</v>
+        <v>6600586</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4709,7 +4709,7 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>153</v>
@@ -4718,67 +4718,67 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>189</v>
       </c>
       <c r="K43">
+        <v>1.363</v>
+      </c>
+      <c r="L43">
+        <v>4.75</v>
+      </c>
+      <c r="M43">
+        <v>5.75</v>
+      </c>
+      <c r="N43">
+        <v>1.25</v>
+      </c>
+      <c r="O43">
+        <v>5.5</v>
+      </c>
+      <c r="P43">
+        <v>7.5</v>
+      </c>
+      <c r="Q43">
+        <v>-2</v>
+      </c>
+      <c r="R43">
+        <v>1.975</v>
+      </c>
+      <c r="S43">
+        <v>1.825</v>
+      </c>
+      <c r="T43">
+        <v>3.75</v>
+      </c>
+      <c r="U43">
+        <v>1.8</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
         <v>6.5</v>
       </c>
-      <c r="L43">
-        <v>5.5</v>
-      </c>
-      <c r="M43">
-        <v>1.285</v>
-      </c>
-      <c r="N43">
-        <v>6.5</v>
-      </c>
-      <c r="O43">
-        <v>5.75</v>
-      </c>
-      <c r="P43">
-        <v>1.285</v>
-      </c>
-      <c r="Q43">
-        <v>1.75</v>
-      </c>
-      <c r="R43">
-        <v>2</v>
-      </c>
-      <c r="S43">
-        <v>1.8</v>
-      </c>
-      <c r="T43">
-        <v>4</v>
-      </c>
-      <c r="U43">
-        <v>1.85</v>
-      </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>0.2849999999999999</v>
-      </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5780,7 +5780,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>45080.25</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6504,43 +6504,43 @@
         <v>190</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L63">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6549,16 +6549,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6566,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6578,13 +6578,13 @@
         <v>45080.25</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6593,43 +6593,43 @@
         <v>190</v>
       </c>
       <c r="K64">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W64">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6638,16 +6638,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6670,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -6833,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6848,73 +6848,73 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K67">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6922,7 +6922,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6937,73 +6937,73 @@
         <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K68">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L68">
         <v>4</v>
       </c>
       <c r="M68">
+        <v>4.333</v>
+      </c>
+      <c r="N68">
+        <v>1.4</v>
+      </c>
+      <c r="O68">
+        <v>4.5</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <v>-1.25</v>
+      </c>
+      <c r="R68">
         <v>1.8</v>
       </c>
-      <c r="N68">
-        <v>3.5</v>
-      </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68">
-        <v>1.727</v>
-      </c>
-      <c r="Q68">
-        <v>0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,76 +7290,76 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
         <v>1.85</v>
       </c>
-      <c r="S72">
-        <v>1.95</v>
-      </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.95</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>0.5</v>
+      </c>
+      <c r="AC72">
         <v>-0.5</v>
-      </c>
-      <c r="AA72">
-        <v>0.475</v>
-      </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
-      <c r="AC72">
-        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,76 +7379,76 @@
         <v>45088.25</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>1.95</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.85</v>
+      </c>
+      <c r="V73">
+        <v>1.95</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>3.333</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>2</v>
-      </c>
-      <c r="V73">
-        <v>1.8</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AA73">
+        <v>0.475</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.95</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.5</v>
-      </c>
-      <c r="AC73">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>3.5</v>
+      </c>
+      <c r="U74">
         <v>1.9</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.9</v>
       </c>
-      <c r="T74">
-        <v>4.25</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75">
+        <v>17</v>
+      </c>
+      <c r="L75">
+        <v>11</v>
+      </c>
+      <c r="M75">
+        <v>1.062</v>
+      </c>
+      <c r="N75">
+        <v>17</v>
+      </c>
+      <c r="O75">
+        <v>11</v>
+      </c>
+      <c r="P75">
+        <v>1.062</v>
+      </c>
+      <c r="Q75">
+        <v>3.25</v>
+      </c>
+      <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>4.25</v>
+      </c>
+      <c r="U75">
+        <v>1.8</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z75">
+        <v>0.45</v>
+      </c>
+      <c r="AA75">
+        <v>-0.5</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>190</v>
-      </c>
-      <c r="K75">
-        <v>1.444</v>
-      </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>3.5</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
-      <c r="W75">
-        <v>0.444</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>-0.5</v>
-      </c>
-      <c r="AA75">
-        <v>0.475</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
-      <c r="AC75">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7723,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7735,13 +7735,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7750,43 +7750,43 @@
         <v>190</v>
       </c>
       <c r="K77">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P77">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7795,16 +7795,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7812,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7824,13 +7824,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7839,43 +7839,43 @@
         <v>190</v>
       </c>
       <c r="K78">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O78">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q78">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7884,16 +7884,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7916,7 +7916,7 @@
         <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
         <v>3</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89">
-        <v>1.1</v>
-      </c>
-      <c r="L89">
-        <v>8</v>
-      </c>
-      <c r="M89">
-        <v>13</v>
-      </c>
       <c r="N89">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>10</v>
+      </c>
+      <c r="Q90">
+        <v>-2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
         <v>4.5</v>
       </c>
-      <c r="P90">
-        <v>2.3</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.85</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3.75</v>
-      </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X90">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8969,7 +8969,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8981,55 +8981,55 @@
         <v>45143.25</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" t="s">
         <v>189</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P91">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -9038,16 +9038,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9058,7 +9058,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9070,55 +9070,55 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G92" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>189</v>
       </c>
       <c r="K92">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N92">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O92">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q92">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -9127,16 +9127,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9159,7 +9159,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9607,7 +9607,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K102">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068596</v>
+        <v>7068603</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10141,70 +10141,70 @@
         <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M104">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>3.333</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>1</v>
       </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.825</v>
-      </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,46 +10227,46 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G105" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>190</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O105">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>3.25</v>
@@ -10278,7 +10278,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10287,16 +10287,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068602</v>
+        <v>7068599</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N106">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.85</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
-      <c r="V106">
-        <v>2.025</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068595</v>
+        <v>7068602</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,76 +10405,76 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K107">
+        <v>2.1</v>
+      </c>
+      <c r="L107">
+        <v>4.2</v>
+      </c>
+      <c r="M107">
+        <v>2.5</v>
+      </c>
+      <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>2.55</v>
+      </c>
+      <c r="Q107">
+        <v>-0.25</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
       </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>1.95</v>
-      </c>
-      <c r="O107">
-        <v>4</v>
-      </c>
-      <c r="P107">
-        <v>2.9</v>
-      </c>
-      <c r="Q107">
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
+        <v>2.025</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>3.2</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>2</v>
-      </c>
-      <c r="S107">
-        <v>1.8</v>
-      </c>
-      <c r="T107">
-        <v>3.5</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>1.9</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10494,40 +10494,40 @@
         <v>45153.5</v>
       </c>
       <c r="F108" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G108" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10536,34 +10536,34 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -12084,7 +12084,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12099,7 +12099,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12111,40 +12111,40 @@
         <v>189</v>
       </c>
       <c r="K126">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -12153,16 +12153,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -12188,7 +12188,7 @@
         <v>115</v>
       </c>
       <c r="G127" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12200,40 +12200,40 @@
         <v>189</v>
       </c>
       <c r="K127">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -12242,16 +12242,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,46 +12719,46 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G133" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>189</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,19 +12776,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,13 +12808,13 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12823,31 +12823,31 @@
         <v>189</v>
       </c>
       <c r="K134">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,13 +12865,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12885,7 +12885,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12897,46 +12897,46 @@
         <v>45178.25</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>189</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>3.5</v>
@@ -12954,19 +12954,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N136">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q136">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N137">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13164,7 +13164,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s">
         <v>175</v>
@@ -13330,7 +13330,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13342,13 +13342,13 @@
         <v>45185.25</v>
       </c>
       <c r="F140" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -13357,61 +13357,61 @@
         <v>190</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
+        <v>4.75</v>
+      </c>
+      <c r="M140">
+        <v>6</v>
+      </c>
+      <c r="N140">
+        <v>1.363</v>
+      </c>
+      <c r="O140">
+        <v>4.75</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1.5</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
         <v>3.75</v>
       </c>
-      <c r="M140">
-        <v>2.55</v>
-      </c>
-      <c r="N140">
-        <v>3.2</v>
-      </c>
-      <c r="O140">
-        <v>3.75</v>
-      </c>
-      <c r="P140">
-        <v>1.85</v>
-      </c>
-      <c r="Q140">
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.8</v>
+      </c>
+      <c r="W140">
+        <v>0.363</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>0.5</v>
       </c>
-      <c r="R140">
-        <v>1.85</v>
-      </c>
-      <c r="S140">
-        <v>1.95</v>
-      </c>
-      <c r="T140">
-        <v>3.5</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>2.2</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13419,7 +13419,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13431,13 +13431,13 @@
         <v>45185.25</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13446,43 +13446,43 @@
         <v>190</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13491,16 +13491,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K147">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
+        <v>5</v>
+      </c>
+      <c r="M147">
         <v>7</v>
       </c>
-      <c r="M147">
-        <v>11</v>
-      </c>
       <c r="N147">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O147">
         <v>5.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q147">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
+        <v>0.8</v>
+      </c>
+      <c r="AB147">
+        <v>0.475</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>0.8</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G148" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K148">
+        <v>1.166</v>
+      </c>
+      <c r="L148">
+        <v>7</v>
+      </c>
+      <c r="M148">
+        <v>11</v>
+      </c>
+      <c r="N148">
         <v>1.3</v>
-      </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
-        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="T148">
-        <v>3.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
+        <v>-0.5</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
       </c>
-      <c r="AB148">
-        <v>0.475</v>
-      </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14769,7 +14769,7 @@
         <v>126</v>
       </c>
       <c r="G156" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,40 +15211,40 @@
         <v>45221.25</v>
       </c>
       <c r="F161" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G161" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>189</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -15253,13 +15253,13 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -15268,7 +15268,7 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -15277,10 +15277,10 @@
         <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,40 +15300,40 @@
         <v>45221.25</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
         <v>1</v>
-      </c>
-      <c r="I162">
-        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>189</v>
       </c>
       <c r="K162">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>2</v>
@@ -15342,13 +15342,13 @@
         <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15923,7 +15923,7 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
@@ -16012,7 +16012,7 @@
         <v>45235.375</v>
       </c>
       <c r="F170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G170" t="s">
         <v>111</v>
@@ -16371,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16727,7 +16727,7 @@
         <v>110</v>
       </c>
       <c r="G178" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H178">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -169,15 +169,15 @@
     <t>KS Mszczonowianka</t>
   </si>
   <si>
+    <t>Gryf Wejherowo</t>
+  </si>
+  <si>
     <t>LKS Mewa Kunice</t>
   </si>
   <si>
     <t>Grom Nowy Staw</t>
   </si>
   <si>
-    <t>Gryf Wejherowo</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -190,24 +190,24 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>MKS Slask Swietochlowice</t>
+  </si>
+  <si>
     <t>Pogon Zdunska Wola</t>
   </si>
   <si>
-    <t>MKS Slask Swietochlowice</t>
-  </si>
-  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
     <t>Limanovia Limanowa</t>
   </si>
   <si>
+    <t>KTSK Luzino</t>
+  </si>
+  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
-    <t>KTSK Luzino</t>
-  </si>
-  <si>
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Rozwoj Katowice</t>
   </si>
   <si>
+    <t>Wolania Wola Rzedzinska</t>
+  </si>
+  <si>
     <t>Szombierki Bytom</t>
   </si>
   <si>
-    <t>Wolania Wola Rzedzinska</t>
-  </si>
-  <si>
     <t>Anioly Garczegorze</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Miedz Legnica II</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -571,10 +571,10 @@
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>Mragowia Mragowo</t>
+  </si>
+  <si>
     <t>GKS Nowiny</t>
-  </si>
-  <si>
-    <t>Mragowia Mragowo</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6486239</v>
+        <v>6486237</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2039,76 +2039,76 @@
         <v>45021.5</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>1.2</v>
       </c>
       <c r="L13">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
         <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2116,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6486237</v>
+        <v>6486239</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2128,76 +2128,76 @@
         <v>45021.5</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O14">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
+        <v>1.925</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
         <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6569193</v>
+        <v>6568694</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,16 +3377,16 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K28">
         <v>1.85</v>
@@ -3398,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O28">
+        <v>4.2</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
         <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>2.55</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.75</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
       </c>
       <c r="U28">
         <v>1.9</v>
@@ -3428,22 +3428,22 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y28">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6568693</v>
+        <v>6569193</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3466,70 +3466,70 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K29">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
         <v>4.2</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6568694</v>
+        <v>6568693</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,73 +3555,73 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L30">
         <v>4.2</v>
       </c>
       <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>1.363</v>
+      </c>
+      <c r="O30">
+        <v>4.333</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>-1.5</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>1.85</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="N30">
-        <v>1.85</v>
-      </c>
-      <c r="O30">
-        <v>4.2</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
-      </c>
-      <c r="T30">
-        <v>3.75</v>
-      </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600593</v>
+        <v>6600589</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -4000,46 +4000,46 @@
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>4.333</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>4.333</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -4051,22 +4051,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600589</v>
+        <v>6600588</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4086,13 +4086,13 @@
         <v>45049.25</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -4101,40 +4101,40 @@
         <v>189</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L36">
         <v>4.333</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <v>4.333</v>
       </c>
       <c r="P36">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
         <v>1.85</v>
       </c>
-      <c r="S36">
+      <c r="T36">
+        <v>3.5</v>
+      </c>
+      <c r="U36">
         <v>1.95</v>
       </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -4143,16 +4143,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB36">
         <v>0.95</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4163,7 +4163,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6600588</v>
+        <v>6600593</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4175,76 +4175,76 @@
         <v>45049.25</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K37">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
         <v>4.333</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O37">
         <v>4.333</v>
       </c>
       <c r="P37">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB37">
-        <v>0.95</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600591</v>
+        <v>6600585</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,56 +4442,56 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.75</v>
+      </c>
+      <c r="N40">
+        <v>1.25</v>
+      </c>
+      <c r="O40">
         <v>5.5</v>
       </c>
-      <c r="M40">
-        <v>1.285</v>
-      </c>
-      <c r="N40">
-        <v>6.5</v>
-      </c>
-      <c r="O40">
-        <v>5.75</v>
-      </c>
       <c r="P40">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
+        <v>1.825</v>
+      </c>
+      <c r="T40">
+        <v>3.75</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
         <v>1.8</v>
       </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-      <c r="U40">
-        <v>1.85</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4499,16 +4499,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.2849999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600587</v>
+        <v>6600591</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,13 +4531,13 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -4546,31 +4546,31 @@
         <v>189</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L41">
         <v>5.5</v>
       </c>
       <c r="M41">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N41">
+        <v>6.5</v>
+      </c>
+      <c r="O41">
         <v>5.75</v>
       </c>
-      <c r="O41">
-        <v>5.5</v>
-      </c>
       <c r="P41">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q41">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>4</v>
@@ -4588,13 +4588,13 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>0.8500000000000001</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600585</v>
+        <v>6600587</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4623,52 +4623,52 @@
         <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
+        <v>1.3</v>
+      </c>
+      <c r="N42">
         <v>5.75</v>
-      </c>
-      <c r="N42">
-        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -5246,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5780,7 +5780,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6672917</v>
+        <v>6672915</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5869,46 +5869,46 @@
         <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M56">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N56">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O56">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P56">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q56">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
         <v>1.8</v>
@@ -5920,16 +5920,16 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y56">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5943,7 +5943,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6672915</v>
+        <v>6672917</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5958,46 +5958,46 @@
         <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K57">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L57">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N57">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O57">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q57">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
         <v>1.8</v>
@@ -6009,16 +6009,16 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6477,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>45080.25</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6504,43 +6504,43 @@
         <v>190</v>
       </c>
       <c r="K63">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O63">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W63">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6549,16 +6549,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6566,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6578,13 +6578,13 @@
         <v>45080.25</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6593,43 +6593,43 @@
         <v>190</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L64">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6638,16 +6638,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6670,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -7204,7 +7204,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <v>1.062</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <v>1.062</v>
+      </c>
+      <c r="Q74">
+        <v>3.25</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
+        <v>4.25</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z74">
+        <v>0.45</v>
+      </c>
+      <c r="AA74">
+        <v>-0.5</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74">
-        <v>1.444</v>
-      </c>
-      <c r="L74">
-        <v>4.5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>0.475</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
-      <c r="AC74">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
         <v>1.9</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.9</v>
       </c>
-      <c r="T75">
-        <v>4.25</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7723,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7735,13 +7735,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7750,43 +7750,43 @@
         <v>190</v>
       </c>
       <c r="K77">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q77">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7795,16 +7795,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7812,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7824,13 +7824,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7839,43 +7839,43 @@
         <v>190</v>
       </c>
       <c r="K78">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P78">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7884,16 +7884,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8447,7 +8447,7 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
         <v>160</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O89">
+        <v>8</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2.75</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
         <v>4.5</v>
       </c>
-      <c r="P89">
-        <v>2.3</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.85</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.75</v>
-      </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X89">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>191</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>190</v>
-      </c>
-      <c r="K90">
-        <v>1.1</v>
-      </c>
-      <c r="L90">
-        <v>8</v>
-      </c>
-      <c r="M90">
-        <v>13</v>
-      </c>
       <c r="N90">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8969,7 +8969,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8981,55 +8981,55 @@
         <v>45143.25</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>189</v>
       </c>
       <c r="K91">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q91">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -9038,16 +9038,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9058,7 +9058,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9070,55 +9070,55 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J92" t="s">
         <v>189</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P92">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -9127,16 +9127,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9607,7 +9607,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10141,7 +10141,7 @@
         <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10153,58 +10153,58 @@
         <v>191</v>
       </c>
       <c r="K104">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M104">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="V104">
-        <v>1.775</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB104">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,46 +10227,46 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G105" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>190</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>3.25</v>
@@ -10278,7 +10278,7 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10287,16 +10287,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068599</v>
+        <v>7068603</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G106" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M106">
+        <v>1.615</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
         <v>4.333</v>
       </c>
-      <c r="N106">
-        <v>1.5</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
-      </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
         <v>1.8</v>
-      </c>
-      <c r="S106">
-        <v>2</v>
       </c>
       <c r="T106">
         <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,76 +10405,76 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
+        <v>3.5</v>
+      </c>
+      <c r="U107">
+        <v>1.85</v>
+      </c>
+      <c r="V107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.775</v>
-      </c>
-      <c r="V107">
-        <v>2.025</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10494,49 +10494,49 @@
         <v>45153.5</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L108">
         <v>4</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O108">
         <v>4</v>
       </c>
       <c r="P108">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.85</v>
@@ -10545,25 +10545,25 @@
         <v>1.95</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10850,7 +10850,7 @@
         <v>45154.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G112" t="s">
         <v>165</v>
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11562,28 +11562,28 @@
         <v>45164.25</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="G120" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N120">
         <v>2.2</v>
@@ -11592,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -11604,34 +11604,34 @@
         <v>2.025</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11651,7 +11651,7 @@
         <v>45164.25</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G121" t="s">
         <v>169</v>
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,28 +11740,28 @@
         <v>45164.25</v>
       </c>
       <c r="F122" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K122">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L122">
         <v>4</v>
       </c>
       <c r="M122">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11770,7 +11770,7 @@
         <v>4</v>
       </c>
       <c r="P122">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -11782,34 +11782,34 @@
         <v>2.025</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12084,7 +12084,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12099,7 +12099,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12111,40 +12111,40 @@
         <v>189</v>
       </c>
       <c r="K126">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -12153,16 +12153,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -12188,7 +12188,7 @@
         <v>115</v>
       </c>
       <c r="G127" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12200,40 +12200,40 @@
         <v>189</v>
       </c>
       <c r="K127">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -12242,16 +12242,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,46 +12808,46 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>189</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,19 +12865,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12885,7 +12885,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12897,46 +12897,46 @@
         <v>45178.25</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>189</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>3.5</v>
@@ -12954,19 +12954,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M147">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K148">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
         <v>7</v>
       </c>
-      <c r="M148">
-        <v>11</v>
-      </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8</v>
+      </c>
+      <c r="AB148">
+        <v>0.475</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>0.8</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14131,7 +14131,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7246023</v>
+        <v>7246020</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -14143,76 +14143,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>190</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="L149">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W149">
+        <v>0.3</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.45</v>
+      </c>
+      <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
         <v>0.8</v>
       </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14769,7 +14769,7 @@
         <v>126</v>
       </c>
       <c r="G156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,13 +15923,13 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>3</v>
@@ -15938,61 +15938,61 @@
         <v>189</v>
       </c>
       <c r="K169">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N169">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>3.25</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>0.75</v>
-      </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16012,7 +16012,7 @@
         <v>45235.375</v>
       </c>
       <c r="F170" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G170" t="s">
         <v>111</v>
@@ -16089,7 +16089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16101,13 +16101,13 @@
         <v>45235.375</v>
       </c>
       <c r="F171" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G171" t="s">
         <v>186</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>3</v>
@@ -16116,40 +16116,40 @@
         <v>189</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L171">
         <v>4</v>
       </c>
       <c r="M171">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N171">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -16158,19 +16158,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16724,7 +16724,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G178" t="s">
         <v>57</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
+    <t>KS Iskra Kochlice</t>
+  </si>
+  <si>
     <t>Jaworzanka Jawor</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
-    <t>KS Iskra Kochlice</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>KS Mszczonowianka</t>
   </si>
   <si>
+    <t>LKS Mewa Kunice</t>
+  </si>
+  <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
     <t>Gryf Wejherowo</t>
   </si>
   <si>
-    <t>LKS Mewa Kunice</t>
-  </si>
-  <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>Tecza Biskupiec</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Mieszko Gniezno</t>
+  </si>
+  <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>Miedz Legnica II</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -562,19 +562,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
   </si>
   <si>
-    <t>Unia Wabrzezno</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
     <t>Mragowia Mragowo</t>
-  </si>
-  <si>
-    <t>GKS Nowiny</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457509</v>
+        <v>6457510</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,73 +1597,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.4</v>
+      </c>
+      <c r="AA8">
+        <v>-0.5</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.825</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6457510</v>
+        <v>6457508</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1686,55 +1686,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>190</v>
       </c>
       <c r="K9">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
         <v>4.333</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="N9">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>4.333</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1743,16 +1743,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457508</v>
+        <v>6457509</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>4.333</v>
-      </c>
       <c r="M10">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -2217,7 +2217,7 @@
         <v>45021.50277777778</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6513739</v>
+        <v>6513740</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2662,10 +2662,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2677,43 +2677,43 @@
         <v>190</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2722,16 +2722,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6513740</v>
+        <v>6513739</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2751,10 +2751,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2766,43 +2766,43 @@
         <v>190</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.7</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
         <v>1.875</v>
       </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>3.75</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6568694</v>
+        <v>6569193</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,16 +3377,16 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K28">
         <v>1.85</v>
@@ -3398,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U28">
         <v>1.9</v>
@@ -3428,22 +3428,22 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6569193</v>
+        <v>6568693</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3466,70 +3466,70 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L29">
         <v>4.2</v>
       </c>
       <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>1.363</v>
+      </c>
+      <c r="O29">
+        <v>4.333</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>-1.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>1.85</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="N29">
-        <v>2.2</v>
-      </c>
-      <c r="O29">
-        <v>3.75</v>
-      </c>
-      <c r="P29">
-        <v>2.55</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>1.75</v>
-      </c>
-      <c r="S29">
-        <v>2.05</v>
-      </c>
-      <c r="T29">
-        <v>4</v>
-      </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6568693</v>
+        <v>6568694</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,73 +3555,73 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
         <v>4.2</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600589</v>
+        <v>6600588</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3997,13 +3997,13 @@
         <v>45049.25</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -4012,40 +4012,40 @@
         <v>189</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L35">
         <v>4.333</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <v>4.333</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.85</v>
       </c>
-      <c r="S35">
+      <c r="T35">
+        <v>3.5</v>
+      </c>
+      <c r="U35">
         <v>1.95</v>
       </c>
-      <c r="T35">
-        <v>3.75</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -4054,16 +4054,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB35">
         <v>0.95</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600588</v>
+        <v>6600589</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4086,13 +4086,13 @@
         <v>45049.25</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -4101,41 +4101,41 @@
         <v>189</v>
       </c>
       <c r="K36">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
         <v>4.333</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
         <v>4.333</v>
       </c>
       <c r="P36">
+        <v>2.5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>3.5</v>
-      </c>
-      <c r="U36">
-        <v>1.95</v>
-      </c>
-      <c r="V36">
-        <v>1.85</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
@@ -4143,16 +4143,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600585</v>
+        <v>6600591</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,55 +4442,55 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M40">
+        <v>1.285</v>
+      </c>
+      <c r="N40">
+        <v>6.5</v>
+      </c>
+      <c r="O40">
         <v>5.75</v>
       </c>
-      <c r="N40">
-        <v>1.25</v>
-      </c>
-      <c r="O40">
-        <v>5.5</v>
-      </c>
       <c r="P40">
-        <v>8</v>
+        <v>1.285</v>
       </c>
       <c r="Q40">
-        <v>-2</v>
+        <v>1.75</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4499,16 +4499,16 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>7</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600591</v>
+        <v>6600585</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,56 +4531,56 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="L41">
+        <v>4.75</v>
+      </c>
+      <c r="M41">
+        <v>5.75</v>
+      </c>
+      <c r="N41">
+        <v>1.25</v>
+      </c>
+      <c r="O41">
         <v>5.5</v>
       </c>
-      <c r="M41">
-        <v>1.285</v>
-      </c>
-      <c r="N41">
-        <v>6.5</v>
-      </c>
-      <c r="O41">
-        <v>5.75</v>
-      </c>
       <c r="P41">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
+        <v>1.825</v>
+      </c>
+      <c r="T41">
+        <v>3.75</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.8</v>
       </c>
-      <c r="T41">
-        <v>4</v>
-      </c>
-      <c r="U41">
-        <v>1.85</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4588,16 +4588,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.2849999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600587</v>
+        <v>6600586</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4620,55 +4620,55 @@
         <v>45049.5</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,19 +4677,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600586</v>
+        <v>6600587</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4709,55 +4709,55 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
         <v>189</v>
       </c>
       <c r="K43">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L43">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
+        <v>1.3</v>
+      </c>
+      <c r="N43">
         <v>5.75</v>
-      </c>
-      <c r="N43">
-        <v>1.25</v>
       </c>
       <c r="O43">
         <v>5.5</v>
       </c>
       <c r="P43">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4766,19 +4766,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5676,7 +5676,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6670980</v>
+        <v>6671002</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5688,62 +5688,62 @@
         <v>45066.25</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K54">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>1.142</v>
+      </c>
+      <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="Q54">
+        <v>-2.5</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>3.75</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
+        <v>1.85</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>5</v>
       </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>1.285</v>
-      </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
-      <c r="P54">
-        <v>7.5</v>
-      </c>
-      <c r="Q54">
-        <v>-1.75</v>
-      </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>3.25</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
-      <c r="W54">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
@@ -5751,13 +5751,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5765,7 +5765,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6671002</v>
+        <v>6670980</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5777,61 +5777,61 @@
         <v>45066.25</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K55">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>1.142</v>
+        <v>1.285</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q55">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X55">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5840,13 +5840,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6477,7 +6477,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>45080.25</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6504,43 +6504,43 @@
         <v>190</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L63">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6549,16 +6549,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6566,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6578,13 +6578,13 @@
         <v>45080.25</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6593,43 +6593,43 @@
         <v>190</v>
       </c>
       <c r="K64">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W64">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6638,16 +6638,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6833,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6848,73 +6848,73 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
+        <v>4.333</v>
+      </c>
+      <c r="N67">
+        <v>1.4</v>
+      </c>
+      <c r="O67">
+        <v>4.5</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+      <c r="Q67">
+        <v>-1.25</v>
+      </c>
+      <c r="R67">
         <v>1.8</v>
       </c>
-      <c r="N67">
-        <v>3.5</v>
-      </c>
-      <c r="O67">
-        <v>4</v>
-      </c>
-      <c r="P67">
-        <v>1.727</v>
-      </c>
-      <c r="Q67">
-        <v>0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6922,7 +6922,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6937,73 +6937,73 @@
         <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K68">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L68">
         <v>4</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O68">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7379,7 +7379,7 @@
         <v>45088.25</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>88</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O74">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
+        <v>3.5</v>
+      </c>
+      <c r="U74">
         <v>1.9</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.9</v>
       </c>
-      <c r="T74">
-        <v>4.25</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75">
+        <v>17</v>
+      </c>
+      <c r="L75">
+        <v>11</v>
+      </c>
+      <c r="M75">
+        <v>1.062</v>
+      </c>
+      <c r="N75">
+        <v>17</v>
+      </c>
+      <c r="O75">
+        <v>11</v>
+      </c>
+      <c r="P75">
+        <v>1.062</v>
+      </c>
+      <c r="Q75">
+        <v>3.25</v>
+      </c>
+      <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>4.25</v>
+      </c>
+      <c r="U75">
+        <v>1.8</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z75">
+        <v>0.45</v>
+      </c>
+      <c r="AA75">
+        <v>-0.5</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>190</v>
-      </c>
-      <c r="K75">
-        <v>1.444</v>
-      </c>
-      <c r="L75">
-        <v>4.5</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.444</v>
-      </c>
-      <c r="O75">
-        <v>4.5</v>
-      </c>
-      <c r="P75">
-        <v>5</v>
-      </c>
-      <c r="Q75">
-        <v>-1.25</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>3.5</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
-      <c r="W75">
-        <v>0.444</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>-0.5</v>
-      </c>
-      <c r="AA75">
-        <v>0.475</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
-      <c r="AC75">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7738,7 +7738,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7824,7 +7824,7 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
         <v>158</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
         <v>3</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89">
-        <v>1.1</v>
-      </c>
-      <c r="L89">
-        <v>8</v>
-      </c>
-      <c r="M89">
-        <v>13</v>
-      </c>
       <c r="N89">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>10</v>
+      </c>
+      <c r="Q90">
+        <v>-2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
         <v>4.5</v>
       </c>
-      <c r="P90">
-        <v>2.3</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.85</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3.75</v>
-      </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X90">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8969,7 +8969,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8981,55 +8981,55 @@
         <v>45143.25</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J91" t="s">
         <v>189</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P91">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -9038,16 +9038,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9058,7 +9058,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9070,55 +9070,55 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G92" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>189</v>
       </c>
       <c r="K92">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N92">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O92">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q92">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -9127,16 +9127,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9159,7 +9159,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9604,19 +9604,19 @@
         <v>45150.25</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K98">
         <v>2.375</v>
@@ -9628,22 +9628,22 @@
         <v>2.375</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
         <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
         <v>3.5</v>
@@ -9655,25 +9655,25 @@
         <v>1.8</v>
       </c>
       <c r="W98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9681,7 +9681,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9693,19 +9693,19 @@
         <v>45150.25</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9717,22 +9717,22 @@
         <v>2.375</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
         <v>3.6</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
         <v>3.5</v>
@@ -9744,25 +9744,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068602</v>
+        <v>7068596</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10141,70 +10141,70 @@
         <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.825</v>
+      </c>
+      <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
+        <v>3.25</v>
+      </c>
+      <c r="U104">
+        <v>1.85</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
-      <c r="U104">
-        <v>1.775</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068599</v>
+        <v>7068603</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,76 +10227,76 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G105" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M105">
+        <v>1.615</v>
+      </c>
+      <c r="N105">
+        <v>3.75</v>
+      </c>
+      <c r="O105">
         <v>4.333</v>
       </c>
-      <c r="N105">
-        <v>1.5</v>
-      </c>
-      <c r="O105">
-        <v>4.5</v>
-      </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
         <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2</v>
       </c>
       <c r="T105">
         <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,10 +10316,10 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G106" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10331,58 +10331,58 @@
         <v>191</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O106">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P106">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q106">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>1.775</v>
+      </c>
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="V106">
-        <v>1.775</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,49 +10405,49 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
       <c r="J107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N107">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
         <v>1.85</v>
@@ -10456,19 +10456,19 @@
         <v>1.95</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
         <v>-1</v>
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068596</v>
+        <v>7068595</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10494,49 +10494,49 @@
         <v>45153.5</v>
       </c>
       <c r="F108" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="G108" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
         <v>4</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
         <v>4</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
         <v>1.85</v>
@@ -10545,25 +10545,25 @@
         <v>1.95</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11565,64 +11565,64 @@
         <v>109</v>
       </c>
       <c r="G120" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K120">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N120">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P120">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11631,7 +11631,7 @@
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11654,64 +11654,64 @@
         <v>110</v>
       </c>
       <c r="G121" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
         <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X121">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11720,7 +11720,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12084,7 +12084,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12099,7 +12099,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12111,40 +12111,40 @@
         <v>189</v>
       </c>
       <c r="K126">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -12153,16 +12153,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -12188,7 +12188,7 @@
         <v>115</v>
       </c>
       <c r="G127" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12200,40 +12200,40 @@
         <v>189</v>
       </c>
       <c r="K127">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -12242,16 +12242,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12900,7 +12900,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -13164,7 +13164,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G138" t="s">
         <v>175</v>
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="G147" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N147">
+        <v>1.25</v>
+      </c>
+      <c r="O147">
+        <v>5.5</v>
+      </c>
+      <c r="P147">
+        <v>8</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
         <v>1.8</v>
       </c>
-      <c r="O147">
-        <v>4.2</v>
-      </c>
-      <c r="P147">
-        <v>3.2</v>
-      </c>
-      <c r="Q147">
+      <c r="T147">
+        <v>3.75</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
+        <v>1.85</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>4.5</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.8</v>
+      </c>
+      <c r="AB147">
+        <v>0.475</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3.5</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
-      <c r="W147">
-        <v>0.8</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G148" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K148">
+        <v>1.166</v>
+      </c>
+      <c r="L148">
+        <v>7</v>
+      </c>
+      <c r="M148">
+        <v>11</v>
+      </c>
+      <c r="N148">
         <v>1.3</v>
-      </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
-        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="T148">
-        <v>3.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
+        <v>-0.5</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
       </c>
-      <c r="AB148">
-        <v>0.475</v>
-      </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14131,7 +14131,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -14143,58 +14143,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G149" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>190</v>
       </c>
       <c r="K149">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L149">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M149">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q149">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14203,16 +14203,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,76 +14766,76 @@
         <v>45213.25</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G156" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K156">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X156">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14843,7 +14843,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14855,76 +14855,76 @@
         <v>45213.25</v>
       </c>
       <c r="F157" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G157" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K157">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q157">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15021,7 +15021,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15033,34 +15033,34 @@
         <v>45220.25</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="G159" t="s">
         <v>182</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P159">
         <v>2.1</v>
@@ -15075,34 +15075,34 @@
         <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z159">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,34 +15122,34 @@
         <v>45220.25</v>
       </c>
       <c r="F160" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>183</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K160">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
         <v>2.1</v>
@@ -15164,34 +15164,34 @@
         <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y160">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,13 +15923,13 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>3</v>
@@ -15938,40 +15938,40 @@
         <v>189</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O169">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15980,19 +15980,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16000,7 +16000,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16012,55 +16012,55 @@
         <v>45235.375</v>
       </c>
       <c r="F170" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G170" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
         <v>189</v>
       </c>
       <c r="K170">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N170">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O170">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q170">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -16069,19 +16069,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16089,7 +16089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16101,55 +16101,55 @@
         <v>45235.375</v>
       </c>
       <c r="F171" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G171" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>189</v>
       </c>
       <c r="K171">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
         <v>3.3</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P171">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q171">
         <v>0.5</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -16158,19 +16158,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16724,7 +16724,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G178" t="s">
         <v>57</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -112,24 +112,24 @@
     <t>Wloclavia Wloclawek</t>
   </si>
   <si>
+    <t>GKS Gryf Gryfow Slaski</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>GKS Gryf Gryfow Slaski</t>
-  </si>
-  <si>
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>Jaworzanka Jawor</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
     <t>KS Iskra Kochlice</t>
   </si>
   <si>
-    <t>Jaworzanka Jawor</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>KS Mszczonowianka</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
+    <t>Gryf Wejherowo</t>
+  </si>
+  <si>
     <t>LKS Mewa Kunice</t>
   </si>
   <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
-    <t>Gryf Wejherowo</t>
-  </si>
-  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>MKS Piaseczno</t>
   </si>
   <si>
+    <t>MKS Slask Swietochlowice</t>
+  </si>
+  <si>
     <t>Barciczanka Barcice</t>
   </si>
   <si>
-    <t>MKS Slask Swietochlowice</t>
-  </si>
-  <si>
     <t>Pogon Zdunska Wola</t>
   </si>
   <si>
@@ -223,36 +223,36 @@
     <t>Rozwoj Katowice</t>
   </si>
   <si>
+    <t>Szombierki Bytom</t>
+  </si>
+  <si>
     <t>Wolania Wola Rzedzinska</t>
   </si>
   <si>
-    <t>Szombierki Bytom</t>
-  </si>
-  <si>
     <t>Anioly Garczegorze</t>
   </si>
   <si>
     <t>Wislanie Jaskowice</t>
   </si>
   <si>
+    <t>Kalwarianka Kalwaria Zebrzydowska</t>
+  </si>
+  <si>
     <t>Unia Kosztowy</t>
   </si>
   <si>
-    <t>Kalwarianka Kalwaria Zebrzydowska</t>
-  </si>
-  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>Kujawianka Izbica Kujawska</t>
   </si>
   <si>
+    <t>KS Luzyce Luban</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>KS Luzyce Luban</t>
-  </si>
-  <si>
     <t>Granit Roztoka</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>MZKS Narew Ostroleka</t>
   </si>
   <si>
+    <t>Unia Redziny</t>
+  </si>
+  <si>
     <t>Karkonosze Jelenia Gora</t>
   </si>
   <si>
-    <t>Unia Redziny</t>
-  </si>
-  <si>
     <t>Jeziorak Ilawa</t>
   </si>
   <si>
@@ -505,10 +505,10 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
-  </si>
-  <si>
-    <t>Piast Nowa Ruda</t>
   </si>
   <si>
     <t>BKS Bochnia</t>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6446360</v>
+        <v>6446359</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1333,70 +1333,70 @@
         <v>135</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K5">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M5">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6446359</v>
+        <v>6446360</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1422,70 +1422,70 @@
         <v>136</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K6">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="L6">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z6">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457510</v>
+        <v>6457509</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,73 +1597,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6457508</v>
+        <v>6457510</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1686,55 +1686,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>190</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L9">
         <v>4.333</v>
       </c>
       <c r="M9">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O9">
         <v>4.333</v>
       </c>
       <c r="P9">
+        <v>4.2</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
         <v>1.8</v>
       </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1743,16 +1743,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457509</v>
+        <v>6457508</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2217,7 +2217,7 @@
         <v>45021.50277777778</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6513740</v>
+        <v>6513739</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2662,10 +2662,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2677,43 +2677,43 @@
         <v>190</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.7</v>
+      </c>
+      <c r="S20">
+        <v>2.1</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>3.75</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>1.8</v>
-      </c>
       <c r="W20">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2722,16 +2722,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6513739</v>
+        <v>6513740</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2751,10 +2751,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2766,43 +2766,43 @@
         <v>190</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6569193</v>
+        <v>6568693</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,70 +3377,70 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L28">
         <v>4.2</v>
       </c>
       <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>1.363</v>
+      </c>
+      <c r="O28">
+        <v>4.333</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>-1.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.85</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>2.2</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>2.55</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.75</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3451,7 +3451,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6568693</v>
+        <v>6568694</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3466,73 +3466,73 @@
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K29">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
         <v>4.2</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6568694</v>
+        <v>6569193</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3555,16 +3555,16 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30">
         <v>1.85</v>
@@ -3576,25 +3576,25 @@
         <v>3</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U30">
         <v>1.9</v>
@@ -3606,22 +3606,22 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6600583</v>
+        <v>6600588</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3908,46 +3908,46 @@
         <v>45049.25</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
         <v>3.5</v>
@@ -3959,25 +3959,25 @@
         <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600588</v>
+        <v>6600589</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3997,13 +3997,13 @@
         <v>45049.25</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -4012,41 +4012,41 @@
         <v>189</v>
       </c>
       <c r="K35">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>4.333</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>4.333</v>
       </c>
       <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>-0.25</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>3.75</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.95</v>
-      </c>
-      <c r="S35">
-        <v>1.85</v>
-      </c>
-      <c r="T35">
-        <v>3.5</v>
-      </c>
-      <c r="U35">
-        <v>1.95</v>
-      </c>
-      <c r="V35">
-        <v>1.85</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
@@ -4054,16 +4054,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600589</v>
+        <v>6600583</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4089,73 +4089,73 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
       <c r="J36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L36">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
+        <v>3.5</v>
+      </c>
+      <c r="U36">
+        <v>1.95</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>1.8</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600591</v>
+        <v>6600586</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,7 +4442,7 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
@@ -4451,67 +4451,67 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
+        <v>1.363</v>
+      </c>
+      <c r="L40">
+        <v>4.75</v>
+      </c>
+      <c r="M40">
+        <v>5.75</v>
+      </c>
+      <c r="N40">
+        <v>1.25</v>
+      </c>
+      <c r="O40">
+        <v>5.5</v>
+      </c>
+      <c r="P40">
+        <v>7.5</v>
+      </c>
+      <c r="Q40">
+        <v>-2</v>
+      </c>
+      <c r="R40">
+        <v>1.975</v>
+      </c>
+      <c r="S40">
+        <v>1.825</v>
+      </c>
+      <c r="T40">
+        <v>3.75</v>
+      </c>
+      <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
         <v>6.5</v>
       </c>
-      <c r="L40">
-        <v>5.5</v>
-      </c>
-      <c r="M40">
-        <v>1.285</v>
-      </c>
-      <c r="N40">
-        <v>6.5</v>
-      </c>
-      <c r="O40">
-        <v>5.75</v>
-      </c>
-      <c r="P40">
-        <v>1.285</v>
-      </c>
-      <c r="Q40">
-        <v>1.75</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>1.8</v>
-      </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-      <c r="U40">
-        <v>1.85</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>0.2849999999999999</v>
-      </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600586</v>
+        <v>6600587</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4620,55 +4620,55 @@
         <v>45049.5</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
+        <v>1.3</v>
+      </c>
+      <c r="N42">
         <v>5.75</v>
-      </c>
-      <c r="N42">
-        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,19 +4677,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600587</v>
+        <v>6600591</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4709,13 +4709,13 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -4724,31 +4724,31 @@
         <v>189</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L43">
         <v>5.5</v>
       </c>
       <c r="M43">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N43">
+        <v>6.5</v>
+      </c>
+      <c r="O43">
         <v>5.75</v>
       </c>
-      <c r="O43">
-        <v>5.5</v>
-      </c>
       <c r="P43">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q43">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
         <v>4</v>
@@ -4766,13 +4766,13 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
         <v>0.8500000000000001</v>
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -5154,7 +5154,7 @@
         <v>45056.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>155</v>
@@ -5243,7 +5243,7 @@
         <v>45058.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>83</v>
@@ -5421,10 +5421,10 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6672915</v>
+        <v>6672917</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5869,46 +5869,46 @@
         <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K56">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="N56">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O56">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P56">
-        <v>6.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q56">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
         <v>1.8</v>
@@ -5920,16 +5920,16 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA56">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5943,7 +5943,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6672917</v>
+        <v>6672915</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5958,46 +5958,46 @@
         <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M57">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P57">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q57">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
         <v>1.8</v>
@@ -6009,16 +6009,16 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y57">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -6210,7 +6210,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6715841</v>
+        <v>6715807</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6225,70 +6225,70 @@
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N60">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>3.5</v>
       </c>
       <c r="U60">
+        <v>1.975</v>
+      </c>
+      <c r="V60">
         <v>1.825</v>
       </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6299,7 +6299,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6715807</v>
+        <v>6715841</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6314,70 +6314,70 @@
         <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K61">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M61">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3.5</v>
       </c>
       <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
         <v>0.825</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
-      <c r="AB61">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6492,7 +6492,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6833,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6848,73 +6848,73 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K67">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
         <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6922,7 +6922,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6937,73 +6937,73 @@
         <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K68">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L68">
         <v>4</v>
       </c>
       <c r="M68">
+        <v>4.333</v>
+      </c>
+      <c r="N68">
+        <v>1.4</v>
+      </c>
+      <c r="O68">
+        <v>4.5</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <v>-1.25</v>
+      </c>
+      <c r="R68">
         <v>1.8</v>
       </c>
-      <c r="N68">
-        <v>3.5</v>
-      </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68">
-        <v>1.727</v>
-      </c>
-      <c r="Q68">
-        <v>0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7204,7 +7204,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,76 +7290,76 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
+        <v>1.95</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>3.333</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>-0.5</v>
       </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>3.75</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
-      <c r="V72">
-        <v>1.8</v>
-      </c>
-      <c r="W72">
-        <v>0.909</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
+      <c r="AA72">
+        <v>0.475</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.95</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.5</v>
-      </c>
-      <c r="AC72">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,76 +7379,76 @@
         <v>45088.25</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
         <v>1.85</v>
       </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.95</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
+        <v>0.5</v>
+      </c>
+      <c r="AC73">
         <v>-0.5</v>
-      </c>
-      <c r="AA73">
-        <v>0.475</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
-      <c r="AC73">
-        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7723,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7735,13 +7735,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7750,43 +7750,43 @@
         <v>190</v>
       </c>
       <c r="K77">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P77">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U77">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7795,16 +7795,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7812,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7824,13 +7824,13 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7839,43 +7839,43 @@
         <v>190</v>
       </c>
       <c r="K78">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L78">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O78">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q78">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7884,16 +7884,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8447,7 +8447,7 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G85" t="s">
         <v>160</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O89">
+        <v>8</v>
+      </c>
+      <c r="P89">
+        <v>10</v>
+      </c>
+      <c r="Q89">
+        <v>-2.75</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
         <v>4.5</v>
       </c>
-      <c r="P89">
-        <v>2.3</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.85</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.75</v>
-      </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X89">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>191</v>
+      </c>
+      <c r="K90">
+        <v>1.833</v>
+      </c>
+      <c r="L90">
+        <v>4.333</v>
+      </c>
+      <c r="M90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>190</v>
-      </c>
-      <c r="K90">
-        <v>1.1</v>
-      </c>
-      <c r="L90">
-        <v>8</v>
-      </c>
-      <c r="M90">
-        <v>13</v>
-      </c>
       <c r="N90">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8981,7 +8981,7 @@
         <v>45143.25</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>75</v>
@@ -9159,7 +9159,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s">
         <v>159</v>
@@ -9518,7 +9518,7 @@
         <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9696,7 +9696,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K102">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10138,46 +10138,46 @@
         <v>45153.5</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>190</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>3.25</v>
@@ -10189,7 +10189,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -10198,16 +10198,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10215,7 +10215,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10227,40 +10227,40 @@
         <v>45153.5</v>
       </c>
       <c r="F105" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G105" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
         <v>2</v>
@@ -10269,34 +10269,34 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10316,10 +10316,10 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068599</v>
+        <v>7068603</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10405,76 +10405,76 @@
         <v>45153.5</v>
       </c>
       <c r="F107" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G107" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K107">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
+        <v>1.615</v>
+      </c>
+      <c r="N107">
+        <v>3.75</v>
+      </c>
+      <c r="O107">
         <v>4.333</v>
       </c>
-      <c r="N107">
-        <v>1.5</v>
-      </c>
-      <c r="O107">
-        <v>4.5</v>
-      </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
         <v>1.8</v>
-      </c>
-      <c r="S107">
-        <v>2</v>
       </c>
       <c r="T107">
         <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10494,49 +10494,49 @@
         <v>45153.5</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L108">
         <v>4</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O108">
         <v>4</v>
       </c>
       <c r="P108">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
         <v>1.85</v>
@@ -10545,25 +10545,25 @@
         <v>1.95</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10850,7 +10850,7 @@
         <v>45154.54166666666</v>
       </c>
       <c r="F112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
         <v>165</v>
@@ -11476,7 +11476,7 @@
         <v>103</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11562,76 +11562,76 @@
         <v>45164.25</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>191</v>
       </c>
       <c r="K120">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.775</v>
+      </c>
+      <c r="S120">
+        <v>2.025</v>
+      </c>
+      <c r="T120">
+        <v>3.75</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>3.25</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11651,67 +11651,67 @@
         <v>45164.25</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G121" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K121">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N121">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11720,7 +11720,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,28 +11740,28 @@
         <v>45164.25</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L122">
         <v>4</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N122">
         <v>2.2</v>
@@ -11770,7 +11770,7 @@
         <v>4</v>
       </c>
       <c r="P122">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -11782,34 +11782,34 @@
         <v>2.025</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12541,7 +12541,7 @@
         <v>45175.5</v>
       </c>
       <c r="F131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G131" t="s">
         <v>160</v>
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,13 +12719,13 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -12734,31 +12734,31 @@
         <v>189</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,13 +12776,13 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB133">
         <v>-1</v>
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,46 +12808,46 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G134" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>189</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,19 +12865,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12885,7 +12885,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12897,46 +12897,46 @@
         <v>45178.25</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>189</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>3.5</v>
@@ -12954,19 +12954,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12974,7 +12974,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12986,76 +12986,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P136">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13063,7 +13063,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -13075,76 +13075,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N137">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13164,7 +13164,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s">
         <v>175</v>
@@ -13790,7 +13790,7 @@
         <v>121</v>
       </c>
       <c r="G145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13879,7 +13879,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147">
+        <v>1.166</v>
+      </c>
+      <c r="L147">
+        <v>7</v>
+      </c>
+      <c r="M147">
+        <v>11</v>
+      </c>
+      <c r="N147">
         <v>1.3</v>
-      </c>
-      <c r="L147">
-        <v>5</v>
-      </c>
-      <c r="M147">
-        <v>7</v>
-      </c>
-      <c r="N147">
-        <v>1.25</v>
       </c>
       <c r="O147">
         <v>5.5</v>
       </c>
       <c r="P147">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
+        <v>1.9</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
         <v>1.8</v>
       </c>
-      <c r="T147">
-        <v>3.75</v>
-      </c>
-      <c r="U147">
-        <v>1.95</v>
-      </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X147">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
+        <v>-0.5</v>
+      </c>
+      <c r="AB147">
         <v>0.8</v>
       </c>
-      <c r="AB147">
-        <v>0.475</v>
-      </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K148">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
         <v>7</v>
       </c>
-      <c r="M148">
-        <v>11</v>
-      </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8</v>
+      </c>
+      <c r="AB148">
+        <v>0.475</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>0.8</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -15303,7 +15303,7 @@
         <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -16282,7 +16282,7 @@
         <v>130</v>
       </c>
       <c r="G173" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -16727,7 +16727,7 @@
         <v>110</v>
       </c>
       <c r="G178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H178">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>KS Iskra Kochlice</t>
+  </si>
+  <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Jaworzanka Jawor</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
-    <t>KS Iskra Kochlice</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Limanovia Limanowa</t>
   </si>
   <si>
+    <t>Huragan Morag</t>
+  </si>
+  <si>
     <t>KTSK Luzino</t>
   </si>
   <si>
-    <t>Huragan Morag</t>
-  </si>
-  <si>
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>Wislanie Jaskowice</t>
   </si>
   <si>
+    <t>Unia Kosztowy</t>
+  </si>
+  <si>
     <t>Kalwarianka Kalwaria Zebrzydowska</t>
   </si>
   <si>
-    <t>Unia Kosztowy</t>
-  </si>
-  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>Granit Roztoka</t>
   </si>
   <si>
+    <t>Odra Scinawa</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
-    <t>Odra Scinawa</t>
-  </si>
-  <si>
     <t>GKS Kowale</t>
   </si>
   <si>
@@ -571,10 +571,10 @@
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>Mragowia Mragowo</t>
+  </si>
+  <si>
     <t>GKS Nowiny</t>
-  </si>
-  <si>
-    <t>Mragowia Mragowo</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457509</v>
+        <v>6457508</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
         <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1686,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457508</v>
+        <v>6457509</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10">
+        <v>3.6</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>4.333</v>
-      </c>
       <c r="M10">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -3555,7 +3555,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600586</v>
+        <v>6600587</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,55 +4442,55 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>189</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M40">
+        <v>1.3</v>
+      </c>
+      <c r="N40">
         <v>5.75</v>
-      </c>
-      <c r="N40">
-        <v>1.25</v>
       </c>
       <c r="O40">
         <v>5.5</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q40">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4499,19 +4499,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600585</v>
+        <v>6600586</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,16 +4531,16 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
@@ -4561,7 +4561,7 @@
         <v>5.5</v>
       </c>
       <c r="P41">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q41">
         <v>-2</v>
@@ -4576,10 +4576,10 @@
         <v>3.75</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4588,7 +4588,7 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z41">
         <v>-1</v>
@@ -4597,10 +4597,10 @@
         <v>0.825</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>1</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600587</v>
+        <v>6600585</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4623,52 +4623,52 @@
         <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="O42">
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,16 +4677,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4709,7 +4709,7 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>153</v>
@@ -5424,7 +5424,7 @@
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>71</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6210,7 +6210,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6715807</v>
+        <v>6715841</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6225,70 +6225,70 @@
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K60">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M60">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3.5</v>
       </c>
       <c r="U60">
+        <v>1.825</v>
+      </c>
+      <c r="V60">
         <v>1.975</v>
       </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
         <v>0.825</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6299,7 +6299,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6715841</v>
+        <v>6715807</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6314,70 +6314,70 @@
         <v>74</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L61">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>3.5</v>
       </c>
       <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6581,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6670,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -7916,7 +7916,7 @@
         <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,76 +8803,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89">
+        <v>1.833</v>
+      </c>
+      <c r="L89">
+        <v>4.333</v>
+      </c>
+      <c r="M89">
         <v>3</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89">
-        <v>1.1</v>
-      </c>
-      <c r="L89">
-        <v>8</v>
-      </c>
-      <c r="M89">
-        <v>13</v>
-      </c>
       <c r="N89">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8880,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8892,76 +8892,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>10</v>
+      </c>
+      <c r="Q90">
+        <v>-2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
         <v>4.5</v>
       </c>
-      <c r="P90">
-        <v>2.3</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.85</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3.75</v>
-      </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X90">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -11743,7 +11743,7 @@
         <v>110</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -12084,7 +12084,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -12099,7 +12099,7 @@
         <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12111,40 +12111,40 @@
         <v>189</v>
       </c>
       <c r="K126">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
         <v>4</v>
       </c>
       <c r="M126">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N126">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -12153,16 +12153,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -12188,7 +12188,7 @@
         <v>115</v>
       </c>
       <c r="G127" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12200,40 +12200,40 @@
         <v>189</v>
       </c>
       <c r="K127">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -12242,16 +12242,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12541,7 +12541,7 @@
         <v>45175.5</v>
       </c>
       <c r="F131" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G131" t="s">
         <v>160</v>
@@ -13790,7 +13790,7 @@
         <v>121</v>
       </c>
       <c r="G145" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K147">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
+        <v>5</v>
+      </c>
+      <c r="M147">
         <v>7</v>
       </c>
-      <c r="M147">
-        <v>11</v>
-      </c>
       <c r="N147">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O147">
         <v>5.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q147">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
+        <v>0.8</v>
+      </c>
+      <c r="AB147">
+        <v>0.475</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>0.8</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G148" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K148">
+        <v>1.166</v>
+      </c>
+      <c r="L148">
+        <v>7</v>
+      </c>
+      <c r="M148">
+        <v>11</v>
+      </c>
+      <c r="N148">
         <v>1.3</v>
-      </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
-        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="T148">
-        <v>3.75</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
+        <v>-0.5</v>
+      </c>
+      <c r="AB148">
         <v>0.8</v>
       </c>
-      <c r="AB148">
-        <v>0.475</v>
-      </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14858,7 +14858,7 @@
         <v>126</v>
       </c>
       <c r="G157" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,40 +15211,40 @@
         <v>45221.25</v>
       </c>
       <c r="F161" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>189</v>
       </c>
       <c r="K161">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N161">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -15253,13 +15253,13 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -15268,7 +15268,7 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -15277,10 +15277,10 @@
         <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,40 +15300,40 @@
         <v>45221.25</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G162" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>189</v>
       </c>
       <c r="K162">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P162">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
         <v>2</v>
@@ -15342,13 +15342,13 @@
         <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,13 +15923,13 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G169" t="s">
         <v>185</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>3</v>
@@ -15938,61 +15938,61 @@
         <v>189</v>
       </c>
       <c r="K169">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>4</v>
       </c>
       <c r="M169">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N169">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>3.25</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>1.8</v>
       </c>
-      <c r="T169">
-        <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.8</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>0.75</v>
-      </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16000,7 +16000,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16012,13 +16012,13 @@
         <v>45235.375</v>
       </c>
       <c r="F170" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G170" t="s">
         <v>186</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>3</v>
@@ -16027,40 +16027,40 @@
         <v>189</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L170">
         <v>4</v>
       </c>
       <c r="M170">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -16069,19 +16069,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16282,7 +16282,7 @@
         <v>130</v>
       </c>
       <c r="G173" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -16371,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H174">
         <v>2</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -121,15 +121,15 @@
     <t>BKS Boleslawiec</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
+    <t>Jaworzanka Jawor</t>
+  </si>
+  <si>
     <t>KS Iskra Kochlice</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
-    <t>Jaworzanka Jawor</t>
-  </si>
-  <si>
     <t>Piast Gliwice II</t>
   </si>
   <si>
@@ -187,15 +187,15 @@
     <t>MKS Piaseczno</t>
   </si>
   <si>
+    <t>Pogon Zdunska Wola</t>
+  </si>
+  <si>
+    <t>Barciczanka Barcice</t>
+  </si>
+  <si>
     <t>MKS Slask Swietochlowice</t>
   </si>
   <si>
-    <t>Barciczanka Barcice</t>
-  </si>
-  <si>
-    <t>Pogon Zdunska Wola</t>
-  </si>
-  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Zabkovia Zabki</t>
+  </si>
+  <si>
     <t>Szczakowianka Jaworzno</t>
   </si>
   <si>
-    <t>Zabkovia Zabki</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Oskar Przysucha</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>Granit Roztoka</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Odra Scinawa</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>GKS Kowale</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>MZKS Narew Ostroleka</t>
   </si>
   <si>
+    <t>Karkonosze Jelenia Gora</t>
+  </si>
+  <si>
     <t>Unia Redziny</t>
   </si>
   <si>
-    <t>Karkonosze Jelenia Gora</t>
-  </si>
-  <si>
     <t>Jeziorak Ilawa</t>
   </si>
   <si>
@@ -571,10 +571,10 @@
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
     <t>Mragowia Mragowo</t>
-  </si>
-  <si>
-    <t>GKS Nowiny</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6457508</v>
+        <v>6457510</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1600,52 +1600,52 @@
         <v>138</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>190</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L8">
         <v>4.333</v>
       </c>
       <c r="M8">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O8">
         <v>4.333</v>
       </c>
       <c r="P8">
+        <v>4.2</v>
+      </c>
+      <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
         <v>1.8</v>
       </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1654,16 +1654,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1671,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6457510</v>
+        <v>6457509</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1686,73 +1686,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K9">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6457509</v>
+        <v>6457508</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,70 +1775,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>3.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2217,7 +2217,7 @@
         <v>45021.50277777778</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6513739</v>
+        <v>6513740</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2662,10 +2662,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2677,43 +2677,43 @@
         <v>190</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2722,16 +2722,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6513740</v>
+        <v>6513739</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2751,10 +2751,10 @@
         <v>45028.47916666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2766,43 +2766,43 @@
         <v>190</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.7</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>1.925</v>
+      </c>
+      <c r="V21">
         <v>1.875</v>
       </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>3.75</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4375</v>
+        <v>0.7</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3021,7 +3021,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31">
         <v>4</v>
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6600588</v>
+        <v>6600593</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3908,76 +3908,76 @@
         <v>45049.25</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K34">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
         <v>4.333</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="O34">
         <v>4.333</v>
       </c>
       <c r="P34">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>3.5</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.8</v>
-      </c>
-      <c r="Z34">
-        <v>-1</v>
-      </c>
-      <c r="AA34">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB34">
-        <v>0.95</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6600589</v>
+        <v>6600583</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3997,76 +3997,76 @@
         <v>45049.25</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
       <c r="J35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L35">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>3.5</v>
+      </c>
+      <c r="U35">
+        <v>1.95</v>
+      </c>
+      <c r="V35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>1.95</v>
-      </c>
-      <c r="T35">
-        <v>3.75</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
-      <c r="V35">
-        <v>1.8</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4074,7 +4074,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6600583</v>
+        <v>6600588</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4086,46 +4086,46 @@
         <v>45049.25</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
         <v>3.5</v>
@@ -4137,25 +4137,25 @@
         <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4163,7 +4163,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6600593</v>
+        <v>6600589</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4178,46 +4178,46 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L37">
         <v>4.333</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
         <v>4.333</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
         <v>2</v>
@@ -4229,22 +4229,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6600587</v>
+        <v>6600591</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4442,13 +4442,13 @@
         <v>45049.5</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -4457,31 +4457,31 @@
         <v>189</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L40">
         <v>5.5</v>
       </c>
       <c r="M40">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N40">
+        <v>6.5</v>
+      </c>
+      <c r="O40">
         <v>5.75</v>
       </c>
-      <c r="O40">
-        <v>5.5</v>
-      </c>
       <c r="P40">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q40">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
         <v>4</v>
@@ -4499,13 +4499,13 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
         <v>0.8500000000000001</v>
@@ -4519,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6600586</v>
+        <v>6600587</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4531,55 +4531,55 @@
         <v>45049.5</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>189</v>
       </c>
       <c r="K41">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M41">
+        <v>1.3</v>
+      </c>
+      <c r="N41">
         <v>5.75</v>
-      </c>
-      <c r="N41">
-        <v>1.25</v>
       </c>
       <c r="O41">
         <v>5.5</v>
       </c>
       <c r="P41">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q41">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4588,19 +4588,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4608,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6600585</v>
+        <v>6600586</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4620,16 +4620,16 @@
         <v>45049.5</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>189</v>
@@ -4650,7 +4650,7 @@
         <v>5.5</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
         <v>-2</v>
@@ -4665,10 +4665,10 @@
         <v>3.75</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4677,7 +4677,7 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4686,10 +4686,10 @@
         <v>0.825</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>1</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4697,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6600591</v>
+        <v>6600585</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4709,56 +4709,56 @@
         <v>45049.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>189</v>
       </c>
       <c r="K43">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="L43">
+        <v>4.75</v>
+      </c>
+      <c r="M43">
+        <v>5.75</v>
+      </c>
+      <c r="N43">
+        <v>1.25</v>
+      </c>
+      <c r="O43">
         <v>5.5</v>
       </c>
-      <c r="M43">
-        <v>1.285</v>
-      </c>
-      <c r="N43">
-        <v>6.5</v>
-      </c>
-      <c r="O43">
-        <v>5.75</v>
-      </c>
       <c r="P43">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="Q43">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
+        <v>1.825</v>
+      </c>
+      <c r="T43">
+        <v>3.75</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
         <v>1.8</v>
       </c>
-      <c r="T43">
-        <v>4</v>
-      </c>
-      <c r="U43">
-        <v>1.85</v>
-      </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
@@ -4766,16 +4766,16 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.2849999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5421,7 +5421,7 @@
         <v>45059.25</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
@@ -5676,7 +5676,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6671002</v>
+        <v>6670980</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5688,61 +5688,61 @@
         <v>45066.25</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>1.142</v>
+        <v>1.285</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Q54">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5751,13 +5751,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5765,7 +5765,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6670980</v>
+        <v>6671002</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5777,62 +5777,62 @@
         <v>45066.25</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K55">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>9</v>
+      </c>
+      <c r="N55">
+        <v>1.142</v>
+      </c>
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>13</v>
+      </c>
+      <c r="Q55">
+        <v>-2.5</v>
+      </c>
+      <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>3.75</v>
+      </c>
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
+        <v>1.85</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
         <v>5</v>
       </c>
-      <c r="M55">
-        <v>5</v>
-      </c>
-      <c r="N55">
-        <v>1.285</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
-      <c r="P55">
-        <v>7.5</v>
-      </c>
-      <c r="Q55">
-        <v>-1.75</v>
-      </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.975</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
-      <c r="W55">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
       <c r="Y55">
         <v>-1</v>
       </c>
@@ -5840,13 +5840,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7290,7 +7290,7 @@
         <v>45088.25</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>88</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,73 +7471,73 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <v>1.062</v>
+      </c>
+      <c r="N74">
+        <v>17</v>
+      </c>
+      <c r="O74">
+        <v>11</v>
+      </c>
+      <c r="P74">
+        <v>1.062</v>
+      </c>
+      <c r="Q74">
+        <v>3.25</v>
+      </c>
+      <c r="R74">
+        <v>1.9</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
+        <v>4.25</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z74">
+        <v>0.45</v>
+      </c>
+      <c r="AA74">
+        <v>-0.5</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
-      <c r="K74">
-        <v>1.444</v>
-      </c>
-      <c r="L74">
-        <v>4.5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.444</v>
-      </c>
-      <c r="O74">
-        <v>4.5</v>
-      </c>
-      <c r="P74">
-        <v>5</v>
-      </c>
-      <c r="Q74">
-        <v>-1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>0.444</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>-0.5</v>
-      </c>
-      <c r="AA74">
-        <v>0.475</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
-      <c r="AC74">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,73 +7560,73 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
         <v>1.9</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.9</v>
       </c>
-      <c r="T75">
-        <v>4.25</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7827,7 +7827,7 @@
         <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7916,7 +7916,7 @@
         <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8183,73 +8183,73 @@
         <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
+        <v>2.025</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
         <v>1.8</v>
       </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.85</v>
-      </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8257,7 +8257,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -8272,73 +8272,73 @@
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8628,7 +8628,7 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -8969,7 +8969,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8981,55 +8981,55 @@
         <v>45143.25</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>189</v>
       </c>
       <c r="K91">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q91">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -9038,16 +9038,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9058,7 +9058,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9070,55 +9070,55 @@
         <v>45143.25</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J92" t="s">
         <v>189</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P92">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -9127,16 +9127,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9948,7 +9948,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9960,76 +9960,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>3.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,76 +10049,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K103">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>3.5</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10138,46 +10138,46 @@
         <v>45153.5</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>190</v>
       </c>
       <c r="K104">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N104">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>3.25</v>
@@ -10189,7 +10189,7 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -10198,16 +10198,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10304,7 +10304,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7068602</v>
+        <v>7068599</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10316,76 +10316,76 @@
         <v>45153.5</v>
       </c>
       <c r="F106" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N106">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.85</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
-      <c r="V106">
-        <v>2.025</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10393,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10408,7 +10408,7 @@
         <v>101</v>
       </c>
       <c r="G107" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10420,58 +10420,58 @@
         <v>191</v>
       </c>
       <c r="K107">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
         <v>2.025</v>
       </c>
-      <c r="V107">
-        <v>1.775</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB107">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10482,7 +10482,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7068596</v>
+        <v>7068603</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10497,70 +10497,70 @@
         <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>3.333</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>1</v>
       </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.825</v>
-      </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -11550,7 +11550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11562,76 +11562,76 @@
         <v>45164.25</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="G120" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>191</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N120">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11639,7 +11639,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11651,76 +11651,76 @@
         <v>45164.25</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>191</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
         <v>1.8</v>
       </c>
-      <c r="S121">
-        <v>2</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12707,7 +12707,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12719,46 +12719,46 @@
         <v>45178.25</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>189</v>
       </c>
       <c r="K133">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>3.5</v>
@@ -12776,19 +12776,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12796,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12808,13 +12808,13 @@
         <v>45178.25</v>
       </c>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12823,31 +12823,31 @@
         <v>189</v>
       </c>
       <c r="K134">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N134">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
         <v>3.5</v>
@@ -12865,13 +12865,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12885,7 +12885,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12897,46 +12897,46 @@
         <v>45178.25</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G135" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>189</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>3.5</v>
@@ -12954,19 +12954,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13953,7 +13953,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13965,76 +13965,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M147">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -14054,76 +14054,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K148">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
         <v>7</v>
       </c>
-      <c r="M148">
-        <v>11</v>
-      </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O148">
         <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8</v>
+      </c>
+      <c r="AB148">
+        <v>0.475</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>0.8</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14131,7 +14131,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7246023</v>
+        <v>7246020</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -14143,76 +14143,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>190</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="L149">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W149">
+        <v>0.3</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.45</v>
+      </c>
+      <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
         <v>0.8</v>
       </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,40 +15211,40 @@
         <v>45221.25</v>
       </c>
       <c r="F161" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G161" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>189</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -15253,13 +15253,13 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -15268,7 +15268,7 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -15277,10 +15277,10 @@
         <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,40 +15300,40 @@
         <v>45221.25</v>
       </c>
       <c r="F162" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G162" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
         <v>1</v>
-      </c>
-      <c r="I162">
-        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>189</v>
       </c>
       <c r="K162">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>2</v>
@@ -15342,13 +15342,13 @@
         <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15366,10 +15366,10 @@
         <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15392,7 +15392,7 @@
         <v>111</v>
       </c>
       <c r="G163" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,55 +15923,55 @@
         <v>45235.375</v>
       </c>
       <c r="F169" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G169" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>189</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O169">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
         <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15980,19 +15980,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16015,7 +16015,7 @@
         <v>114</v>
       </c>
       <c r="G170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -16089,7 +16089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16101,55 +16101,55 @@
         <v>45235.375</v>
       </c>
       <c r="F171" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G171" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>189</v>
       </c>
       <c r="K171">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N171">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>3.25</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -16158,19 +16158,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16371,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H174">
         <v>2</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -178,18 +178,18 @@
     <t>Unia Turza Slaska</t>
   </si>
   <si>
+    <t>Barciczanka Barcice</t>
+  </si>
+  <si>
     <t>Beskid Andrychow</t>
   </si>
   <si>
-    <t>Barciczanka Barcice</t>
+    <t>Marcovia Marki</t>
   </si>
   <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>Marcovia Marki</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -211,18 +211,18 @@
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>Granat SkarzyskoKamienna</t>
+  </si>
+  <si>
     <t>DKS Dobre Miasto</t>
   </si>
   <si>
-    <t>Granat SkarzyskoKamienna</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -379,10 +379,10 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Lipno Steszew</t>
-  </si>
-  <si>
-    <t>Victoria Wrzesnia</t>
   </si>
   <si>
     <t>Piast Nowa Ruda</t>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2459,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3260,73 +3260,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>-2.75</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
         <v>4.5</v>
       </c>
-      <c r="P28">
-        <v>2.3</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>3.75</v>
-      </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3334,7 +3334,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3349,73 +3349,73 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29">
+        <v>1.833</v>
+      </c>
+      <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29">
-        <v>1.1</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
-      </c>
       <c r="N29">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3423,7 +3423,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3438,52 +3438,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>152</v>
       </c>
       <c r="K30">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3492,16 +3492,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3512,7 +3512,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3527,52 +3527,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>152</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3581,16 +3581,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -4328,7 +4328,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4414,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4503,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4580,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068596</v>
+        <v>7068602</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4595,70 +4595,70 @@
         <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4684,7 +4684,7 @@
         <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4773,73 +4773,73 @@
         <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>3.5</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4847,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4859,46 +4859,46 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>150</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
         <v>3.25</v>
@@ -4910,7 +4910,7 @@
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4919,16 +4919,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4936,7 +4936,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4948,49 +4948,49 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -4999,19 +4999,19 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -5930,7 +5930,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6004,7 +6004,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6016,28 +6016,28 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
         <v>4</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
         <v>2.2</v>
@@ -6046,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -6058,34 +6058,34 @@
         <v>2.025</v>
       </c>
       <c r="T59">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6093,7 +6093,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6105,76 +6105,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>151</v>
       </c>
       <c r="K60">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.775</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>3.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6182,7 +6182,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6197,64 +6197,64 @@
         <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6263,7 +6263,7 @@
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6731,7 +6731,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7173,46 +7173,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>152</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7230,19 +7230,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,46 +7262,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,19 +7319,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7339,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,13 +7351,13 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -7366,31 +7366,31 @@
         <v>152</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,13 +7408,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7428,7 +7428,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7440,76 +7440,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7517,7 +7517,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7529,76 +7529,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7710,7 +7710,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7784,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7796,13 +7796,13 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7811,61 +7811,61 @@
         <v>150</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
+        <v>6</v>
+      </c>
+      <c r="N79">
+        <v>1.363</v>
+      </c>
+      <c r="O79">
+        <v>4.75</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.55</v>
-      </c>
-      <c r="N79">
-        <v>3.2</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>1.85</v>
-      </c>
-      <c r="Q79">
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>1.8</v>
+      </c>
+      <c r="W79">
+        <v>0.363</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.5</v>
       </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3.5</v>
-      </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
-      <c r="V79">
-        <v>1.925</v>
-      </c>
-      <c r="W79">
-        <v>2.2</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7873,7 +7873,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7885,13 +7885,13 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7900,43 +7900,43 @@
         <v>150</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7945,16 +7945,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7974,7 +7974,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
         <v>136</v>
@@ -8407,7 +8407,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8422,73 +8422,73 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N86">
+        <v>1.25</v>
+      </c>
+      <c r="O86">
+        <v>5.5</v>
+      </c>
+      <c r="P86">
+        <v>8</v>
+      </c>
+      <c r="Q86">
+        <v>-2</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
-      <c r="P86">
-        <v>3.2</v>
-      </c>
-      <c r="Q86">
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>1.85</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>4.5</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.8</v>
+      </c>
+      <c r="AB86">
+        <v>0.475</v>
+      </c>
+      <c r="AC86">
         <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
-      <c r="W86">
-        <v>0.8</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8496,7 +8496,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8508,58 +8508,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>150</v>
       </c>
       <c r="K87">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8568,16 +8568,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8585,7 +8585,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8597,76 +8597,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K88">
+        <v>1.166</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>11</v>
+      </c>
+      <c r="N88">
         <v>1.3</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
-      <c r="N88">
-        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
+        <v>1.9</v>
+      </c>
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="T88">
-        <v>3.75</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA88">
+        <v>-0.5</v>
+      </c>
+      <c r="AB88">
         <v>0.8</v>
       </c>
-      <c r="AB88">
-        <v>0.475</v>
-      </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9042,7 +9042,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>141</v>
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9653,7 +9653,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9665,40 +9665,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>152</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9707,13 +9707,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9722,7 +9722,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9731,10 +9731,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9742,7 +9742,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9754,40 +9754,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>152</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9796,13 +9796,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9811,7 +9811,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9820,10 +9820,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10454,7 +10454,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10466,55 +10466,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>152</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
         <v>3.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P109">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
         <v>0.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10523,19 +10523,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,55 +10555,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>152</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L110">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
         <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
         <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10612,19 +10612,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
+        <v>0.75</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>0.8</v>
       </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11178,10 +11178,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H117">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -145,12 +145,12 @@
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
     <t>Polonia 1908 Marcinki Kepno</t>
   </si>
   <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Szczakowianka Jaworzno</t>
+  </si>
+  <si>
     <t>Zabkovia Zabki</t>
   </si>
   <si>
-    <t>Szczakowianka Jaworzno</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -199,30 +199,30 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -379,15 +379,15 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Lipno Steszew</t>
+  </si>
+  <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Lipno Steszew</t>
-  </si>
-  <si>
-    <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -445,19 +445,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
   </si>
   <si>
-    <t>MKS Myszkow</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
     <t>Mragowia Mragowo</t>
-  </si>
-  <si>
-    <t>GKS Nowiny</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -2177,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2192,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2204,43 +2204,43 @@
         <v>150</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2249,16 +2249,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2281,10 +2281,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2293,43 +2293,43 @@
         <v>150</v>
       </c>
       <c r="K17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2338,16 +2338,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2622,7 +2622,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2726,73 +2726,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3082,7 +3082,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3972,7 +3972,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4061,16 +4061,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4082,22 +4082,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4109,25 +4109,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4135,7 +4135,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4150,16 +4150,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4171,22 +4171,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4198,25 +4198,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4580,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4607,58 +4607,58 @@
         <v>151</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
+        <v>2.025</v>
+      </c>
+      <c r="V43">
         <v>1.775</v>
       </c>
-      <c r="V43">
-        <v>2.025</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4687,34 +4687,34 @@
         <v>122</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4723,34 +4723,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4773,46 +4773,46 @@
         <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
         <v>1.85</v>
@@ -4821,25 +4821,25 @@
         <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4847,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068596</v>
+        <v>7068602</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4862,70 +4862,70 @@
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -6004,7 +6004,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6019,64 +6019,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6085,7 +6085,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6182,7 +6182,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6197,64 +6197,64 @@
         <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6263,7 +6263,7 @@
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6538,7 +6538,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6553,7 +6553,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6565,40 +6565,40 @@
         <v>152</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6607,16 +6607,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6627,7 +6627,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6642,7 +6642,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6654,40 +6654,40 @@
         <v>152</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6696,16 +6696,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,13 +7262,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7277,31 +7277,31 @@
         <v>152</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,13 +7319,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,13 +7351,13 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -7366,31 +7366,31 @@
         <v>152</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,13 +7408,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7784,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7796,13 +7796,13 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7811,43 +7811,43 @@
         <v>150</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N79">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7856,16 +7856,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7873,7 +7873,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7885,13 +7885,13 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7900,61 +7900,61 @@
         <v>150</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>1.363</v>
+      </c>
+      <c r="O80">
+        <v>4.75</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
         <v>3.75</v>
       </c>
-      <c r="M80">
-        <v>2.55</v>
-      </c>
-      <c r="N80">
-        <v>3.2</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
-      <c r="P80">
-        <v>1.85</v>
-      </c>
-      <c r="Q80">
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1.8</v>
+      </c>
+      <c r="W80">
+        <v>0.363</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
-      <c r="W80">
-        <v>2.2</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8333,7 +8333,7 @@
         <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K95">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K96">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9475,7 +9475,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9487,34 +9487,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
         <v>143</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9529,34 +9529,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9564,7 +9564,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9576,34 +9576,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
         <v>144</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9618,34 +9618,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9668,7 +9668,7 @@
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10377,13 +10377,13 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G108" t="s">
         <v>146</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -10392,40 +10392,40 @@
         <v>152</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
         <v>4</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10434,19 +10434,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10466,7 +10466,7 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
         <v>78</v>
@@ -10543,7 +10543,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,13 +10555,13 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
         <v>147</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10570,61 +10570,61 @@
         <v>152</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
+        <v>1.9</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>0.75</v>
-      </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11178,7 +11178,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
         <v>54</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -115,12 +115,12 @@
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -130,27 +130,27 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Arka Gdynia II</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
-    <t>Arka Gdynia II</t>
+    <t>Mieszko Gniezno</t>
   </si>
   <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Polonia 1908 Marcinki Kepno</t>
+  </si>
+  <si>
     <t>Grom Nowy Staw</t>
   </si>
   <si>
-    <t>Polonia 1908 Marcinki Kepno</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Wierna Malogoszcz</t>
+  </si>
+  <si>
     <t>Jaguar Gdansk</t>
   </si>
   <si>
-    <t>Wierna Malogoszcz</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>DKS Dobre Miasto</t>
+  </si>
+  <si>
     <t>Granat SkarzyskoKamienna</t>
   </si>
   <si>
-    <t>DKS Dobre Miasto</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -445,19 +445,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
   </si>
   <si>
-    <t>Unia Wabrzezno</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>Mragowia Mragowo</t>
+  </si>
+  <si>
     <t>GKS Nowiny</t>
-  </si>
-  <si>
-    <t>Mragowia Mragowo</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1302,73 +1302,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1391,73 +1391,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>4.333</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1.727</v>
-      </c>
-      <c r="Q7">
-        <v>0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1732,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1747,73 +1747,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.95</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.475</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1836,73 +1836,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>3.25</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>1.95</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.333</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>3.75</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>0.909</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>0.475</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0.5</v>
-      </c>
-      <c r="AC12">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1910,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1925,73 +1925,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2014,73 +2014,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>1.062</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>1.062</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>4.25</v>
+      </c>
+      <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14">
-        <v>1.444</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.444</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.475</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2177,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2192,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2204,43 +2204,43 @@
         <v>150</v>
       </c>
       <c r="K16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2249,16 +2249,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2281,10 +2281,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2293,43 +2293,43 @@
         <v>150</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2338,16 +2338,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2548,7 +2548,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -3613,7 +3613,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>113</v>
@@ -3972,7 +3972,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4061,16 +4061,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4082,22 +4082,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4109,25 +4109,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4135,7 +4135,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4150,16 +4150,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4171,22 +4171,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4198,25 +4198,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4328,7 +4328,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4414,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4503,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068596</v>
+        <v>7068602</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4773,70 +4773,70 @@
         <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4847,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068602</v>
+        <v>7068596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4862,70 +4862,70 @@
         <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
+        <v>1.975</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.775</v>
-      </c>
-      <c r="V46">
-        <v>2.025</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -5396,7 +5396,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -6004,7 +6004,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6019,64 +6019,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K59">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6085,7 +6085,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6093,7 +6093,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6105,76 +6105,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>151</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6182,7 +6182,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6194,28 +6194,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6224,7 +6224,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6236,34 +6236,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7173,46 +7173,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>152</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7230,19 +7230,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,13 +7262,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7277,31 +7277,31 @@
         <v>152</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,13 +7319,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7339,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,46 +7351,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>152</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,19 +7408,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7618,7 +7618,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>135</v>
@@ -7710,7 +7710,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7784,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7796,13 +7796,13 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7811,61 +7811,61 @@
         <v>150</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
+        <v>6</v>
+      </c>
+      <c r="N79">
+        <v>1.363</v>
+      </c>
+      <c r="O79">
+        <v>4.75</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.55</v>
-      </c>
-      <c r="N79">
-        <v>3.2</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>1.85</v>
-      </c>
-      <c r="Q79">
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>1.8</v>
+      </c>
+      <c r="W79">
+        <v>0.363</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.5</v>
       </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3.5</v>
-      </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
-      <c r="V79">
-        <v>1.925</v>
-      </c>
-      <c r="W79">
-        <v>2.2</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7873,7 +7873,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7885,13 +7885,13 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7900,43 +7900,43 @@
         <v>150</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7945,16 +7945,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8333,7 +8333,7 @@
         <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8407,7 +8407,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8422,73 +8422,73 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K86">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8496,7 +8496,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8511,73 +8511,73 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N87">
+        <v>1.25</v>
+      </c>
+      <c r="O87">
+        <v>5.5</v>
+      </c>
+      <c r="P87">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>-2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>3.2</v>
-      </c>
-      <c r="Q87">
+      <c r="T87">
+        <v>3.75</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
+        <v>1.85</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>4.5</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.475</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.85</v>
-      </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
-      <c r="W87">
-        <v>0.8</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8597,7 +8597,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>132</v>
@@ -9042,7 +9042,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G93" t="s">
         <v>141</v>
@@ -9398,7 +9398,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>127</v>
@@ -9475,7 +9475,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9487,34 +9487,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
         <v>143</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9529,34 +9529,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9564,7 +9564,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9576,34 +9576,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s">
         <v>144</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9618,34 +9618,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10377,55 +10377,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>152</v>
       </c>
       <c r="K108">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N108">
         <v>3.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q108">
         <v>0.5</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10434,19 +10434,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10454,7 +10454,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10466,55 +10466,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>152</v>
       </c>
       <c r="K109">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10523,19 +10523,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,13 +10555,13 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s">
         <v>147</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10570,40 +10570,40 @@
         <v>152</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10612,19 +10612,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10822,7 +10822,7 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>106</v>
@@ -11178,7 +11178,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
         <v>54</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -103,24 +103,24 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>AS Kolbudy</t>
+  </si>
+  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
-    <t>AS Kolbudy</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Arka Gdynia II</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>Korona Piaski</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>Barycz Sulow</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>Lipno Steszew</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
-    <t>Victoria Wrzesnia</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -445,10 +445,10 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
-  </si>
-  <si>
-    <t>MKS Myszkow</t>
   </si>
   <si>
     <t>Orzel Miedary</t>
@@ -834,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
         <v>105</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -958,43 +958,43 @@
         <v>150</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1003,16 +1003,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>106</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1047,43 +1047,43 @@
         <v>150</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1092,16 +1092,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1302,73 +1302,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4.333</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
       </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>1.727</v>
-      </c>
-      <c r="Q6">
-        <v>0.75</v>
-      </c>
-      <c r="R6">
-        <v>1.825</v>
-      </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1391,73 +1391,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1732,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1747,73 +1747,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>3.333</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>3.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>0.909</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>0.475</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.95</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
-      </c>
-      <c r="AC11">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1836,73 +1836,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.5</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.475</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2192,7 +2192,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2370,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -3527,7 +3527,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>113</v>
@@ -3794,7 +3794,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4061,16 +4061,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4082,22 +4082,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4109,25 +4109,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4135,7 +4135,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4150,16 +4150,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4171,22 +4171,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4198,25 +4198,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4402,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4414,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4503,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068595</v>
+        <v>7068602</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4687,70 +4687,70 @@
         <v>122</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K44">
+        <v>2.1</v>
+      </c>
+      <c r="L44">
+        <v>4.2</v>
+      </c>
+      <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.1</v>
+      </c>
+      <c r="O44">
+        <v>4.2</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>-0.25</v>
+      </c>
+      <c r="R44">
         <v>1.95</v>
       </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
-        <v>2.875</v>
-      </c>
-      <c r="N44">
-        <v>1.95</v>
-      </c>
-      <c r="O44">
-        <v>4</v>
-      </c>
-      <c r="P44">
-        <v>2.9</v>
-      </c>
-      <c r="Q44">
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.775</v>
+      </c>
+      <c r="V44">
+        <v>2.025</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>3.2</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>-0.5</v>
       </c>
-      <c r="R44">
-        <v>2</v>
-      </c>
-      <c r="S44">
-        <v>1.8</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.85</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>1.9</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068602</v>
+        <v>7068599</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4770,76 +4770,76 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4859,7 +4859,7 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
         <v>72</v>
@@ -4936,7 +4936,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068599</v>
+        <v>7068595</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4948,49 +4948,49 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>1.8</v>
       </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -4999,19 +4999,19 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -5040,7 +5040,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -6004,7 +6004,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6016,28 +6016,28 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L59">
         <v>4</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N59">
         <v>2.2</v>
@@ -6046,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="P59">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -6058,34 +6058,34 @@
         <v>2.025</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6105,7 +6105,7 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
         <v>129</v>
@@ -6182,7 +6182,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6194,28 +6194,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6224,7 +6224,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6236,34 +6236,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7173,13 +7173,13 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7188,31 +7188,31 @@
         <v>152</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7230,13 +7230,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,46 +7262,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,19 +7319,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7339,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,46 +7351,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>152</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,19 +7408,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7428,7 +7428,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7440,76 +7440,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7517,7 +7517,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7529,76 +7529,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7618,7 +7618,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>135</v>
@@ -7796,10 +7796,10 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -8496,7 +8496,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8508,76 +8508,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K87">
+        <v>1.166</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>11</v>
+      </c>
+      <c r="N87">
         <v>1.3</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
-        <v>7</v>
-      </c>
-      <c r="N87">
-        <v>1.25</v>
       </c>
       <c r="O87">
         <v>5.5</v>
       </c>
       <c r="P87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q87">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
+        <v>1.9</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
         <v>1.8</v>
       </c>
-      <c r="T87">
-        <v>3.75</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X87">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA87">
+        <v>-0.5</v>
+      </c>
+      <c r="AB87">
         <v>0.8</v>
       </c>
-      <c r="AB87">
-        <v>0.475</v>
-      </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8585,7 +8585,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8597,76 +8597,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K88">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
         <v>7</v>
       </c>
-      <c r="M88">
-        <v>11</v>
-      </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.8</v>
+      </c>
+      <c r="AB88">
+        <v>0.475</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>0.8</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9398,7 +9398,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>127</v>
@@ -9475,7 +9475,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9487,34 +9487,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
         <v>143</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9529,34 +9529,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9564,7 +9564,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9576,34 +9576,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
         <v>144</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9618,34 +9618,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9668,7 +9668,7 @@
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10822,10 +10822,10 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -11178,7 +11178,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
         <v>54</v>
@@ -11248,6 +11248,169 @@
       </c>
       <c r="AC117">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7903089</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45353.29166666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+      <c r="K118">
+        <v>1.166</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>9</v>
+      </c>
+      <c r="N118">
+        <v>1.181</v>
+      </c>
+      <c r="O118">
+        <v>7</v>
+      </c>
+      <c r="P118">
+        <v>9</v>
+      </c>
+      <c r="Q118">
+        <v>-2.25</v>
+      </c>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
+        <v>3.75</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>0.181</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>0.95</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7907913</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45354.29166666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119">
+        <v>1.615</v>
+      </c>
+      <c r="L119">
+        <v>4.6</v>
+      </c>
+      <c r="M119">
+        <v>3.6</v>
+      </c>
+      <c r="N119">
+        <v>1.615</v>
+      </c>
+      <c r="O119">
+        <v>4.6</v>
+      </c>
+      <c r="P119">
+        <v>3.6</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>3.25</v>
+      </c>
+      <c r="U119">
+        <v>1.8</v>
+      </c>
+      <c r="V119">
+        <v>2</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>Chemik Bydgoszcz</t>
+  </si>
+  <si>
     <t>AS Kolbudy</t>
   </si>
   <si>
-    <t>Chemik Bydgoszcz</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Arka Gdynia II</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
-    <t>Arka Gdynia II</t>
+    <t>Chelminianka Chelmno</t>
   </si>
   <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Zabkovia Zabki</t>
+  </si>
+  <si>
     <t>Szczakowianka Jaworzno</t>
   </si>
   <si>
-    <t>Zabkovia Zabki</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>Unia Turza Slaska</t>
   </si>
   <si>
+    <t>Beskid Andrychow</t>
+  </si>
+  <si>
     <t>Barciczanka Barcice</t>
   </si>
   <si>
-    <t>Beskid Andrychow</t>
-  </si>
-  <si>
     <t>Marcovia Marki</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>Korona Piaski</t>
   </si>
   <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>Barycz Sulow</t>
   </si>
   <si>
+    <t>Cuiavia Inowroclaw</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
-    <t>Cuiavia Inowroclaw</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>Lipno Steszew</t>
   </si>
   <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -445,19 +445,19 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
   </si>
   <si>
-    <t>Unia Wabrzezno</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
     <t>Mragowia Mragowo</t>
-  </si>
-  <si>
-    <t>GKS Nowiny</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -834,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
         <v>105</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -958,43 +958,43 @@
         <v>150</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1003,16 +1003,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>106</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1047,43 +1047,43 @@
         <v>150</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1092,16 +1092,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1391,7 +1391,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1747,73 +1747,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.95</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.475</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1836,73 +1836,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>3.25</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>1.95</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.333</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>3.75</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>0.909</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>0.475</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0.5</v>
-      </c>
-      <c r="AC12">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1910,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1925,73 +1925,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>1.062</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>1.062</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
+        <v>4.25</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z13">
+        <v>0.45</v>
+      </c>
+      <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13">
-        <v>1.444</v>
-      </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.85</v>
-      </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>0.444</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.475</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2014,73 +2014,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2192,7 +2192,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2370,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2548,7 +2548,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.85</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2726,73 +2726,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3082,7 +3082,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3168,7 +3168,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -3245,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3260,73 +3260,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <v>1.833</v>
+      </c>
+      <c r="L28">
+        <v>4.333</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28">
-        <v>1.1</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>13</v>
-      </c>
       <c r="N28">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q28">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3334,7 +3334,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3349,73 +3349,73 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>-2.75</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
         <v>4.5</v>
       </c>
-      <c r="P29">
-        <v>2.3</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>1.85</v>
-      </c>
-      <c r="S29">
-        <v>1.95</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X29">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3527,7 +3527,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4414,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4503,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4687,70 +4687,70 @@
         <v>122</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>3.5</v>
+      </c>
+      <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>1.775</v>
-      </c>
-      <c r="V44">
-        <v>2.025</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4770,46 +4770,46 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>150</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>3.25</v>
@@ -4821,7 +4821,7 @@
         <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4830,16 +4830,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4847,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068596</v>
+        <v>7068602</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4859,73 +4859,73 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4936,7 +4936,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4948,49 +4948,49 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -4999,19 +4999,19 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -5040,7 +5040,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -6016,7 +6016,7 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>47</v>
@@ -6731,7 +6731,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G72" t="s">
         <v>74</v>
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,46 +7262,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,19 +7319,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7339,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,46 +7351,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>152</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,19 +7408,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7799,7 +7799,7 @@
         <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -8508,7 +8508,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>132</v>
@@ -9398,7 +9398,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>127</v>
@@ -9475,7 +9475,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9487,34 +9487,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
         <v>143</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9529,34 +9529,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9564,7 +9564,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9576,34 +9576,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s">
         <v>144</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9618,34 +9618,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9653,7 +9653,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9665,40 +9665,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>152</v>
       </c>
       <c r="K100">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9707,13 +9707,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9722,7 +9722,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9731,10 +9731,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9742,7 +9742,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9754,40 +9754,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>152</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9796,13 +9796,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9811,7 +9811,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9820,10 +9820,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10454,7 +10454,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10466,13 +10466,13 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -10481,40 +10481,40 @@
         <v>152</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10523,19 +10523,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,13 +10555,13 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
         <v>147</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10570,61 +10570,61 @@
         <v>152</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
+        <v>1.9</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>0.75</v>
-      </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10822,10 +10822,10 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -11181,7 +11181,7 @@
         <v>77</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11337,80 +11337,6 @@
       </c>
       <c r="AC118">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>7907913</v>
-      </c>
-      <c r="C119" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45354.29166666666</v>
-      </c>
-      <c r="F119" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
-      </c>
-      <c r="K119">
-        <v>1.615</v>
-      </c>
-      <c r="L119">
-        <v>4.6</v>
-      </c>
-      <c r="M119">
-        <v>3.6</v>
-      </c>
-      <c r="N119">
-        <v>1.615</v>
-      </c>
-      <c r="O119">
-        <v>4.6</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
-      <c r="Q119">
-        <v>-0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -103,24 +103,24 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>AS Kolbudy</t>
+  </si>
+  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
-    <t>AS Kolbudy</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Arka Gdynia II</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
+    <t>Mieszko Gniezno</t>
   </si>
   <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Szczakowianka Jaworzno</t>
+  </si>
+  <si>
     <t>Zabkovia Zabki</t>
   </si>
   <si>
-    <t>Szczakowianka Jaworzno</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Pomorzanin Torun</t>
+  </si>
+  <si>
     <t>Marcovia Marki</t>
   </si>
   <si>
-    <t>Pomorzanin Torun</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -199,18 +199,21 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Wierna Malogoszcz</t>
+  </si>
+  <si>
     <t>Jaguar Gdansk</t>
   </si>
   <si>
-    <t>Wierna Malogoszcz</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>Barycz Sulow</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -379,15 +379,15 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
-    <t>Victoria Wrzesnia</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -454,10 +454,10 @@
     <t>Orzel Miedary</t>
   </si>
   <si>
+    <t>Mragowia Mragowo</t>
+  </si>
+  <si>
     <t>GKS Nowiny</t>
-  </si>
-  <si>
-    <t>Mragowia Mragowo</t>
   </si>
   <si>
     <t>Gornik Walbrzych</t>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -949,7 +949,7 @@
         <v>105</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -958,43 +958,43 @@
         <v>150</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1003,16 +1003,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>106</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1047,43 +1047,43 @@
         <v>150</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1092,16 +1092,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1302,73 +1302,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1391,73 +1391,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>4.333</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1.727</v>
-      </c>
-      <c r="Q7">
-        <v>0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1732,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1747,73 +1747,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>3.333</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>3.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>0.909</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>0.475</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.95</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
-      </c>
-      <c r="AC11">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1836,73 +1836,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.5</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.475</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1910,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1925,73 +1925,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1999,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2014,73 +2014,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>1.062</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>1.062</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>4.25</v>
+      </c>
+      <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14">
-        <v>1.444</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.444</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.475</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2192,7 +2192,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2370,7 +2370,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2637,73 +2637,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2726,73 +2726,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3082,7 +3082,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3168,7 +3168,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -3423,7 +3423,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3438,52 +3438,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>152</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3492,16 +3492,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3512,7 +3512,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3527,52 +3527,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>152</v>
       </c>
       <c r="K31">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q31">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3581,16 +3581,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3613,7 +3613,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>113</v>
@@ -3794,7 +3794,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4061,16 +4061,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4082,22 +4082,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4109,25 +4109,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4135,7 +4135,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4150,16 +4150,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4171,22 +4171,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4198,25 +4198,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4402,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4414,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4503,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4580,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068603</v>
+        <v>7068599</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4592,76 +4592,76 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K43">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
+        <v>4.5</v>
+      </c>
+      <c r="M43">
         <v>4.333</v>
       </c>
-      <c r="M43">
-        <v>1.615</v>
-      </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
+        <v>4.5</v>
+      </c>
+      <c r="P43">
         <v>4.333</v>
       </c>
-      <c r="P43">
-        <v>1.615</v>
-      </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068595</v>
+        <v>7068602</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4681,76 +4681,76 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K44">
+        <v>2.1</v>
+      </c>
+      <c r="L44">
+        <v>4.2</v>
+      </c>
+      <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>2.1</v>
+      </c>
+      <c r="O44">
+        <v>4.2</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>-0.25</v>
+      </c>
+      <c r="R44">
         <v>1.95</v>
       </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
-        <v>2.875</v>
-      </c>
-      <c r="N44">
-        <v>1.95</v>
-      </c>
-      <c r="O44">
-        <v>4</v>
-      </c>
-      <c r="P44">
-        <v>2.9</v>
-      </c>
-      <c r="Q44">
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>1.775</v>
+      </c>
+      <c r="V44">
+        <v>2.025</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>3.2</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>-0.5</v>
       </c>
-      <c r="R44">
-        <v>2</v>
-      </c>
-      <c r="S44">
-        <v>1.8</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.85</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>1.9</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4758,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068596</v>
+        <v>7068603</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4770,73 +4770,73 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
         <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>3.333</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>1</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.825</v>
-      </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4847,7 +4847,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4859,76 +4859,76 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
         <v>123</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>3.5</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.775</v>
-      </c>
-      <c r="V46">
-        <v>2.025</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4936,7 +4936,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4948,46 +4948,46 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>150</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
         <v>3.25</v>
@@ -4999,7 +4999,7 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -5008,16 +5008,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5040,7 +5040,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5930,7 +5930,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6004,7 +6004,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6016,76 +6016,76 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>151</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6093,7 +6093,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6105,76 +6105,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>151</v>
       </c>
       <c r="K60">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.775</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>3.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6909,7 +6909,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7173,13 +7173,13 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7188,31 +7188,31 @@
         <v>152</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7230,13 +7230,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7250,7 +7250,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,13 +7262,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7277,31 +7277,31 @@
         <v>152</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,13 +7319,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7428,7 +7428,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7440,76 +7440,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7517,7 +7517,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7529,76 +7529,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7618,7 +7618,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>135</v>
@@ -7796,10 +7796,10 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7974,7 +7974,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G81" t="s">
         <v>136</v>
@@ -8407,7 +8407,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246023</v>
+        <v>7246020</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8419,76 +8419,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>150</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
+        <v>0.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>0.45</v>
+      </c>
+      <c r="AA86">
+        <v>-0.5</v>
+      </c>
+      <c r="AB86">
         <v>0.8</v>
       </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8496,7 +8496,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8508,58 +8508,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>150</v>
       </c>
       <c r="K87">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8568,16 +8568,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9208,7 +9208,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9220,76 +9220,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K95">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9297,7 +9297,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9309,76 +9309,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K96">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9398,7 +9398,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>127</v>
@@ -9757,7 +9757,7 @@
         <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10377,55 +10377,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>152</v>
       </c>
       <c r="K108">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L108">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10434,19 +10434,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10454,7 +10454,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10466,55 +10466,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>152</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
         <v>3.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P109">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
         <v>0.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10523,19 +10523,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10543,7 +10543,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,13 +10555,13 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s">
         <v>147</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10570,40 +10570,40 @@
         <v>152</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10612,19 +10612,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10822,10 +10822,10 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -11267,7 +11267,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>Chemik Bydgoszcz</t>
+  </si>
+  <si>
     <t>AS Kolbudy</t>
   </si>
   <si>
-    <t>Chemik Bydgoszcz</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
@@ -130,27 +130,27 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Arka Gdynia II</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
-    <t>Arka Gdynia II</t>
+    <t>Chelminianka Chelmno</t>
   </si>
   <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
     <t>Polonia 1908 Marcinki Kepno</t>
   </si>
   <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Marcovia Marki</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>Marcovia Marki</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -199,30 +199,30 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -331,12 +331,15 @@
     <t>Barycz Sulow</t>
   </si>
   <si>
+    <t>GKS Nowiny</t>
+  </si>
+  <si>
+    <t>Cuiavia Inowroclaw</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
-    <t>Cuiavia Inowroclaw</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -379,15 +382,15 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
-    <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -457,13 +460,13 @@
     <t>Mragowia Mragowo</t>
   </si>
   <si>
-    <t>GKS Nowiny</t>
-  </si>
-  <si>
     <t>Gornik Walbrzych</t>
   </si>
   <si>
     <t>Moravia Morawica</t>
+  </si>
+  <si>
+    <t>GKS Arka Pawlow</t>
   </si>
   <si>
     <t>H</t>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -946,55 +949,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1003,16 +1006,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1020,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1035,55 +1038,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1092,16 +1095,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1124,7 +1127,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1133,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1222,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1302,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1311,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K6">
         <v>3.25</v>
@@ -1391,7 +1394,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1400,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K7">
         <v>1.571</v>
@@ -1489,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1569,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1578,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1667,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1732,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1747,73 +1750,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>151</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.95</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.475</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1821,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1836,73 +1839,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>3.25</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>1.95</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.333</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>3.75</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>0.909</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>0.475</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0.5</v>
-      </c>
-      <c r="AC12">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1910,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1928,70 +1931,70 @@
         <v>110</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>1.062</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>1.062</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
+        <v>4.25</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z13">
+        <v>0.45</v>
+      </c>
+      <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13">
-        <v>1.444</v>
-      </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.85</v>
-      </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>0.444</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.475</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1999,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2014,73 +2017,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2103,7 +2106,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2112,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2177,7 +2180,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2192,55 +2195,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2249,16 +2252,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2266,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2281,55 +2284,55 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2338,16 +2341,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2370,7 +2373,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2379,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2468,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2548,7 +2551,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2557,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2646,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K21">
         <v>2.15</v>
@@ -2726,7 +2729,7 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22">
         <v>2.75</v>
@@ -2815,7 +2818,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2824,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2904,7 +2907,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2913,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -2993,7 +2996,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3002,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3091,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3168,10 +3171,10 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3180,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3269,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3358,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3423,7 +3426,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3438,52 +3441,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3492,16 +3495,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3512,7 +3515,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3527,52 +3530,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3581,16 +3584,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3616,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3625,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3714,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3794,7 +3797,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3803,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3892,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3972,7 +3975,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3981,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4046,7 +4049,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4061,16 +4064,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4082,22 +4085,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4109,25 +4112,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4135,7 +4138,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4150,16 +4153,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4171,22 +4174,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4198,25 +4201,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4239,7 +4242,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4248,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4337,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4402,7 +4405,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4414,76 +4417,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4491,7 +4494,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4503,76 +4506,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4580,7 +4583,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068599</v>
+        <v>7068595</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4592,49 +4595,49 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
         <v>1.85</v>
@@ -4643,19 +4646,19 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
         <v>-1</v>
@@ -4669,7 +4672,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068602</v>
+        <v>7068596</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4681,73 +4684,73 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>151</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.825</v>
+      </c>
+      <c r="S44">
+        <v>1.975</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>1.775</v>
-      </c>
-      <c r="V44">
-        <v>2.025</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4758,7 +4761,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4770,10 +4773,10 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4782,61 +4785,61 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>2.025</v>
       </c>
-      <c r="V45">
-        <v>1.775</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4847,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068595</v>
+        <v>7068603</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4859,13 +4862,13 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4874,25 +4877,25 @@
         <v>152</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N46">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -4901,34 +4904,34 @@
         <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4936,7 +4939,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4948,46 +4951,46 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.25</v>
@@ -4999,7 +5002,7 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -5008,16 +5011,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5040,7 +5043,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5049,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5138,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5227,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5307,7 +5310,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5316,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5396,7 +5399,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5405,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5485,7 +5488,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5494,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5574,7 +5577,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5583,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5663,7 +5666,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5672,7 +5675,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5761,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5841,7 +5844,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5850,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5930,7 +5933,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5939,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6019,7 +6022,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6028,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K59">
         <v>4.5</v>
@@ -6105,7 +6108,7 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
         <v>47</v>
@@ -6117,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
         <v>2.45</v>
@@ -6286,7 +6289,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6295,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6375,7 +6378,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6384,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6464,7 +6467,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6473,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6538,7 +6541,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6553,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6562,43 +6565,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6607,16 +6610,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6627,7 +6630,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6642,7 +6645,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6651,43 +6654,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6696,16 +6699,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6740,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6829,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6909,7 +6912,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6918,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -6998,7 +7001,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7007,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7087,7 +7090,7 @@
         <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7096,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7161,7 +7164,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7173,46 +7176,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7230,19 +7233,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7250,7 +7253,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7262,46 +7265,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>153</v>
+      </c>
+      <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.2</v>
+      </c>
+      <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>2.2</v>
+      </c>
+      <c r="Q73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>152</v>
-      </c>
-      <c r="K73">
-        <v>2.25</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
-      <c r="M73">
-        <v>2.5</v>
-      </c>
-      <c r="N73">
-        <v>4.5</v>
-      </c>
-      <c r="O73">
-        <v>4.2</v>
-      </c>
-      <c r="P73">
-        <v>1.533</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7319,13 +7322,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7339,7 +7342,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7351,46 +7354,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>153</v>
+      </c>
+      <c r="K74">
+        <v>2.25</v>
+      </c>
+      <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
+        <v>2.5</v>
+      </c>
+      <c r="N74">
+        <v>4.5</v>
+      </c>
+      <c r="O74">
+        <v>4.2</v>
+      </c>
+      <c r="P74">
+        <v>1.533</v>
+      </c>
+      <c r="Q74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>152</v>
-      </c>
-      <c r="K74">
-        <v>1.909</v>
-      </c>
-      <c r="L74">
-        <v>4</v>
-      </c>
-      <c r="M74">
-        <v>2.9</v>
-      </c>
-      <c r="N74">
-        <v>1.909</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
-      <c r="P74">
-        <v>2.9</v>
-      </c>
-      <c r="Q74">
-        <v>-0.5</v>
-      </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7408,19 +7411,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7452,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7532,7 +7535,7 @@
         <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7541,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K76">
         <v>5.5</v>
@@ -7621,7 +7624,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7630,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7719,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7796,10 +7799,10 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7808,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K79">
         <v>1.363</v>
@@ -7897,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7974,10 +7977,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7986,7 +7989,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8066,7 +8069,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8075,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8155,7 +8158,7 @@
         <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8164,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8253,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8333,7 +8336,7 @@
         <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8342,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8407,7 +8410,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8419,58 +8422,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K86">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8479,16 +8482,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8496,7 +8499,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246023</v>
+        <v>7246020</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8508,76 +8511,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P87">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
+        <v>0.3</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.45</v>
+      </c>
+      <c r="AA87">
+        <v>-0.5</v>
+      </c>
+      <c r="AB87">
         <v>0.8</v>
       </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8600,7 +8603,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8609,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K88">
         <v>1.3</v>
@@ -8698,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8778,7 +8781,7 @@
         <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8787,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8867,7 +8870,7 @@
         <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8876,7 +8879,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8956,7 +8959,7 @@
         <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8965,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9045,7 +9048,7 @@
         <v>92</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9054,7 +9057,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9134,7 +9137,7 @@
         <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9143,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9208,7 +9211,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9220,76 +9223,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9297,7 +9300,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9309,13 +9312,13 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -9324,61 +9327,61 @@
         <v>151</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9398,10 +9401,10 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9490,7 +9493,7 @@
         <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9499,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K98">
         <v>2.6</v>
@@ -9579,7 +9582,7 @@
         <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9588,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9653,7 +9656,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9665,40 +9668,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
       <c r="J100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9707,13 +9710,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9722,7 +9725,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9731,10 +9734,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9742,7 +9745,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9754,40 +9757,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9796,13 +9799,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9811,7 +9814,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9820,10 +9823,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9846,7 +9849,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9855,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9944,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10024,7 +10027,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10033,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10113,7 +10116,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10122,7 +10125,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10211,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10300,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10380,7 +10383,7 @@
         <v>100</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10389,7 +10392,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K108">
         <v>1.666</v>
@@ -10454,7 +10457,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10466,55 +10469,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K109">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
         <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
         <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10523,19 +10526,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
+        <v>0.75</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
         <v>0.8</v>
       </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
-      <c r="AA109">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10543,7 +10546,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10555,55 +10558,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
         <v>3.3</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
         <v>0.5</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10612,19 +10615,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10656,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10745,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10822,10 +10825,10 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10834,7 +10837,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10914,7 +10917,7 @@
         <v>102</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10923,7 +10926,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11012,7 +11015,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11101,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11190,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11267,7 +11270,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11279,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11337,6 +11340,95 @@
       </c>
       <c r="AC118">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7935509</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45360.29166666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+      <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.75</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>1.727</v>
+      </c>
+      <c r="O119">
+        <v>3.75</v>
+      </c>
+      <c r="P119">
+        <v>3.75</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>3.25</v>
+      </c>
+      <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.95</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>-0.5</v>
+      </c>
+      <c r="AC119">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>AS Kolbudy</t>
+  </si>
+  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
-    <t>AS Kolbudy</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
@@ -136,21 +136,21 @@
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
+    <t>Mieszko Gniezno</t>
+  </si>
+  <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Polonia 1908 Marcinki Kepno</t>
+  </si>
+  <si>
     <t>Grom Nowy Staw</t>
   </si>
   <si>
-    <t>Polonia 1908 Marcinki Kepno</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Zabkovia Zabki</t>
+  </si>
+  <si>
     <t>Szczakowianka Jaworzno</t>
   </si>
   <si>
-    <t>Zabkovia Zabki</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Wierna Malogoszcz</t>
+  </si>
+  <si>
     <t>Jaguar Gdansk</t>
   </si>
   <si>
-    <t>Wierna Malogoszcz</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -334,12 +334,12 @@
     <t>GKS Nowiny</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
+    <t>Lipno Steszew</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Lipno Steszew</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>GKS Arka Pawlow</t>
+  </si>
+  <si>
+    <t>KSS Kotwica Kornik</t>
   </si>
   <si>
     <t>H</t>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -952,52 +955,52 @@
         <v>106</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1006,16 +1009,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1023,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1041,52 +1044,52 @@
         <v>107</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1095,16 +1098,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1136,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1225,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1305,7 +1308,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K6">
         <v>3.25</v>
@@ -1403,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K7">
         <v>1.571</v>
@@ -1492,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1581,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1670,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1759,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1848,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1913,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1928,73 +1931,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2002,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2017,73 +2020,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>1.062</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>1.062</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>4.25</v>
+      </c>
+      <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14">
-        <v>1.444</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.444</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.475</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2115,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2180,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2195,55 +2198,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2252,16 +2255,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2269,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2284,55 +2287,55 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2341,16 +2344,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2373,7 +2376,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2382,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2471,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2560,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2625,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2640,73 +2643,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.85</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2714,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2729,73 +2732,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2827,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2916,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3085,7 +3088,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3094,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3183,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3272,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3361,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3450,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K30">
         <v>2.5</v>
@@ -3530,7 +3533,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3539,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K31">
         <v>3.9</v>
@@ -3628,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3717,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3797,7 +3800,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3806,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3895,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3975,7 +3978,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3984,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4049,7 +4052,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4064,16 +4067,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4085,22 +4088,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4112,25 +4115,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4138,7 +4141,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4153,16 +4156,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4174,22 +4177,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4201,25 +4204,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4251,7 +4254,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4340,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4405,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4417,76 +4420,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4494,7 +4497,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4506,76 +4509,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4607,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43">
         <v>1.95</v>
@@ -4672,7 +4675,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068596</v>
+        <v>7068603</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4687,70 +4690,70 @@
         <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
         <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>3.333</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>1</v>
       </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
-      <c r="Z44">
-        <v>0.825</v>
-      </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4761,7 +4764,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068602</v>
+        <v>7068596</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4776,70 +4779,70 @@
         <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>152</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4850,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4874,61 +4877,61 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>2.025</v>
       </c>
-      <c r="V46">
-        <v>1.775</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4963,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K47">
         <v>1.5</v>
@@ -5043,7 +5046,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5052,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5141,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5230,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5319,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5408,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5497,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5586,7 +5589,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5675,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5764,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5853,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5942,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6031,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K59">
         <v>4.5</v>
@@ -6096,7 +6099,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6108,28 +6111,28 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>152</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
         <v>2.2</v>
@@ -6138,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6150,34 +6153,34 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6185,7 +6188,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6197,28 +6200,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6227,7 +6230,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6239,34 +6242,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6298,7 +6301,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6387,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6476,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6541,7 +6544,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6556,7 +6559,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6565,43 +6568,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6610,16 +6613,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6630,7 +6633,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6645,7 +6648,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6654,43 +6657,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6699,16 +6702,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6743,7 +6746,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6832,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6912,7 +6915,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6921,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7010,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7099,7 +7102,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7188,7 +7191,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K72">
         <v>1.909</v>
@@ -7253,7 +7256,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7265,46 +7268,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>154</v>
+      </c>
+      <c r="K73">
+        <v>2.25</v>
+      </c>
+      <c r="L73">
+        <v>3.75</v>
+      </c>
+      <c r="M73">
+        <v>2.5</v>
+      </c>
+      <c r="N73">
+        <v>4.5</v>
+      </c>
+      <c r="O73">
+        <v>4.2</v>
+      </c>
+      <c r="P73">
+        <v>1.533</v>
+      </c>
+      <c r="Q73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>153</v>
-      </c>
-      <c r="K73">
-        <v>2.6</v>
-      </c>
-      <c r="L73">
-        <v>3.6</v>
-      </c>
-      <c r="M73">
-        <v>2.2</v>
-      </c>
-      <c r="N73">
-        <v>2.6</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>2.2</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7322,13 +7325,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7342,7 +7345,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7354,46 +7357,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74">
+        <v>2.6</v>
+      </c>
+      <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>2.2</v>
+      </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
+        <v>2.2</v>
+      </c>
+      <c r="Q74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>153</v>
-      </c>
-      <c r="K74">
-        <v>2.25</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
-      <c r="M74">
-        <v>2.5</v>
-      </c>
-      <c r="N74">
-        <v>4.5</v>
-      </c>
-      <c r="O74">
-        <v>4.2</v>
-      </c>
-      <c r="P74">
-        <v>1.533</v>
-      </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7411,13 +7414,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7431,7 +7434,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7443,76 +7446,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>152</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7520,7 +7523,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7532,76 +7535,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7633,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7722,7 +7725,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7799,10 +7802,10 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7811,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K79">
         <v>1.363</v>
@@ -7900,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -7989,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8078,7 +8081,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8167,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8256,7 +8259,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8336,7 +8339,7 @@
         <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8345,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8410,7 +8413,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246023</v>
+        <v>7246020</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8422,76 +8425,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
+        <v>0.3</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>0.45</v>
+      </c>
+      <c r="AA86">
+        <v>-0.5</v>
+      </c>
+      <c r="AB86">
         <v>0.8</v>
       </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8499,7 +8502,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8511,58 +8514,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K87">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8571,16 +8574,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8612,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K88">
         <v>1.3</v>
@@ -8701,7 +8704,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8790,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8879,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8968,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9057,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9146,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9211,7 +9214,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9223,13 +9226,13 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -9238,61 +9241,61 @@
         <v>152</v>
       </c>
       <c r="K95">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9300,7 +9303,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9312,76 +9315,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K96">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9413,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9502,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K98">
         <v>2.6</v>
@@ -9591,7 +9594,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9680,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K100">
         <v>2.15</v>
@@ -9769,7 +9772,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9849,7 +9852,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9858,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9947,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10036,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10125,7 +10128,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10214,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10303,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10392,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K108">
         <v>1.666</v>
@@ -10469,7 +10472,7 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
         <v>105</v>
@@ -10481,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10558,7 +10561,7 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
         <v>78</v>
@@ -10570,7 +10573,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K110">
         <v>3.3</v>
@@ -10659,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10748,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10828,7 +10831,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10837,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10926,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11015,7 +11018,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11104,7 +11107,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11193,7 +11196,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11270,7 +11273,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11282,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11371,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11429,6 +11432,169 @@
       </c>
       <c r="AC119">
         <v>0.475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7965645</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45367.29166666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>57</v>
+      </c>
+      <c r="G120" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+      <c r="K120">
+        <v>9</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>1.2</v>
+      </c>
+      <c r="N120">
+        <v>9</v>
+      </c>
+      <c r="O120">
+        <v>6</v>
+      </c>
+      <c r="P120">
+        <v>1.2</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
+        <v>1.925</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>0.2</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB120">
+        <v>0.875</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7965646</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+      <c r="K121">
+        <v>2.8</v>
+      </c>
+      <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
+        <v>2.1</v>
+      </c>
+      <c r="N121">
+        <v>3.5</v>
+      </c>
+      <c r="O121">
+        <v>3.6</v>
+      </c>
+      <c r="P121">
+        <v>1.8</v>
+      </c>
+      <c r="Q121">
+        <v>0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.85</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
+        <v>1.775</v>
+      </c>
+      <c r="V121">
+        <v>2.025</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,12 @@
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Pomorzanin Torun</t>
+  </si>
+  <si>
     <t>Marcovia Marki</t>
   </si>
   <si>
-    <t>Pomorzanin Torun</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
@@ -334,6 +334,12 @@
     <t>GKS Nowiny</t>
   </si>
   <si>
+    <t>Ruch Radzionkow</t>
+  </si>
+  <si>
+    <t>Stomil Olsztyn II</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
@@ -448,12 +454,12 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
   </si>
   <si>
-    <t>MKS Myszkow</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
@@ -469,7 +475,13 @@
     <t>GKS Arka Pawlow</t>
   </si>
   <si>
-    <t>KSS Kotwica Kornik</t>
+    <t>Piast Zmigrod</t>
+  </si>
+  <si>
+    <t>LKS Drama Zbroslawice</t>
+  </si>
+  <si>
+    <t>Znicz Klobuck</t>
   </si>
   <si>
     <t>H</t>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -961,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K2">
         <v>2.25</v>
@@ -1041,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>1.571</v>
@@ -1130,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1139,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1293,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1308,73 +1320,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4.333</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
       </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>1.727</v>
-      </c>
-      <c r="Q6">
-        <v>0.75</v>
-      </c>
-      <c r="R6">
-        <v>1.825</v>
-      </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1382,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1397,73 +1409,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1495,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1575,7 +1587,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1584,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1673,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1762,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1851,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1931,7 +1943,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1940,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K13">
         <v>1.444</v>
@@ -2020,7 +2032,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2029,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K14">
         <v>17</v>
@@ -2109,7 +2121,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2118,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2207,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K16">
         <v>1.727</v>
@@ -2287,7 +2299,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K17">
         <v>1.05</v>
@@ -2376,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2385,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2474,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2563,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2643,7 +2655,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2652,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K21">
         <v>2.75</v>
@@ -2741,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22">
         <v>2.15</v>
@@ -2821,7 +2833,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2830,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2910,7 +2922,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2919,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -2999,7 +3011,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3008,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3097,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3177,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3186,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3275,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3364,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3429,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3444,52 +3456,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3498,16 +3510,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3518,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3533,52 +3545,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K31">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q31">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3587,16 +3599,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3619,10 +3631,10 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3720,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3809,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3898,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3987,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4076,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4156,7 +4168,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4165,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4245,7 +4257,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4254,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4343,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4423,7 +4435,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4432,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K41">
         <v>1.95</v>
@@ -4521,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4586,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4598,49 +4610,49 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
         <v>1.85</v>
@@ -4649,19 +4661,19 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
         <v>-1</v>
@@ -4675,7 +4687,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4687,40 +4699,40 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4729,34 +4741,34 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4776,7 +4788,7 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
         <v>72</v>
@@ -4788,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4853,7 +4865,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4865,10 +4877,10 @@
         <v>45153.5</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4877,61 +4889,61 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
+        <v>2.025</v>
+      </c>
+      <c r="V46">
         <v>1.775</v>
       </c>
-      <c r="V46">
-        <v>2.025</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4942,7 +4954,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068599</v>
+        <v>7068602</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4954,76 +4966,76 @@
         <v>45153.5</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5055,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5144,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5233,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5313,7 +5325,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5322,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5411,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5491,7 +5503,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5500,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5580,7 +5592,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5589,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5669,7 +5681,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5678,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5767,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5847,7 +5859,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5856,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5936,7 +5948,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5945,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6025,7 +6037,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6034,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K59">
         <v>4.5</v>
@@ -6099,7 +6111,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6111,28 +6123,28 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
         <v>2.2</v>
@@ -6141,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6153,34 +6165,34 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6188,7 +6200,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6200,28 +6212,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6230,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6242,34 +6254,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6292,7 +6304,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6301,7 +6313,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6381,7 +6393,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6390,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6470,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6479,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6568,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K65">
         <v>3.1</v>
@@ -6648,7 +6660,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6657,7 +6669,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K66">
         <v>2.4</v>
@@ -6746,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6835,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6924,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7004,7 +7016,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7013,7 +7025,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7093,7 +7105,7 @@
         <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7102,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7167,7 +7179,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7179,46 +7191,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>158</v>
+      </c>
+      <c r="K72">
+        <v>2.25</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
+        <v>2.5</v>
+      </c>
+      <c r="N72">
+        <v>4.5</v>
+      </c>
+      <c r="O72">
+        <v>4.2</v>
+      </c>
+      <c r="P72">
+        <v>1.533</v>
+      </c>
+      <c r="Q72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>154</v>
-      </c>
-      <c r="K72">
-        <v>1.909</v>
-      </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>2.9</v>
-      </c>
-      <c r="N72">
-        <v>1.909</v>
-      </c>
-      <c r="O72">
-        <v>4</v>
-      </c>
-      <c r="P72">
-        <v>2.9</v>
-      </c>
-      <c r="Q72">
-        <v>-0.5</v>
-      </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7236,19 +7248,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7256,7 +7268,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7268,46 +7280,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>158</v>
+      </c>
+      <c r="K73">
+        <v>2.6</v>
+      </c>
+      <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.2</v>
+      </c>
+      <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
+        <v>2.2</v>
+      </c>
+      <c r="Q73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>154</v>
-      </c>
-      <c r="K73">
-        <v>2.25</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
-      <c r="M73">
-        <v>2.5</v>
-      </c>
-      <c r="N73">
-        <v>4.5</v>
-      </c>
-      <c r="O73">
-        <v>4.2</v>
-      </c>
-      <c r="P73">
-        <v>1.533</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7325,13 +7337,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7345,7 +7357,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7357,46 +7369,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7414,19 +7426,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7449,7 +7461,7 @@
         <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7458,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K75">
         <v>5.5</v>
@@ -7547,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7624,10 +7636,10 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7636,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7725,7 +7737,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7790,7 +7802,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7802,58 +7814,58 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N79">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7862,16 +7874,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7879,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7891,76 +7903,76 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>1.363</v>
+      </c>
+      <c r="O80">
+        <v>4.75</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
         <v>3.75</v>
       </c>
-      <c r="M80">
-        <v>2.55</v>
-      </c>
-      <c r="N80">
-        <v>3.2</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
-      <c r="P80">
-        <v>1.85</v>
-      </c>
-      <c r="Q80">
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1.8</v>
+      </c>
+      <c r="W80">
+        <v>0.363</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
-      <c r="W80">
-        <v>2.2</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7980,10 +7992,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7992,7 +8004,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8072,7 +8084,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8081,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8161,7 +8173,7 @@
         <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8170,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8259,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8348,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8413,7 +8425,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246020</v>
+        <v>7246023</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8425,58 +8437,58 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K86">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8485,16 +8497,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8502,7 +8514,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8514,76 +8526,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N87">
+        <v>1.25</v>
+      </c>
+      <c r="O87">
+        <v>5.5</v>
+      </c>
+      <c r="P87">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>-2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>3.2</v>
-      </c>
-      <c r="Q87">
+      <c r="T87">
+        <v>3.75</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
+        <v>1.85</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>4.5</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.475</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.85</v>
-      </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
-      <c r="W87">
-        <v>0.8</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8591,7 +8603,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8603,76 +8615,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K88">
+        <v>1.166</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>11</v>
+      </c>
+      <c r="N88">
         <v>1.3</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
-      <c r="N88">
-        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
+        <v>1.9</v>
+      </c>
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="T88">
-        <v>3.75</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA88">
+        <v>-0.5</v>
+      </c>
+      <c r="AB88">
         <v>0.8</v>
       </c>
-      <c r="AB88">
-        <v>0.475</v>
-      </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8704,7 +8716,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8784,7 +8796,7 @@
         <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8793,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8873,7 +8885,7 @@
         <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8882,7 +8894,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8962,7 +8974,7 @@
         <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8971,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9051,7 +9063,7 @@
         <v>92</v>
       </c>
       <c r="G93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9060,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9140,7 +9152,7 @@
         <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9149,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9214,7 +9226,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9226,76 +9238,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9303,7 +9315,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9315,76 +9327,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9407,7 +9419,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9416,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9481,7 +9493,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9493,34 +9505,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9535,34 +9547,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9570,7 +9582,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9582,34 +9594,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9624,34 +9636,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9659,7 +9671,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9671,40 +9683,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K100">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9713,13 +9725,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9728,7 +9740,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9737,10 +9749,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9748,7 +9760,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9760,40 +9772,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
       <c r="J101" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9802,13 +9814,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9817,7 +9829,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9826,10 +9838,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9861,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9950,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10030,7 +10042,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10039,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10119,7 +10131,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10128,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10217,7 +10229,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10306,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10371,7 +10383,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10383,55 +10395,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10440,19 +10452,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10484,7 +10496,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10549,7 +10561,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10561,55 +10573,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
         <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10618,19 +10630,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10653,7 +10665,7 @@
         <v>94</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -10662,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10751,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10831,7 +10843,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10840,7 +10852,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10920,7 +10932,7 @@
         <v>102</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10929,7 +10941,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11009,7 +11021,7 @@
         <v>103</v>
       </c>
       <c r="G115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11018,7 +11030,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11107,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11196,7 +11208,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11285,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11365,7 +11377,7 @@
         <v>105</v>
       </c>
       <c r="G119" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11374,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11451,7 +11463,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -11463,7 +11475,7 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K120">
         <v>9</v>
@@ -11528,7 +11540,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7965646</v>
+        <v>7970697</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11537,64 +11549,702 @@
         <v>28</v>
       </c>
       <c r="E121" s="2">
-        <v>45368.58333333334</v>
+        <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s">
-        <v>151</v>
+        <v>137</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
       </c>
       <c r="K121">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L121">
+        <v>6</v>
+      </c>
+      <c r="M121">
+        <v>8.5</v>
+      </c>
+      <c r="N121">
+        <v>1.2</v>
+      </c>
+      <c r="O121">
+        <v>6</v>
+      </c>
+      <c r="P121">
+        <v>8.5</v>
+      </c>
+      <c r="Q121">
+        <v>-2</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.25</v>
+      </c>
+      <c r="U121">
+        <v>1.8</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>0.2</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB121">
+        <v>-0.5</v>
+      </c>
+      <c r="AC121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7972574</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45368.33333333334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>94</v>
+      </c>
+      <c r="G122" t="s">
+        <v>153</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122" t="s">
+        <v>158</v>
+      </c>
+      <c r="K122">
+        <v>2.25</v>
+      </c>
+      <c r="L122">
         <v>3.6</v>
       </c>
-      <c r="M121">
+      <c r="M122">
+        <v>2.55</v>
+      </c>
+      <c r="N122">
+        <v>2.25</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
+        <v>2.55</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1.775</v>
+      </c>
+      <c r="S122">
+        <v>2.025</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
+        <v>1.9</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>1.55</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>1.025</v>
+      </c>
+      <c r="AB122">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7995827</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45374.29166666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>103</v>
+      </c>
+      <c r="G123" t="s">
+        <v>88</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+      <c r="K123">
+        <v>1.909</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>2.9</v>
+      </c>
+      <c r="N123">
+        <v>1.666</v>
+      </c>
+      <c r="O123">
+        <v>4.5</v>
+      </c>
+      <c r="P123">
+        <v>3.6</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
+        <v>1.9</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>2.6</v>
+      </c>
+      <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.925</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7995804</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45374.29166666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G124" t="s">
+        <v>154</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+      <c r="K124">
+        <v>2.9</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
         <v>2.1</v>
       </c>
-      <c r="N121">
+      <c r="N124">
+        <v>2.1</v>
+      </c>
+      <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
+        <v>3</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
+        <v>1.95</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7995829</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45374.29166666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>83</v>
+      </c>
+      <c r="G125" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>156</v>
+      </c>
+      <c r="K125">
+        <v>1.363</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5.5</v>
+      </c>
+      <c r="N125">
+        <v>1.222</v>
+      </c>
+      <c r="O125">
+        <v>6.5</v>
+      </c>
+      <c r="P125">
+        <v>7.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.75</v>
+      </c>
+      <c r="R125">
         <v>1.8</v>
       </c>
-      <c r="Q121">
-        <v>0.5</v>
-      </c>
-      <c r="R121">
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>3.5</v>
+      </c>
+      <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="S121">
+      <c r="W125">
+        <v>0.222</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7997656</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45374.58333333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>106</v>
+      </c>
+      <c r="G126" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+      <c r="K126">
+        <v>1.571</v>
+      </c>
+      <c r="L126">
+        <v>3.75</v>
+      </c>
+      <c r="M126">
+        <v>4.75</v>
+      </c>
+      <c r="N126">
+        <v>1.571</v>
+      </c>
+      <c r="O126">
+        <v>3.75</v>
+      </c>
+      <c r="P126">
+        <v>4.75</v>
+      </c>
+      <c r="Q126">
+        <v>-1</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.8</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.9</v>
+      </c>
+      <c r="W126">
+        <v>0.571</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>0.45</v>
+      </c>
+      <c r="AC126">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7995805</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45374.625</v>
+      </c>
+      <c r="F127" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>156</v>
+      </c>
+      <c r="K127">
+        <v>1.3</v>
+      </c>
+      <c r="L127">
+        <v>5.5</v>
+      </c>
+      <c r="M127">
+        <v>6</v>
+      </c>
+      <c r="N127">
+        <v>1.3</v>
+      </c>
+      <c r="O127">
+        <v>5.75</v>
+      </c>
+      <c r="P127">
+        <v>5.75</v>
+      </c>
+      <c r="Q127">
+        <v>-1.5</v>
+      </c>
+      <c r="R127">
+        <v>1.775</v>
+      </c>
+      <c r="S127">
+        <v>2.025</v>
+      </c>
+      <c r="T127">
+        <v>3.5</v>
+      </c>
+      <c r="U127">
+        <v>1.9</v>
+      </c>
+      <c r="V127">
+        <v>1.9</v>
+      </c>
+      <c r="W127">
+        <v>0.3</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7995828</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45374.66666666666</v>
+      </c>
+      <c r="F128" t="s">
+        <v>107</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+      <c r="K128">
+        <v>4.75</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.533</v>
+      </c>
+      <c r="N128">
+        <v>4.75</v>
+      </c>
+      <c r="O128">
+        <v>4</v>
+      </c>
+      <c r="P128">
+        <v>1.533</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
         <v>1.85</v>
       </c>
-      <c r="T121">
-        <v>3</v>
-      </c>
-      <c r="U121">
-        <v>1.775</v>
-      </c>
-      <c r="V121">
-        <v>2.025</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
-        <v>0</v>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.825</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB128">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,12 @@
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Arka Gdynia II</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Marcovia Marki</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>Marcovia Marki</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -199,24 +199,24 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>Granat SkarzyskoKamienna</t>
+  </si>
+  <si>
     <t>DKS Dobre Miasto</t>
   </si>
   <si>
-    <t>Granat SkarzyskoKamienna</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -454,10 +454,10 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
-  </si>
-  <si>
-    <t>Unia Wabrzezno</t>
   </si>
   <si>
     <t>Orzel Miedary</t>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1320,73 +1320,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1409,73 +1409,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>4.333</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1.727</v>
-      </c>
-      <c r="Q7">
-        <v>0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1765,73 +1765,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>3.333</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>3.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>0.909</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>0.475</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.95</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
-      </c>
-      <c r="AC11">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1854,73 +1854,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.5</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.475</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2566,7 +2566,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>120</v>
@@ -3441,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3456,52 +3456,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3510,16 +3510,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3530,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3545,52 +3545,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>158</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3599,16 +3599,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3631,7 +3631,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>116</v>
@@ -4064,7 +4064,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4079,16 +4079,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4100,22 +4100,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4127,25 +4127,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4153,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4168,16 +4168,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4189,22 +4189,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4216,25 +4216,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4346,7 +4346,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4432,76 +4432,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4509,7 +4509,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4521,76 +4521,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4598,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4610,46 +4610,46 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>156</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>3.25</v>
@@ -4661,7 +4661,7 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4670,16 +4670,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4699,7 +4699,7 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
         <v>124</v>
@@ -4776,7 +4776,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4788,46 +4788,46 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>156</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>3.25</v>
@@ -4839,7 +4839,7 @@
         <v>1.95</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4848,16 +4848,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5414,7 +5414,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5948,7 +5948,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6022,7 +6022,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6037,64 +6037,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6103,7 +6103,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6111,7 +6111,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6123,76 +6123,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>157</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6200,7 +6200,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6212,28 +6212,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6254,34 +6254,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6927,7 +6927,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7179,7 +7179,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7191,46 +7191,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>158</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N72">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7248,19 +7248,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7268,7 +7268,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7280,13 +7280,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7295,31 +7295,31 @@
         <v>158</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7337,13 +7337,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7357,7 +7357,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7369,46 +7369,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>158</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7426,19 +7426,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7446,7 +7446,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7458,76 +7458,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7535,7 +7535,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7547,76 +7547,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7636,7 +7636,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>138</v>
@@ -7728,7 +7728,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7814,13 +7814,13 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7829,61 +7829,61 @@
         <v>156</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
+        <v>6</v>
+      </c>
+      <c r="N79">
+        <v>1.363</v>
+      </c>
+      <c r="O79">
+        <v>4.75</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.55</v>
-      </c>
-      <c r="N79">
-        <v>3.2</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>1.85</v>
-      </c>
-      <c r="Q79">
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>1.8</v>
+      </c>
+      <c r="W79">
+        <v>0.363</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.5</v>
       </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3.5</v>
-      </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
-      <c r="V79">
-        <v>1.925</v>
-      </c>
-      <c r="W79">
-        <v>2.2</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7891,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7903,13 +7903,13 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7918,43 +7918,43 @@
         <v>156</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7963,16 +7963,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7992,7 +7992,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
         <v>139</v>
@@ -8425,7 +8425,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8440,73 +8440,73 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N86">
+        <v>1.25</v>
+      </c>
+      <c r="O86">
+        <v>5.5</v>
+      </c>
+      <c r="P86">
+        <v>8</v>
+      </c>
+      <c r="Q86">
+        <v>-2</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
-      <c r="P86">
-        <v>3.2</v>
-      </c>
-      <c r="Q86">
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>1.85</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>4.5</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.8</v>
+      </c>
+      <c r="AB86">
+        <v>0.475</v>
+      </c>
+      <c r="AC86">
         <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
-      <c r="W86">
-        <v>0.8</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8514,7 +8514,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8529,73 +8529,73 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K87">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9060,7 +9060,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -9226,7 +9226,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9238,76 +9238,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K95">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9315,7 +9315,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9327,76 +9327,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K96">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9416,7 +9416,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>130</v>
@@ -9493,7 +9493,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9505,34 +9505,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
         <v>146</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9547,34 +9547,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9582,7 +9582,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9594,34 +9594,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s">
         <v>147</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9636,34 +9636,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9671,7 +9671,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9683,40 +9683,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>158</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9725,13 +9725,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9740,7 +9740,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9749,10 +9749,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9760,7 +9760,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9772,40 +9772,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>158</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9814,13 +9814,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9829,7 +9829,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9838,10 +9838,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10840,7 +10840,7 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
         <v>108</v>
@@ -11196,7 +11196,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
         <v>55</v>
@@ -11285,7 +11285,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11463,7 +11463,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -11552,7 +11552,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s">
         <v>137</v>
@@ -12089,7 +12089,7 @@
         <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12245,6 +12245,80 @@
       </c>
       <c r="AC128">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>8022647</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" t="s">
+        <v>89</v>
+      </c>
+      <c r="K129">
+        <v>1.166</v>
+      </c>
+      <c r="L129">
+        <v>7</v>
+      </c>
+      <c r="M129">
+        <v>9</v>
+      </c>
+      <c r="N129">
+        <v>1.166</v>
+      </c>
+      <c r="O129">
+        <v>7</v>
+      </c>
+      <c r="P129">
+        <v>9</v>
+      </c>
+      <c r="Q129">
+        <v>-2</v>
+      </c>
+      <c r="R129">
+        <v>1.75</v>
+      </c>
+      <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Pomorzanin Torun</t>
+  </si>
+  <si>
     <t>Marcovia Marki</t>
   </si>
   <si>
-    <t>Pomorzanin Torun</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>DKS Dobre Miasto</t>
+  </si>
+  <si>
     <t>Granat SkarzyskoKamienna</t>
   </si>
   <si>
-    <t>DKS Dobre Miasto</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -391,10 +391,10 @@
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Lipno Steszew</t>
-  </si>
-  <si>
-    <t>Victoria Wrzesnia</t>
   </si>
   <si>
     <t>BKS Bochnia</t>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2210,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -3441,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3456,52 +3456,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3510,16 +3510,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3530,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3545,52 +3545,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>158</v>
       </c>
       <c r="K31">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q31">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3599,16 +3599,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -4346,7 +4346,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068595</v>
+        <v>7068599</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4699,49 +4699,49 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
         <v>1.85</v>
@@ -4750,19 +4750,19 @@
         <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4776,7 +4776,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068599</v>
+        <v>7068595</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4788,49 +4788,49 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <v>1.8</v>
       </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
         <v>1.85</v>
@@ -4839,19 +4839,19 @@
         <v>1.95</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4865,7 +4865,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4892,58 +4892,58 @@
         <v>157</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M46">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>2.025</v>
       </c>
-      <c r="V46">
-        <v>1.775</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4954,7 +4954,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4981,58 +4981,58 @@
         <v>157</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P47">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
         <v>1.775</v>
       </c>
-      <c r="V47">
-        <v>2.025</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5948,7 +5948,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6022,7 +6022,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6037,64 +6037,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6103,7 +6103,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6111,7 +6111,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6123,76 +6123,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>157</v>
       </c>
       <c r="K60">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.775</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>3.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6200,7 +6200,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6212,28 +6212,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6254,34 +6254,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6556,7 +6556,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6571,7 +6571,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6583,40 +6583,40 @@
         <v>158</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6625,16 +6625,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6645,7 +6645,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6660,7 +6660,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6672,40 +6672,40 @@
         <v>158</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6714,16 +6714,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -7268,7 +7268,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7280,13 +7280,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7295,31 +7295,31 @@
         <v>158</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7337,13 +7337,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7357,7 +7357,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7369,13 +7369,13 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -7384,31 +7384,31 @@
         <v>158</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7426,13 +7426,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7446,7 +7446,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7458,76 +7458,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7535,7 +7535,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7547,76 +7547,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7728,7 +7728,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7992,7 +7992,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G81" t="s">
         <v>139</v>
@@ -8425,7 +8425,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8440,73 +8440,73 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K86">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8514,7 +8514,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8529,73 +8529,73 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N87">
+        <v>1.25</v>
+      </c>
+      <c r="O87">
+        <v>5.5</v>
+      </c>
+      <c r="P87">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>-2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
-      <c r="P87">
-        <v>3.2</v>
-      </c>
-      <c r="Q87">
+      <c r="T87">
+        <v>3.75</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
+        <v>1.85</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>4.5</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.8</v>
+      </c>
+      <c r="AB87">
+        <v>0.475</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.85</v>
-      </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
-      <c r="W87">
-        <v>0.8</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9060,7 +9060,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -9330,7 +9330,7 @@
         <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10383,7 +10383,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10395,55 +10395,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>158</v>
       </c>
       <c r="K108">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N108">
         <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q108">
         <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10452,19 +10452,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
+        <v>0.75</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
         <v>0.8</v>
       </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10472,7 +10472,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10484,13 +10484,13 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -10499,61 +10499,61 @@
         <v>158</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>1.9</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
         <v>1.8</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>0.75</v>
-      </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10561,7 +10561,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10573,55 +10573,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>158</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10630,19 +10630,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11196,7 +11196,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
         <v>55</v>
@@ -11463,7 +11463,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -11552,7 +11552,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s">
         <v>137</v>
@@ -11807,7 +11807,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995804</v>
+        <v>7995829</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11819,46 +11819,46 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K124">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>3.5</v>
@@ -11870,19 +11870,19 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11896,7 +11896,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7995829</v>
+        <v>7995804</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11908,46 +11908,46 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K125">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>3.5</v>
@@ -11959,19 +11959,19 @@
         <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -12089,7 +12089,7 @@
         <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12245,80 +12245,6 @@
       </c>
       <c r="AC128">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>8022647</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="2">
-        <v>45380.58333333334</v>
-      </c>
-      <c r="F129" t="s">
-        <v>74</v>
-      </c>
-      <c r="G129" t="s">
-        <v>89</v>
-      </c>
-      <c r="K129">
-        <v>1.166</v>
-      </c>
-      <c r="L129">
-        <v>7</v>
-      </c>
-      <c r="M129">
-        <v>9</v>
-      </c>
-      <c r="N129">
-        <v>1.166</v>
-      </c>
-      <c r="O129">
-        <v>7</v>
-      </c>
-      <c r="P129">
-        <v>9</v>
-      </c>
-      <c r="Q129">
-        <v>-2</v>
-      </c>
-      <c r="R129">
-        <v>1.75</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Marcovia Marki</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>Marcovia Marki</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>Granat SkarzyskoKamienna</t>
+  </si>
+  <si>
     <t>DKS Dobre Miasto</t>
-  </si>
-  <si>
-    <t>Granat SkarzyskoKamienna</t>
   </si>
   <si>
     <t>Chrobry Glogow II</t>
@@ -3441,7 +3441,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3456,52 +3456,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3510,16 +3510,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3530,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3545,52 +3545,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>158</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3599,16 +3599,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -4346,7 +4346,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4432,76 +4432,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4509,7 +4509,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4521,76 +4521,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4598,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4610,46 +4610,46 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>156</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3.25</v>
@@ -4661,7 +4661,7 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4670,16 +4670,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4687,7 +4687,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4699,46 +4699,46 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>156</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>3.25</v>
@@ -4750,7 +4750,7 @@
         <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4759,16 +4759,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5948,7 +5948,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6022,7 +6022,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6037,64 +6037,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6103,7 +6103,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6111,7 +6111,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6123,76 +6123,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>157</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6200,7 +6200,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6212,28 +6212,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6254,34 +6254,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6556,7 +6556,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6571,7 +6571,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6583,40 +6583,40 @@
         <v>158</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6625,16 +6625,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6645,7 +6645,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6660,7 +6660,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6672,40 +6672,40 @@
         <v>158</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6714,16 +6714,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -7268,7 +7268,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7280,13 +7280,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7295,31 +7295,31 @@
         <v>158</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7337,13 +7337,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7357,7 +7357,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7369,13 +7369,13 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -7384,31 +7384,31 @@
         <v>158</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7426,13 +7426,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7446,7 +7446,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7458,76 +7458,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7535,7 +7535,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7547,76 +7547,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M76">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7728,7 +7728,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7992,7 +7992,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
         <v>139</v>
@@ -8425,7 +8425,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246023</v>
+        <v>7246022</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8440,73 +8440,73 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N86">
+        <v>1.25</v>
+      </c>
+      <c r="O86">
+        <v>5.5</v>
+      </c>
+      <c r="P86">
+        <v>8</v>
+      </c>
+      <c r="Q86">
+        <v>-2</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
       </c>
-      <c r="O86">
-        <v>4.2</v>
-      </c>
-      <c r="P86">
-        <v>3.2</v>
-      </c>
-      <c r="Q86">
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>1.85</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
+        <v>4.5</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.8</v>
+      </c>
+      <c r="AB86">
+        <v>0.475</v>
+      </c>
+      <c r="AC86">
         <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
-      <c r="W86">
-        <v>0.8</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
-      <c r="AC86">
-        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8514,7 +8514,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7246022</v>
+        <v>7246023</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8529,73 +8529,73 @@
         <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K87">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N87">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
         <v>1.95</v>
       </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9060,7 +9060,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -9330,7 +9330,7 @@
         <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10395,55 +10395,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>158</v>
       </c>
       <c r="K108">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N108">
         <v>3.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q108">
         <v>0.5</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10452,19 +10452,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10472,7 +10472,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10484,13 +10484,13 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -10499,40 +10499,40 @@
         <v>158</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10541,19 +10541,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10561,7 +10561,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10573,55 +10573,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
         <v>158</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
         <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10630,19 +10630,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -11196,7 +11196,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
         <v>55</v>
@@ -11463,7 +11463,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -11552,7 +11552,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s">
         <v>137</v>
@@ -12089,7 +12089,7 @@
         <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H127">
         <v>3</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -103,24 +103,24 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>Chemik Bydgoszcz</t>
+  </si>
+  <si>
     <t>AS Kolbudy</t>
   </si>
   <si>
-    <t>Chemik Bydgoszcz</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Arka Gdynia II</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Wierna Malogoszcz</t>
+  </si>
+  <si>
     <t>Jaguar Gdansk</t>
   </si>
   <si>
-    <t>Wierna Malogoszcz</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>DKS Dobre Miasto</t>
+  </si>
+  <si>
     <t>Granat SkarzyskoKamienna</t>
   </si>
   <si>
-    <t>DKS Dobre Miasto</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Stomil Olsztyn II</t>
   </si>
   <si>
+    <t>Cuiavia Inowroclaw</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
-    <t>Cuiavia Inowroclaw</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -388,15 +388,15 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Lipno Steszew</t>
+  </si>
+  <si>
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Lipno Steszew</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Znicz Klobuck</t>
+  </si>
+  <si>
+    <t>AKS 1947 BuskoZdroj</t>
   </si>
   <si>
     <t>H</t>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -967,52 +970,52 @@
         <v>108</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1021,16 +1024,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1038,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1056,52 +1059,52 @@
         <v>109</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1110,16 +1113,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1151,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1240,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1305,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1320,73 +1323,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4.333</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
       </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>1.727</v>
-      </c>
-      <c r="Q6">
-        <v>0.75</v>
-      </c>
-      <c r="R6">
-        <v>1.825</v>
-      </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1394,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1409,73 +1412,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>157</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1507,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1596,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1685,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1928,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1943,73 +1946,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>1.062</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>1.062</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
+        <v>4.25</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z13">
+        <v>0.45</v>
+      </c>
+      <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13">
-        <v>1.444</v>
-      </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.85</v>
-      </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>0.444</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.475</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2017,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2032,73 +2035,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2130,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2210,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K16">
         <v>1.727</v>
@@ -2308,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17">
         <v>1.05</v>
@@ -2388,7 +2391,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2397,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2486,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2575,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K21">
         <v>2.75</v>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K22">
         <v>2.15</v>
@@ -2842,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2931,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -3020,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3109,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3198,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3287,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3376,7 +3379,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3465,7 +3468,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30">
         <v>2.5</v>
@@ -3545,7 +3548,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3554,7 +3557,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K31">
         <v>3.9</v>
@@ -3631,7 +3634,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>116</v>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3732,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3812,7 +3815,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3821,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3910,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3999,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4064,7 +4067,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4079,16 +4082,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4100,22 +4103,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4127,25 +4130,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4153,7 +4156,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4168,16 +4171,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4189,22 +4192,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4216,25 +4219,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4266,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4346,7 +4349,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4355,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4420,7 +4423,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4432,76 +4435,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4509,7 +4512,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4521,76 +4524,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4622,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4711,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4776,7 +4779,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068595</v>
+        <v>7068603</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4794,7 +4797,7 @@
         <v>124</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -4803,25 +4806,25 @@
         <v>158</v>
       </c>
       <c r="K45">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4830,34 +4833,34 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4865,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4883,70 +4886,70 @@
         <v>125</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>3.5</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
         <v>1.95</v>
       </c>
-      <c r="S46">
-        <v>1.85</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.775</v>
-      </c>
-      <c r="V46">
-        <v>2.025</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4954,7 +4957,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4978,61 +4981,61 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M47">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
+        <v>1.775</v>
+      </c>
+      <c r="V47">
         <v>2.025</v>
       </c>
-      <c r="V47">
-        <v>1.775</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5058,7 +5061,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5067,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5156,7 +5159,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5245,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5334,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5423,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5512,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5601,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5690,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5779,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5868,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5957,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6046,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K59">
         <v>2.45</v>
@@ -6135,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K60">
         <v>4.5</v>
@@ -6224,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6313,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6491,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6556,7 +6559,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6571,7 +6574,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6580,43 +6583,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6625,16 +6628,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6645,7 +6648,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6660,7 +6663,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6669,43 +6672,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6714,16 +6717,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6758,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6847,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6927,7 +6930,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6936,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7025,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7114,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7179,7 +7182,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7191,46 +7194,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K72">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7248,19 +7251,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7280,7 +7283,7 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -7292,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K73">
         <v>2.25</v>
@@ -7357,7 +7360,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7369,46 +7372,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7426,19 +7429,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7470,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7559,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K76">
         <v>5.5</v>
@@ -7636,7 +7639,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>138</v>
@@ -7648,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7728,7 +7731,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7737,7 +7740,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7802,7 +7805,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7814,58 +7817,58 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N79">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7874,16 +7877,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7891,7 +7894,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7903,76 +7906,76 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>1.363</v>
+      </c>
+      <c r="O80">
+        <v>4.75</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
         <v>3.75</v>
       </c>
-      <c r="M80">
-        <v>2.55</v>
-      </c>
-      <c r="N80">
-        <v>3.2</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
-      <c r="P80">
-        <v>1.85</v>
-      </c>
-      <c r="Q80">
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1.8</v>
+      </c>
+      <c r="W80">
+        <v>0.363</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
-      <c r="W80">
-        <v>2.2</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8004,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8093,7 +8096,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8182,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8271,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8360,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8425,7 +8428,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8437,76 +8440,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>157</v>
       </c>
       <c r="K86">
+        <v>1.166</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>11</v>
+      </c>
+      <c r="N86">
         <v>1.3</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>7</v>
-      </c>
-      <c r="N86">
-        <v>1.25</v>
       </c>
       <c r="O86">
         <v>5.5</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>3.5</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>3.75</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X86">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA86">
+        <v>-0.5</v>
+      </c>
+      <c r="AB86">
         <v>0.8</v>
       </c>
-      <c r="AB86">
-        <v>0.475</v>
-      </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8526,7 +8529,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
         <v>100</v>
@@ -8538,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8603,7 +8606,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8615,76 +8618,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K88">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
         <v>7</v>
       </c>
-      <c r="M88">
-        <v>11</v>
-      </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.8</v>
+      </c>
+      <c r="AB88">
+        <v>0.475</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>0.8</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8716,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8805,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8894,7 +8897,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8983,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9060,7 +9063,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -9072,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9161,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9250,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K95">
         <v>1.333</v>
@@ -9330,7 +9333,7 @@
         <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9339,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K96">
         <v>1.533</v>
@@ -9428,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9517,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K98">
         <v>2.6</v>
@@ -9606,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9686,7 +9689,7 @@
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9695,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K100">
         <v>2.15</v>
@@ -9784,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9864,7 +9867,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9873,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9962,7 +9965,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10051,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10140,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10229,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10318,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10395,7 +10398,7 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
         <v>78</v>
@@ -10407,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K108">
         <v>3.3</v>
@@ -10484,7 +10487,7 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
         <v>105</v>
@@ -10496,7 +10499,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10585,7 +10588,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K110">
         <v>1.666</v>
@@ -10674,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10763,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10843,7 +10846,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10852,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10941,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11030,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11119,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11208,7 +11211,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11285,7 +11288,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11297,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11386,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11475,7 +11478,7 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K120">
         <v>9</v>
@@ -11564,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K121">
         <v>1.2</v>
@@ -11653,7 +11656,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K122">
         <v>2.25</v>
@@ -11718,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7995827</v>
+        <v>7995829</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11730,76 +11733,76 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11807,7 +11810,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995829</v>
+        <v>7995827</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11819,76 +11822,76 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G124" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K124">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O124">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11920,7 +11923,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K125">
         <v>2.9</v>
@@ -12009,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K126">
         <v>1.571</v>
@@ -12098,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K127">
         <v>1.3</v>
@@ -12187,7 +12190,7 @@
         <v>5</v>
       </c>
       <c r="J128" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K128">
         <v>4.75</v>
@@ -12245,6 +12248,362 @@
       </c>
       <c r="AC128">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>8022648</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45380.47916666666</v>
+      </c>
+      <c r="F129" t="s">
+        <v>81</v>
+      </c>
+      <c r="G129" t="s">
+        <v>48</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129" t="s">
+        <v>159</v>
+      </c>
+      <c r="K129">
+        <v>3.8</v>
+      </c>
+      <c r="L129">
+        <v>4.333</v>
+      </c>
+      <c r="M129">
+        <v>1.615</v>
+      </c>
+      <c r="N129">
+        <v>3.75</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
+        <v>1.615</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
+        <v>1.95</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>0.615</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8</v>
+      </c>
+      <c r="AB129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>8022647</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
+      </c>
+      <c r="G130" t="s">
+        <v>89</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>157</v>
+      </c>
+      <c r="K130">
+        <v>1.166</v>
+      </c>
+      <c r="L130">
+        <v>7</v>
+      </c>
+      <c r="M130">
+        <v>9</v>
+      </c>
+      <c r="N130">
+        <v>1.166</v>
+      </c>
+      <c r="O130">
+        <v>7</v>
+      </c>
+      <c r="P130">
+        <v>9</v>
+      </c>
+      <c r="Q130">
+        <v>-2.25</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
+        <v>3.25</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2</v>
+      </c>
+      <c r="W130">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>0.8</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>8027495</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45381.29166666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" t="s">
+        <v>52</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>158</v>
+      </c>
+      <c r="K131">
+        <v>5.2</v>
+      </c>
+      <c r="L131">
+        <v>4.8</v>
+      </c>
+      <c r="M131">
+        <v>1.4</v>
+      </c>
+      <c r="N131">
+        <v>5.2</v>
+      </c>
+      <c r="O131">
+        <v>4.8</v>
+      </c>
+      <c r="P131">
+        <v>1.4</v>
+      </c>
+      <c r="Q131">
+        <v>1.25</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.8</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>3.8</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0.875</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>8027498</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45381.29166666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s">
+        <v>156</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>159</v>
+      </c>
+      <c r="K132">
+        <v>2.75</v>
+      </c>
+      <c r="L132">
+        <v>3.8</v>
+      </c>
+      <c r="M132">
+        <v>2.05</v>
+      </c>
+      <c r="N132">
+        <v>2.75</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>2.05</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>1.8</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -103,24 +103,24 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>AS Kolbudy</t>
+  </si>
+  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
-    <t>AS Kolbudy</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Arka Gdynia II</t>
+  </si>
+  <si>
     <t>Czarni Pruszcz Gdanski</t>
   </si>
   <si>
-    <t>Arka Gdynia II</t>
+    <t>Mieszko Gniezno</t>
   </si>
   <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Szczakowianka Jaworzno</t>
+  </si>
+  <si>
     <t>Zabkovia Zabki</t>
   </si>
   <si>
-    <t>Szczakowianka Jaworzno</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>Granat SkarzyskoKamienna</t>
+  </si>
+  <si>
     <t>DKS Dobre Miasto</t>
   </si>
   <si>
-    <t>Granat SkarzyskoKamienna</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Stomil Olsztyn II</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -388,13 +388,13 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
     <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
-    <t>Victoria Wrzesnia</t>
   </si>
   <si>
     <t>BKS Bochnia</t>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -970,7 +970,7 @@
         <v>108</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -979,43 +979,43 @@
         <v>157</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1024,16 +1024,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1059,7 +1059,7 @@
         <v>109</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1068,43 +1068,43 @@
         <v>157</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1113,16 +1113,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1323,73 +1323,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1412,73 +1412,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>4.333</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1.727</v>
-      </c>
-      <c r="Q7">
-        <v>0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1753,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1768,73 +1768,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.95</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>0.5</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.475</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1842,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1857,73 +1857,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>3.25</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>1.95</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.333</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>-0.5</v>
       </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>3.75</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>0.909</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>0.475</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.95</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>0.5</v>
-      </c>
-      <c r="AC12">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1946,73 +1946,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2020,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2035,73 +2035,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>1.062</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>1.062</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>4.25</v>
+      </c>
+      <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14">
-        <v>1.444</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.444</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.475</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2213,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2391,7 +2391,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2658,73 +2658,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2747,73 +2747,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3103,7 +3103,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3189,7 +3189,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>120</v>
@@ -3548,7 +3548,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>116</v>
@@ -3815,7 +3815,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4082,16 +4082,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4103,22 +4103,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4130,25 +4130,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4156,7 +4156,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4171,16 +4171,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4192,22 +4192,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4219,25 +4219,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4349,7 +4349,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4435,76 +4435,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4512,7 +4512,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4524,76 +4524,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4601,7 +4601,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068599</v>
+        <v>7068596</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4613,46 +4613,46 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>157</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>3.25</v>
@@ -4664,7 +4664,7 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4673,16 +4673,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4690,7 +4690,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4702,46 +4702,46 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>157</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>3.25</v>
@@ -4753,7 +4753,7 @@
         <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4762,16 +4762,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4779,7 +4779,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4806,58 +4806,58 @@
         <v>158</v>
       </c>
       <c r="K45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>2.025</v>
       </c>
-      <c r="V45">
-        <v>1.775</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068595</v>
+        <v>7068603</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4886,34 +4886,34 @@
         <v>125</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N46">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -4922,34 +4922,34 @@
         <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4957,7 +4957,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068602</v>
+        <v>7068595</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4975,70 +4975,70 @@
         <v>126</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.8</v>
+      </c>
+      <c r="T47">
+        <v>3.5</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>1.775</v>
-      </c>
-      <c r="V47">
-        <v>2.025</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5061,7 +5061,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5417,7 +5417,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -6025,7 +6025,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118490</v>
+        <v>7118489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6040,64 +6040,64 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K59">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -6106,7 +6106,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6114,7 +6114,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6126,76 +6126,76 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>158</v>
       </c>
       <c r="K60">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
+        <v>1.775</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>3.75</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6203,7 +6203,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6215,28 +6215,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6245,7 +6245,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6257,34 +6257,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6930,7 +6930,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7182,7 +7182,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7194,13 +7194,13 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -7209,31 +7209,31 @@
         <v>159</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7251,13 +7251,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7283,13 +7283,13 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -7298,31 +7298,31 @@
         <v>159</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7340,13 +7340,13 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7449,7 +7449,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7183408</v>
+        <v>7183412</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7461,76 +7461,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7538,7 +7538,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7183412</v>
+        <v>7183408</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7550,76 +7550,76 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N76">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T76">
         <v>3.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7639,7 +7639,7 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>138</v>
@@ -7731,7 +7731,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7906,10 +7906,10 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -8428,7 +8428,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8440,76 +8440,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K86">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
         <v>7</v>
       </c>
-      <c r="M86">
-        <v>11</v>
-      </c>
       <c r="N86">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O86">
         <v>5.5</v>
       </c>
       <c r="P86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
+        <v>0.8</v>
+      </c>
+      <c r="AB86">
+        <v>0.475</v>
+      </c>
+      <c r="AC86">
         <v>-0.5</v>
-      </c>
-      <c r="AB86">
-        <v>0.8</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8529,7 +8529,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
         <v>100</v>
@@ -8606,7 +8606,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8618,76 +8618,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K88">
+        <v>1.166</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>11</v>
+      </c>
+      <c r="N88">
         <v>1.3</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
-      <c r="N88">
-        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
+        <v>1.9</v>
+      </c>
+      <c r="T88">
+        <v>3.5</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="T88">
-        <v>3.75</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA88">
+        <v>-0.5</v>
+      </c>
+      <c r="AB88">
         <v>0.8</v>
       </c>
-      <c r="AB88">
-        <v>0.475</v>
-      </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9063,7 +9063,7 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>144</v>
@@ -9419,7 +9419,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
         <v>130</v>
@@ -9674,7 +9674,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9686,40 +9686,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>159</v>
       </c>
       <c r="K100">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9728,13 +9728,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9743,7 +9743,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9752,10 +9752,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9763,7 +9763,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9775,40 +9775,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>159</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9817,13 +9817,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9832,7 +9832,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9841,10 +9841,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9867,7 +9867,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10386,7 +10386,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10398,55 +10398,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
         <v>159</v>
       </c>
       <c r="K108">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L108">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10455,19 +10455,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10475,7 +10475,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10487,55 +10487,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>159</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N109">
         <v>3.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P109">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
         <v>0.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10544,19 +10544,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10564,7 +10564,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10576,13 +10576,13 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10591,40 +10591,40 @@
         <v>159</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10633,19 +10633,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10843,10 +10843,10 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -11199,7 +11199,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
         <v>55</v>
@@ -11288,7 +11288,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11555,7 +11555,7 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s">
         <v>137</v>
@@ -11721,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7995829</v>
+        <v>7995804</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11733,46 +11733,46 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N123">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>3.5</v>
@@ -11784,19 +11784,19 @@
         <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11899,7 +11899,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7995804</v>
+        <v>7995829</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11911,46 +11911,46 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G125" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K125">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>3.5</v>
@@ -11962,19 +11962,19 @@
         <v>1.95</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
@@ -12089,7 +12089,7 @@
         <v>45374.625</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
         <v>56</v>
@@ -12270,7 +12270,7 @@
         <v>81</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H129">
         <v>1</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -130,12 +130,12 @@
     <t>Dalin Myslenice</t>
   </si>
   <si>
+    <t>Czarni Pruszcz Gdanski</t>
+  </si>
+  <si>
     <t>Arka Gdynia II</t>
   </si>
   <si>
-    <t>Czarni Pruszcz Gdanski</t>
-  </si>
-  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Zabkovia Zabki</t>
+  </si>
+  <si>
     <t>Szczakowianka Jaworzno</t>
   </si>
   <si>
-    <t>Zabkovia Zabki</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -178,18 +178,18 @@
     <t>Unia Turza Slaska</t>
   </si>
   <si>
+    <t>Barciczanka Barcice</t>
+  </si>
+  <si>
     <t>Beskid Andrychow</t>
   </si>
   <si>
-    <t>Barciczanka Barcice</t>
+    <t>Pomorzanin Torun</t>
   </si>
   <si>
     <t>Marcovia Marki</t>
   </si>
   <si>
-    <t>Pomorzanin Torun</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -211,18 +211,18 @@
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
-    <t>Korona Piaski</t>
-  </si>
-  <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -454,10 +454,10 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
-  </si>
-  <si>
-    <t>MKS Myszkow</t>
   </si>
   <si>
     <t>Orzel Miedary</t>
@@ -1501,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6757267</v>
+        <v>6761111</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1768,73 +1768,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>3.333</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>3.75</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>0.909</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>0.475</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>0.95</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
-      </c>
-      <c r="AC11">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1842,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6761111</v>
+        <v>6757267</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1857,73 +1857,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.5</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.475</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2213,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2569,7 +2569,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2658,73 +2658,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.85</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2747,73 +2747,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3103,7 +3103,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3189,7 +3189,7 @@
         <v>45101.5</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>120</v>
@@ -3266,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3281,73 +3281,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>-2.75</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
         <v>4.5</v>
       </c>
-      <c r="P28">
-        <v>2.3</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>3.75</v>
-      </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3355,7 +3355,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3370,73 +3370,73 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29">
+        <v>1.833</v>
+      </c>
+      <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29">
-        <v>1.1</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>13</v>
-      </c>
       <c r="N29">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3444,7 +3444,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3459,52 +3459,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>159</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3513,16 +3513,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3533,7 +3533,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3548,52 +3548,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>159</v>
       </c>
       <c r="K31">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q31">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3602,16 +3602,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -4435,7 +4435,7 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -4524,7 +4524,7 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
         <v>90</v>
@@ -4601,7 +4601,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068596</v>
+        <v>7068599</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4613,46 +4613,46 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>157</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>3.25</v>
@@ -4664,7 +4664,7 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4673,16 +4673,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4690,7 +4690,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068599</v>
+        <v>7068602</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4702,76 +4702,76 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4779,7 +4779,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4794,7 +4794,7 @@
         <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4806,58 +4806,58 @@
         <v>158</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
+        <v>2.025</v>
+      </c>
+      <c r="V45">
         <v>1.775</v>
       </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068603</v>
+        <v>7068595</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4883,37 +4883,37 @@
         <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -4922,34 +4922,34 @@
         <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4957,7 +4957,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4972,46 +4972,46 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -5020,25 +5020,25 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5417,7 +5417,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6114,7 +6114,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6126,28 +6126,28 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
         <v>2.2</v>
@@ -6156,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6168,34 +6168,34 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6203,7 +6203,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6215,28 +6215,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6245,7 +6245,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6257,34 +6257,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6752,7 +6752,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
         <v>74</v>
@@ -7283,7 +7283,7 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
         <v>44</v>
@@ -7995,7 +7995,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G81" t="s">
         <v>139</v>
@@ -9229,7 +9229,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9241,76 +9241,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9318,7 +9318,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9330,76 +9330,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9419,7 +9419,7 @@
         <v>45214.25</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>130</v>
@@ -9496,7 +9496,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9508,34 +9508,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
         <v>146</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K98">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9550,34 +9550,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9585,7 +9585,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9597,34 +9597,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
         <v>147</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9639,34 +9639,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9674,7 +9674,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9686,40 +9686,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>159</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9728,13 +9728,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9743,7 +9743,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9752,10 +9752,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9763,7 +9763,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9775,40 +9775,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>159</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9817,13 +9817,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9832,7 +9832,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9841,10 +9841,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9867,7 +9867,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -10475,7 +10475,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10487,55 +10487,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>159</v>
       </c>
       <c r="K109">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
         <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
         <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10544,19 +10544,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
+        <v>0.75</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
         <v>0.8</v>
       </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
-      <c r="AA109">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10564,7 +10564,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7432916</v>
+        <v>7433002</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10576,55 +10576,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G110" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>159</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
         <v>3.3</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
         <v>0.5</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10633,19 +10633,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10843,7 +10843,7 @@
         <v>45242.55069444444</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
         <v>108</v>
@@ -11202,7 +11202,7 @@
         <v>77</v>
       </c>
       <c r="G117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11466,7 +11466,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -12089,10 +12089,10 @@
         <v>45374.625</v>
       </c>
       <c r="F127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12270,7 +12270,7 @@
         <v>81</v>
       </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H129">
         <v>1</v>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -11721,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7995804</v>
+        <v>7995827</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11733,10 +11733,10 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11748,41 +11748,41 @@
         <v>159</v>
       </c>
       <c r="K123">
+        <v>1.909</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
         <v>2.9</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>2.1</v>
-      </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.9</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.9</v>
       </c>
-      <c r="T123">
-        <v>3.5</v>
-      </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
@@ -11790,19 +11790,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
+        <v>0.925</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
-      <c r="AC123">
-        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11810,7 +11810,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995827</v>
+        <v>7995804</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11822,10 +11822,10 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11837,40 +11837,40 @@
         <v>159</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N124">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11879,19 +11879,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -11721,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7995827</v>
+        <v>7995804</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11733,10 +11733,10 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11748,40 +11748,40 @@
         <v>159</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11790,19 +11790,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11810,7 +11810,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995804</v>
+        <v>7995827</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11822,10 +11822,10 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11837,41 +11837,41 @@
         <v>159</v>
       </c>
       <c r="K124">
+        <v>1.909</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
         <v>2.9</v>
       </c>
-      <c r="L124">
-        <v>3.4</v>
-      </c>
-      <c r="M124">
-        <v>2.1</v>
-      </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
         <v>1.9</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.9</v>
       </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
@@ -11879,19 +11879,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
+        <v>0.925</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
-      <c r="AC124">
-        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -103,24 +103,24 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>Chemik Bydgoszcz</t>
+  </si>
+  <si>
     <t>AS Kolbudy</t>
   </si>
   <si>
-    <t>Chemik Bydgoszcz</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>Hutnik Warsaw</t>
+  </si>
+  <si>
     <t>WDA Swiecie</t>
   </si>
   <si>
-    <t>Hutnik Warsaw</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -136,21 +136,21 @@
     <t>Arka Gdynia II</t>
   </si>
   <si>
+    <t>Chelminianka Chelmno</t>
+  </si>
+  <si>
     <t>Mieszko Gniezno</t>
   </si>
   <si>
-    <t>Chelminianka Chelmno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Grom Nowy Staw</t>
+  </si>
+  <si>
     <t>Polonia 1908 Marcinki Kepno</t>
   </si>
   <si>
-    <t>Grom Nowy Staw</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>Unia Turza Slaska</t>
   </si>
   <si>
+    <t>Beskid Andrychow</t>
+  </si>
+  <si>
     <t>Barciczanka Barcice</t>
   </si>
   <si>
-    <t>Beskid Andrychow</t>
-  </si>
-  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Korona Piaski</t>
   </si>
   <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -340,12 +340,15 @@
     <t>Stomil Olsztyn II</t>
   </si>
   <si>
+    <t>KSS Kotwica Kornik</t>
+  </si>
+  <si>
+    <t>Cuiavia Inowroclaw</t>
+  </si>
+  <si>
     <t>LKS Pogon Lebork</t>
   </si>
   <si>
-    <t>Cuiavia Inowroclaw</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -454,12 +457,12 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>Unia Wabrzezno</t>
+  </si>
+  <si>
     <t>MKS Myszkow</t>
   </si>
   <si>
-    <t>Unia Wabrzezno</t>
-  </si>
-  <si>
     <t>Orzel Miedary</t>
   </si>
   <si>
@@ -485,6 +488,15 @@
   </si>
   <si>
     <t>AKS 1947 BuskoZdroj</t>
+  </si>
+  <si>
+    <t>Omega Kleszczow</t>
+  </si>
+  <si>
+    <t>Neptun Konskie</t>
+  </si>
+  <si>
+    <t>LKS Goluchow</t>
   </si>
   <si>
     <t>H</t>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC132"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -967,55 +979,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L2">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1024,16 +1036,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1041,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1056,55 +1068,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1113,16 +1125,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1145,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1154,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1243,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1308,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1323,73 +1335,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>4.333</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
         <v>1.8</v>
       </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>1.727</v>
-      </c>
-      <c r="Q6">
-        <v>0.75</v>
-      </c>
-      <c r="R6">
-        <v>1.825</v>
-      </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1397,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1412,73 +1424,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1501,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1510,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1590,7 +1602,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1599,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1688,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1777,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1866,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1931,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1949,70 +1961,70 @@
         <v>113</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>1.062</v>
+      </c>
+      <c r="N13">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>1.062</v>
+      </c>
+      <c r="Q13">
+        <v>3.25</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
+        <v>4.25</v>
+      </c>
+      <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z13">
+        <v>0.45</v>
+      </c>
+      <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13">
-        <v>1.444</v>
-      </c>
-      <c r="L13">
-        <v>4.5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.85</v>
-      </c>
-      <c r="S13">
-        <v>1.95</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>0.444</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.475</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2020,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2035,73 +2047,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>1.95</v>
+      </c>
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="T14">
-        <v>4.25</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2124,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2133,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2198,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2213,55 +2225,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P16">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2270,16 +2282,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2287,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2302,55 +2314,55 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2359,16 +2371,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2391,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2400,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2480,7 +2492,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2489,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2578,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2658,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2667,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K21">
         <v>2.75</v>
@@ -2756,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K22">
         <v>2.15</v>
@@ -2836,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2845,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2925,7 +2937,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2934,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -3014,7 +3026,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3023,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3112,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3192,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3201,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3266,7 +3278,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6816242</v>
+        <v>6816241</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3281,73 +3293,73 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28">
+        <v>1.833</v>
+      </c>
+      <c r="L28">
+        <v>4.333</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28">
-        <v>1.1</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>13</v>
-      </c>
       <c r="N28">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q28">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3355,7 +3367,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6816241</v>
+        <v>6816242</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3370,73 +3382,73 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.1</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N29">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>-2.75</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
         <v>4.5</v>
       </c>
-      <c r="P29">
-        <v>2.3</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>1.85</v>
-      </c>
-      <c r="S29">
-        <v>1.95</v>
-      </c>
-      <c r="T29">
-        <v>3.75</v>
-      </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X29">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3459,7 +3471,7 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3468,7 +3480,7 @@
         <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K30">
         <v>3.9</v>
@@ -3548,7 +3560,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3557,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K31">
         <v>2.5</v>
@@ -3634,10 +3646,10 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3646,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3735,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3815,7 +3827,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3824,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3913,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -3993,7 +4005,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4002,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4082,7 +4094,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4091,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4180,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4260,7 +4272,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4269,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4358,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4423,7 +4435,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7068601</v>
+        <v>7068598</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4435,76 +4447,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O41">
         <v>4</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>3.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4512,7 +4524,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7068598</v>
+        <v>7068601</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4524,76 +4536,76 @@
         <v>45153.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N42">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4601,7 +4613,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068599</v>
+        <v>7068602</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4613,76 +4625,76 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4690,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4702,10 +4714,10 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4714,61 +4726,61 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
+        <v>2.025</v>
+      </c>
+      <c r="V44">
         <v>1.775</v>
       </c>
-      <c r="V44">
-        <v>2.025</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4779,7 +4791,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068603</v>
+        <v>7068599</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4791,76 +4803,76 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K45">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
+        <v>4.5</v>
+      </c>
+      <c r="M45">
         <v>4.333</v>
       </c>
-      <c r="M45">
-        <v>1.615</v>
-      </c>
       <c r="N45">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
+        <v>4.5</v>
+      </c>
+      <c r="P45">
         <v>4.333</v>
       </c>
-      <c r="P45">
-        <v>1.615</v>
-      </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>3.25</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4868,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4883,46 +4895,46 @@
         <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.85</v>
@@ -4931,25 +4943,25 @@
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4957,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068596</v>
+        <v>7068595</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4972,46 +4984,46 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -5020,25 +5032,25 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5061,7 +5073,7 @@
         <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5070,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5159,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5248,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5328,7 +5340,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5337,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5426,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5506,7 +5518,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5515,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5595,7 +5607,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5604,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5684,7 +5696,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5693,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5782,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5862,7 +5874,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5871,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5960,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6025,7 +6037,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118489</v>
+        <v>7118488</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6037,76 +6049,76 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>2.75</v>
+      </c>
+      <c r="N59">
+        <v>2.2</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>2.45</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1.775</v>
+      </c>
+      <c r="S59">
+        <v>2.025</v>
+      </c>
+      <c r="T59">
+        <v>3.75</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1.8</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-0</v>
+      </c>
+      <c r="AB59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>158</v>
-      </c>
-      <c r="K59">
-        <v>4.5</v>
-      </c>
-      <c r="L59">
-        <v>4.5</v>
-      </c>
-      <c r="M59">
-        <v>1.5</v>
-      </c>
-      <c r="N59">
-        <v>4.5</v>
-      </c>
-      <c r="O59">
-        <v>4.5</v>
-      </c>
-      <c r="P59">
-        <v>1.5</v>
-      </c>
-      <c r="Q59">
-        <v>1.25</v>
-      </c>
-      <c r="R59">
-        <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
-      <c r="U59">
-        <v>1.825</v>
-      </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>3.5</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>0.8</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6126,7 +6138,7 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
         <v>84</v>
@@ -6138,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K60">
         <v>2.45</v>
@@ -6203,7 +6215,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6215,76 +6227,76 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6307,7 +6319,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6316,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6396,7 +6408,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6405,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6485,7 +6497,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6494,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6559,7 +6571,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6574,7 +6586,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6583,43 +6595,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6628,16 +6640,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6648,7 +6660,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6663,7 +6675,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6672,43 +6684,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6717,16 +6729,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6752,7 +6764,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6761,7 +6773,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6850,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6939,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7019,7 +7031,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7028,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7108,7 +7120,7 @@
         <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7117,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7182,7 +7194,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183407</v>
+        <v>7183410</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7194,46 +7206,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
+        <v>2.6</v>
+      </c>
+      <c r="L72">
+        <v>3.6</v>
+      </c>
+      <c r="M72">
+        <v>2.2</v>
+      </c>
+      <c r="N72">
+        <v>2.6</v>
+      </c>
+      <c r="O72">
+        <v>3.6</v>
+      </c>
+      <c r="P72">
+        <v>2.2</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72" t="s">
-        <v>159</v>
-      </c>
-      <c r="K72">
-        <v>2.25</v>
-      </c>
-      <c r="L72">
-        <v>3.75</v>
-      </c>
-      <c r="M72">
-        <v>2.5</v>
-      </c>
-      <c r="N72">
-        <v>4.5</v>
-      </c>
-      <c r="O72">
-        <v>4.2</v>
-      </c>
-      <c r="P72">
-        <v>1.533</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7251,13 +7263,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7271,7 +7283,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183410</v>
+        <v>7183411</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7283,46 +7295,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7340,19 +7352,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7360,7 +7372,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183411</v>
+        <v>7183407</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7372,46 +7384,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K74">
+        <v>2.25</v>
+      </c>
+      <c r="L74">
+        <v>3.75</v>
+      </c>
+      <c r="M74">
+        <v>2.5</v>
+      </c>
+      <c r="N74">
+        <v>4.5</v>
+      </c>
+      <c r="O74">
+        <v>4.2</v>
+      </c>
+      <c r="P74">
+        <v>1.533</v>
+      </c>
+      <c r="Q74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>159</v>
-      </c>
-      <c r="K74">
-        <v>1.909</v>
-      </c>
-      <c r="L74">
-        <v>4</v>
-      </c>
-      <c r="M74">
-        <v>2.9</v>
-      </c>
-      <c r="N74">
-        <v>1.909</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
-      <c r="P74">
-        <v>2.9</v>
-      </c>
-      <c r="Q74">
-        <v>-0.5</v>
-      </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7429,19 +7441,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.9</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7464,7 +7476,7 @@
         <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7473,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K75">
         <v>5.5</v>
@@ -7562,7 +7574,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7639,10 +7651,10 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7651,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7740,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7805,7 +7817,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7817,76 +7829,76 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
+        <v>4.75</v>
+      </c>
+      <c r="M79">
+        <v>6</v>
+      </c>
+      <c r="N79">
+        <v>1.363</v>
+      </c>
+      <c r="O79">
+        <v>4.75</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
+        <v>1.9</v>
+      </c>
+      <c r="S79">
+        <v>1.9</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.55</v>
-      </c>
-      <c r="N79">
-        <v>3.2</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>1.85</v>
-      </c>
-      <c r="Q79">
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>1.8</v>
+      </c>
+      <c r="W79">
+        <v>0.363</v>
+      </c>
+      <c r="X79">
+        <v>-1</v>
+      </c>
+      <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.5</v>
       </c>
-      <c r="R79">
-        <v>1.85</v>
-      </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3.5</v>
-      </c>
-      <c r="U79">
-        <v>1.875</v>
-      </c>
-      <c r="V79">
-        <v>1.925</v>
-      </c>
-      <c r="W79">
-        <v>2.2</v>
-      </c>
-      <c r="X79">
-        <v>-1</v>
-      </c>
-      <c r="Y79">
-        <v>-1</v>
-      </c>
-      <c r="Z79">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7894,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7906,58 +7918,58 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7966,16 +7978,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7998,7 +8010,7 @@
         <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -8007,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8087,7 +8099,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8096,7 +8108,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8176,7 +8188,7 @@
         <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8185,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8274,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8354,7 +8366,7 @@
         <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8363,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8443,7 +8455,7 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8452,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K86">
         <v>1.3</v>
@@ -8541,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8618,10 +8630,10 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8630,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K88">
         <v>1.166</v>
@@ -8719,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8799,7 +8811,7 @@
         <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8808,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8888,7 +8900,7 @@
         <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8897,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8977,7 +8989,7 @@
         <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8986,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9066,7 +9078,7 @@
         <v>93</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9075,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9155,7 +9167,7 @@
         <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9164,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9244,7 +9256,7 @@
         <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9253,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K95">
         <v>1.533</v>
@@ -9333,7 +9345,7 @@
         <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9342,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K96">
         <v>1.333</v>
@@ -9422,7 +9434,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9431,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9496,7 +9508,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7367333</v>
+        <v>7367332</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9508,34 +9520,34 @@
         <v>45220.25</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P98">
         <v>2.1</v>
@@ -9550,34 +9562,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9585,7 +9597,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7367332</v>
+        <v>7367333</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9597,34 +9609,34 @@
         <v>45220.25</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K99">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
         <v>2.1</v>
@@ -9639,34 +9651,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9689,7 +9701,7 @@
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9698,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K100">
         <v>2.15</v>
@@ -9778,7 +9790,7 @@
         <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9787,7 +9799,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9876,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9965,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10045,7 +10057,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10054,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10134,7 +10146,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10143,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10232,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10321,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10386,7 +10398,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10398,55 +10410,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G108" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K108">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10455,19 +10467,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10475,7 +10487,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10487,76 +10499,76 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K109">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>1.9</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
         <v>1.8</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>0.75</v>
-      </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10564,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433002</v>
+        <v>7432916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10576,55 +10588,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L110">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
         <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
         <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10633,19 +10645,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
+        <v>0.75</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>0.8</v>
       </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10668,7 +10680,7 @@
         <v>94</v>
       </c>
       <c r="G111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -10677,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10766,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10846,7 +10858,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10855,7 +10867,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10935,7 +10947,7 @@
         <v>102</v>
       </c>
       <c r="G114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10944,7 +10956,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11024,7 +11036,7 @@
         <v>103</v>
       </c>
       <c r="G115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11033,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11122,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11199,10 +11211,10 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -11211,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11300,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11380,7 +11392,7 @@
         <v>105</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11389,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11478,7 +11490,7 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K120">
         <v>9</v>
@@ -11555,10 +11567,10 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11567,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K121">
         <v>1.2</v>
@@ -11647,7 +11659,7 @@
         <v>94</v>
       </c>
       <c r="G122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11656,7 +11668,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K122">
         <v>2.25</v>
@@ -11736,7 +11748,7 @@
         <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11745,7 +11757,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K123">
         <v>2.9</v>
@@ -11810,7 +11822,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995827</v>
+        <v>7995829</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11822,76 +11834,76 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11899,7 +11911,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7995829</v>
+        <v>7995827</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11911,76 +11923,76 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G125" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K125">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N125">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12003,7 +12015,7 @@
         <v>106</v>
       </c>
       <c r="G126" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12012,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K126">
         <v>1.571</v>
@@ -12101,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K127">
         <v>1.3</v>
@@ -12181,7 +12193,7 @@
         <v>107</v>
       </c>
       <c r="G128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12190,7 +12202,7 @@
         <v>5</v>
       </c>
       <c r="J128" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K128">
         <v>4.75</v>
@@ -12267,7 +12279,7 @@
         <v>45380.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G129" t="s">
         <v>48</v>
@@ -12279,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12368,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K130">
         <v>1.166</v>
@@ -12457,7 +12469,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K131">
         <v>5.2</v>
@@ -12537,7 +12549,7 @@
         <v>88</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12546,7 +12558,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K132">
         <v>2.75</v>
@@ -12604,6 +12616,480 @@
       </c>
       <c r="AC132">
         <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>8056215</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45387.5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+      <c r="K133">
+        <v>1.533</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>1.533</v>
+      </c>
+      <c r="O133">
+        <v>4</v>
+      </c>
+      <c r="P133">
+        <v>5</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>3.5</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>1.95</v>
+      </c>
+      <c r="W133">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.8</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>8052282</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45387.625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>107</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+      <c r="K134">
+        <v>10</v>
+      </c>
+      <c r="L134">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>1.181</v>
+      </c>
+      <c r="N134">
+        <v>10</v>
+      </c>
+      <c r="O134">
+        <v>6.5</v>
+      </c>
+      <c r="P134">
+        <v>1.181</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.85</v>
+      </c>
+      <c r="S134">
+        <v>1.95</v>
+      </c>
+      <c r="T134">
+        <v>3.75</v>
+      </c>
+      <c r="U134">
+        <v>1.925</v>
+      </c>
+      <c r="V134">
+        <v>1.875</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>0.181</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.95</v>
+      </c>
+      <c r="AB134">
+        <v>0.925</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8056033</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45388.25</v>
+      </c>
+      <c r="F135" t="s">
+        <v>105</v>
+      </c>
+      <c r="G135" t="s">
+        <v>159</v>
+      </c>
+      <c r="K135">
+        <v>2.4</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>2.4</v>
+      </c>
+      <c r="N135">
+        <v>2.1</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>2.875</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>8056680</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45388.25</v>
+      </c>
+      <c r="F136" t="s">
+        <v>86</v>
+      </c>
+      <c r="G136" t="s">
+        <v>156</v>
+      </c>
+      <c r="K136">
+        <v>1.5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>1.5</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>8056039</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45388.29166666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>108</v>
+      </c>
+      <c r="G137" t="s">
+        <v>160</v>
+      </c>
+      <c r="K137">
+        <v>1.5</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.5</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>5</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>8056681</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45388.29166666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s">
+        <v>147</v>
+      </c>
+      <c r="K138">
+        <v>1.25</v>
+      </c>
+      <c r="L138">
+        <v>5.5</v>
+      </c>
+      <c r="M138">
+        <v>7.5</v>
+      </c>
+      <c r="N138">
+        <v>1.25</v>
+      </c>
+      <c r="O138">
+        <v>5.5</v>
+      </c>
+      <c r="P138">
+        <v>7.5</v>
+      </c>
+      <c r="Q138">
+        <v>-1.75</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.85</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>1.975</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,12 @@
     <t>Termalica BB Nieciecza II</t>
   </si>
   <si>
+    <t>WDA Swiecie</t>
+  </si>
+  <si>
     <t>Hutnik Warsaw</t>
   </si>
   <si>
-    <t>WDA Swiecie</t>
-  </si>
-  <si>
     <t>Okocimski Brzesko</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Barciczanka Barcice</t>
   </si>
   <si>
+    <t>Marcovia Marki</t>
+  </si>
+  <si>
     <t>Pomorzanin Torun</t>
   </si>
   <si>
-    <t>Marcovia Marki</t>
-  </si>
-  <si>
     <t>Powisle Dzierzgon</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Hetman Wloszczowa</t>
+  </si>
+  <si>
     <t>Wisla Krakow II</t>
   </si>
   <si>
-    <t>Hetman Wloszczowa</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Ursus Warsawa</t>
+  </si>
+  <si>
     <t>Spartakus Daleszyce</t>
   </si>
   <si>
-    <t>Ursus Warsawa</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -340,9 +340,6 @@
     <t>Stomil Olsztyn II</t>
   </si>
   <si>
-    <t>KSS Kotwica Kornik</t>
-  </si>
-  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
@@ -491,12 +488,6 @@
   </si>
   <si>
     <t>Omega Kleszczow</t>
-  </si>
-  <si>
-    <t>Neptun Konskie</t>
-  </si>
-  <si>
-    <t>LKS Goluchow</t>
   </si>
   <si>
     <t>H</t>
@@ -867,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -988,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K2">
         <v>1.571</v>
@@ -1068,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1077,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -1157,7 +1148,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1166,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1255,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1320,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6750018</v>
+        <v>6746871</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1335,73 +1326,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1409,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6746871</v>
+        <v>6750018</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1424,73 +1415,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>4.333</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
         <v>1.8</v>
       </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>1.727</v>
-      </c>
-      <c r="Q7">
-        <v>0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1522,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1602,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1611,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1700,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1789,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1878,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1958,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1967,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K13">
         <v>17</v>
@@ -2047,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2056,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K14">
         <v>1.444</v>
@@ -2136,7 +2127,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2145,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2225,7 +2216,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -2234,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K16">
         <v>1.05</v>
@@ -2323,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2403,7 +2394,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2412,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2501,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2590,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2670,7 +2661,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2679,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K21">
         <v>2.75</v>
@@ -2768,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K22">
         <v>2.15</v>
@@ -2848,7 +2839,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2857,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2937,7 +2928,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2946,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -3026,7 +3017,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3035,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3124,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3204,7 +3195,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3213,7 +3204,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3302,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3391,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3456,7 +3447,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7018460</v>
+        <v>7021864</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3471,52 +3462,52 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K30">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3525,16 +3516,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3545,7 +3536,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7021864</v>
+        <v>7018460</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3560,52 +3551,52 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3614,16 +3605,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3646,10 +3637,10 @@
         <v>45143.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3658,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3747,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3836,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3925,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -4014,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4094,7 +4085,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4103,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4192,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4272,7 +4263,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4281,7 +4272,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4370,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4459,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4539,7 +4530,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4548,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4613,7 +4604,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068602</v>
+        <v>7068599</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4625,76 +4616,76 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
+        <v>1.8</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>3.25</v>
+      </c>
+      <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="S43">
-        <v>1.85</v>
-      </c>
-      <c r="T43">
-        <v>3</v>
-      </c>
-      <c r="U43">
-        <v>1.775</v>
-      </c>
-      <c r="V43">
-        <v>2.025</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4702,7 +4693,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4714,10 +4705,10 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4726,61 +4717,61 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
+        <v>1.775</v>
+      </c>
+      <c r="V44">
         <v>2.025</v>
       </c>
-      <c r="V44">
-        <v>1.775</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4791,7 +4782,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068599</v>
+        <v>7068603</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4803,76 +4794,76 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
+        <v>1.615</v>
+      </c>
+      <c r="N45">
+        <v>3.75</v>
+      </c>
+      <c r="O45">
         <v>4.333</v>
       </c>
-      <c r="N45">
-        <v>1.5</v>
-      </c>
-      <c r="O45">
-        <v>4.5</v>
-      </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <v>1.8</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
       </c>
       <c r="T45">
         <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4904,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4984,7 +4975,7 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4993,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K47">
         <v>1.95</v>
@@ -5082,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5171,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5260,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5340,7 +5331,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5349,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5438,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5518,7 +5509,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5527,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5607,7 +5598,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5616,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5696,7 +5687,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5705,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5794,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5874,7 +5865,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5883,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5963,7 +5954,7 @@
         <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5972,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6037,7 +6028,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7118488</v>
+        <v>7118489</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6049,76 +6040,76 @@
         <v>45164.25</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6126,7 +6117,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6138,28 +6129,28 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K60">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
         <v>2.2</v>
@@ -6168,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6180,34 +6171,34 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6215,7 +6206,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118489</v>
+        <v>7118490</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6230,64 +6221,64 @@
         <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K61">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N61">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T61">
         <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6296,7 +6287,7 @@
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6319,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6328,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6408,7 +6399,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6417,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6497,7 +6488,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6506,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6571,7 +6562,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6586,7 +6577,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6595,43 +6586,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K65">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6640,16 +6631,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6660,7 +6651,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6675,7 +6666,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6684,43 +6675,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6729,16 +6720,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6773,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6862,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6951,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7031,7 +7022,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7040,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7120,7 +7111,7 @@
         <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7129,7 +7120,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7218,7 +7209,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K72">
         <v>2.6</v>
@@ -7307,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7396,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>2.25</v>
@@ -7476,7 +7467,7 @@
         <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7485,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K75">
         <v>5.5</v>
@@ -7574,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7651,10 +7642,10 @@
         <v>45179.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7663,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7752,7 +7743,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7841,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K79">
         <v>1.363</v>
@@ -7930,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K80">
         <v>2.2</v>
@@ -8007,10 +7998,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -8019,7 +8010,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8099,7 +8090,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8108,7 +8099,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8188,7 +8179,7 @@
         <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8197,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8286,7 +8277,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8375,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8455,7 +8446,7 @@
         <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8464,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K86">
         <v>1.3</v>
@@ -8553,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8633,7 +8624,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8642,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K88">
         <v>1.166</v>
@@ -8731,7 +8722,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8811,7 +8802,7 @@
         <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8820,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8900,7 +8891,7 @@
         <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8909,7 +8900,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8989,7 +8980,7 @@
         <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8998,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9078,7 +9069,7 @@
         <v>93</v>
       </c>
       <c r="G93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9087,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9167,7 +9158,7 @@
         <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9176,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9241,7 +9232,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7338729</v>
+        <v>7338730</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -9253,76 +9244,76 @@
         <v>45213.25</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K95">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9330,7 +9321,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7338730</v>
+        <v>7338729</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9342,76 +9333,76 @@
         <v>45213.25</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K96">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9434,7 +9425,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9443,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9523,7 +9514,7 @@
         <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9532,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K98">
         <v>2.6</v>
@@ -9612,7 +9603,7 @@
         <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9621,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9701,7 +9692,7 @@
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9710,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K100">
         <v>2.15</v>
@@ -9790,7 +9781,7 @@
         <v>95</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9799,7 +9790,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9888,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9977,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10057,7 +10048,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10066,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10146,7 +10137,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10155,7 +10146,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10244,7 +10235,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10333,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10422,7 +10413,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K108">
         <v>3.3</v>
@@ -10487,7 +10478,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7433001</v>
+        <v>7432916</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10499,55 +10490,55 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K109">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L109">
         <v>4</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10556,19 +10547,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10576,7 +10567,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7432916</v>
+        <v>7433001</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10588,76 +10579,76 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K110">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L110">
         <v>4</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
+        <v>1.975</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
+        <v>1.9</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.8</v>
-      </c>
-      <c r="V110">
-        <v>2</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>0.75</v>
-      </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10680,7 +10671,7 @@
         <v>94</v>
       </c>
       <c r="G111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -10689,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10778,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10858,7 +10849,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10867,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10947,7 +10938,7 @@
         <v>102</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10956,7 +10947,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11036,7 +11027,7 @@
         <v>103</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11045,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11134,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11211,7 +11202,7 @@
         <v>45249.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
         <v>55</v>
@@ -11223,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11312,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11392,7 +11383,7 @@
         <v>105</v>
       </c>
       <c r="G119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11401,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11478,7 +11469,7 @@
         <v>45367.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G120" t="s">
         <v>80</v>
@@ -11490,7 +11481,7 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K120">
         <v>9</v>
@@ -11567,10 +11558,10 @@
         <v>45368.29166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11579,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K121">
         <v>1.2</v>
@@ -11659,7 +11650,7 @@
         <v>94</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11668,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K122">
         <v>2.25</v>
@@ -11748,7 +11739,7 @@
         <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11757,7 +11748,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K123">
         <v>2.9</v>
@@ -11837,7 +11828,7 @@
         <v>83</v>
       </c>
       <c r="G124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11846,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K124">
         <v>1.363</v>
@@ -11935,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K125">
         <v>1.909</v>
@@ -12015,7 +12006,7 @@
         <v>106</v>
       </c>
       <c r="G126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12024,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K126">
         <v>1.571</v>
@@ -12104,7 +12095,7 @@
         <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -12113,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K127">
         <v>1.3</v>
@@ -12193,7 +12184,7 @@
         <v>107</v>
       </c>
       <c r="G128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12202,7 +12193,7 @@
         <v>5</v>
       </c>
       <c r="J128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K128">
         <v>4.75</v>
@@ -12279,7 +12270,7 @@
         <v>45380.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s">
         <v>48</v>
@@ -12291,7 +12282,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12380,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K130">
         <v>1.166</v>
@@ -12469,7 +12460,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K131">
         <v>5.2</v>
@@ -12549,7 +12540,7 @@
         <v>88</v>
       </c>
       <c r="G132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12558,7 +12549,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K132">
         <v>2.75</v>
@@ -12638,7 +12629,7 @@
         <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12647,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K133">
         <v>1.533</v>
@@ -12736,7 +12727,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K134">
         <v>10</v>
@@ -12794,302 +12785,6 @@
       </c>
       <c r="AC134">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>8056033</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45388.25</v>
-      </c>
-      <c r="F135" t="s">
-        <v>105</v>
-      </c>
-      <c r="G135" t="s">
-        <v>159</v>
-      </c>
-      <c r="K135">
-        <v>2.4</v>
-      </c>
-      <c r="L135">
-        <v>3.6</v>
-      </c>
-      <c r="M135">
-        <v>2.4</v>
-      </c>
-      <c r="N135">
-        <v>2.1</v>
-      </c>
-      <c r="O135">
-        <v>3.6</v>
-      </c>
-      <c r="P135">
-        <v>2.875</v>
-      </c>
-      <c r="Q135">
-        <v>-0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.9</v>
-      </c>
-      <c r="S135">
-        <v>1.9</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>8056680</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45388.25</v>
-      </c>
-      <c r="F136" t="s">
-        <v>86</v>
-      </c>
-      <c r="G136" t="s">
-        <v>156</v>
-      </c>
-      <c r="K136">
-        <v>1.5</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
-        <v>5</v>
-      </c>
-      <c r="N136">
-        <v>1.5</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>5</v>
-      </c>
-      <c r="Q136">
-        <v>-1</v>
-      </c>
-      <c r="R136">
-        <v>1.8</v>
-      </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.925</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>8056039</v>
-      </c>
-      <c r="C137" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45388.29166666666</v>
-      </c>
-      <c r="F137" t="s">
-        <v>108</v>
-      </c>
-      <c r="G137" t="s">
-        <v>160</v>
-      </c>
-      <c r="K137">
-        <v>1.5</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
-        <v>5</v>
-      </c>
-      <c r="N137">
-        <v>1.5</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>5</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
-      <c r="V137">
-        <v>1.8</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>8056681</v>
-      </c>
-      <c r="C138" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45388.29166666666</v>
-      </c>
-      <c r="F138" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" t="s">
-        <v>147</v>
-      </c>
-      <c r="K138">
-        <v>1.25</v>
-      </c>
-      <c r="L138">
-        <v>5.5</v>
-      </c>
-      <c r="M138">
-        <v>7.5</v>
-      </c>
-      <c r="N138">
-        <v>1.25</v>
-      </c>
-      <c r="O138">
-        <v>5.5</v>
-      </c>
-      <c r="P138">
-        <v>7.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.75</v>
-      </c>
-      <c r="R138">
-        <v>1.95</v>
-      </c>
-      <c r="S138">
-        <v>1.85</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-      <c r="Y138">
-        <v>0</v>
-      </c>
-      <c r="Z138">
-        <v>0</v>
-      </c>
-      <c r="AA138">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,12 @@
     <t>Arka Gdynia II</t>
   </si>
   <si>
+    <t>Mieszko Gniezno</t>
+  </si>
+  <si>
     <t>Chelminianka Chelmno</t>
   </si>
   <si>
-    <t>Mieszko Gniezno</t>
-  </si>
-  <si>
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Sparta Sycewice</t>
   </si>
   <si>
+    <t>Szczakowianka Jaworzno</t>
+  </si>
+  <si>
     <t>Zabkovia Zabki</t>
   </si>
   <si>
-    <t>Szczakowianka Jaworzno</t>
-  </si>
-  <si>
     <t>Chojniczanka Chojnice II</t>
   </si>
   <si>
@@ -199,30 +199,30 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Wierna Malogoszcz</t>
+  </si>
+  <si>
     <t>Jaguar Gdansk</t>
   </si>
   <si>
-    <t>Wierna Malogoszcz</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Korona Piaski</t>
+  </si>
+  <si>
     <t>Tarnovia Tarnowo Podgorne</t>
   </si>
   <si>
-    <t>Korona Piaski</t>
+    <t>Prochowiczanka Prochowice</t>
   </si>
   <si>
     <t>MGKS Moto Jelcz Olawa</t>
   </si>
   <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Pomorzanin Serock</t>
   </si>
   <si>
+    <t>Spartakus Daleszyce</t>
+  </si>
+  <si>
     <t>Ursus Warsawa</t>
   </si>
   <si>
-    <t>Spartakus Daleszyce</t>
-  </si>
-  <si>
     <t>Korona Kielce II</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Supra Kwidzyn</t>
   </si>
   <si>
+    <t>DKS Dobre Miasto</t>
+  </si>
+  <si>
     <t>Granat SkarzyskoKamienna</t>
   </si>
   <si>
-    <t>DKS Dobre Miasto</t>
-  </si>
-  <si>
     <t>Chrobry Glogow II</t>
   </si>
   <si>
@@ -340,6 +340,9 @@
     <t>Stomil Olsztyn II</t>
   </si>
   <si>
+    <t>KSS Kotwica Kornik</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
@@ -388,12 +391,12 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Lipno Steszew</t>
+  </si>
+  <si>
     <t>Victoria Wrzesnia</t>
   </si>
   <si>
-    <t>Lipno Steszew</t>
-  </si>
-  <si>
     <t>Piast Nowa Ruda</t>
   </si>
   <si>
@@ -488,6 +491,12 @@
   </si>
   <si>
     <t>Omega Kleszczow</t>
+  </si>
+  <si>
+    <t>Neptun Konskie</t>
+  </si>
+  <si>
+    <t>LKS Goluchow</t>
   </si>
   <si>
     <t>H</t>
@@ -858,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -979,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K2">
         <v>1.571</v>
@@ -1059,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1068,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -1148,7 +1157,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1157,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K4">
         <v>1.363</v>
@@ -1246,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1335,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K6">
         <v>3.25</v>
@@ -1415,7 +1424,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1424,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K7">
         <v>1.571</v>
@@ -1513,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K8">
         <v>6.5</v>
@@ -1593,7 +1602,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1602,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1691,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1780,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1869,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K12">
         <v>1.909</v>
@@ -1934,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6757266</v>
+        <v>6757269</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1949,73 +1958,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>17</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>1.062</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>4.25</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.06200000000000006</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2023,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6757269</v>
+        <v>6757266</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2041,70 +2050,70 @@
         <v>113</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>1.062</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>1.062</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>4.25</v>
+      </c>
+      <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>0.06200000000000006</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14">
-        <v>1.444</v>
-      </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.85</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>0.444</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.475</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2127,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2136,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2216,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -2225,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K16">
         <v>1.05</v>
@@ -2305,7 +2314,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2314,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2394,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2403,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K18">
         <v>1.1</v>
@@ -2492,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2581,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K20">
         <v>2.4</v>
@@ -2646,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6785423</v>
+        <v>6782105</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2661,73 +2670,73 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2735,7 +2744,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6782105</v>
+        <v>6785423</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2750,73 +2759,73 @@
         <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2839,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2848,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -2928,7 +2937,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2937,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K24">
         <v>1.8</v>
@@ -3017,7 +3026,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -3026,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>2.15</v>
@@ -3106,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3115,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K26">
         <v>2.25</v>
@@ -3195,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3204,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K27">
         <v>1.5</v>
@@ -3293,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K28">
         <v>1.833</v>
@@ -3382,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K29">
         <v>1.1</v>
@@ -3462,7 +3471,7 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3471,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K30">
         <v>2.5</v>
@@ -3560,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K31">
         <v>3.9</v>
@@ -3640,7 +3649,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3649,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K32">
         <v>2.6</v>
@@ -3738,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3827,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3916,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K35">
         <v>26</v>
@@ -4005,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -4070,7 +4079,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4085,16 +4094,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4106,22 +4115,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4133,25 +4142,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4159,7 +4168,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4174,16 +4183,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4195,22 +4204,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4222,25 +4231,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4263,7 +4272,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4272,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4352,7 +4361,7 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4361,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4450,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4530,7 +4539,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4539,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K42">
         <v>1.95</v>
@@ -4628,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4693,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068602</v>
+        <v>7068603</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4708,7 +4717,7 @@
         <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4717,61 +4726,61 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
+        <v>2.025</v>
+      </c>
+      <c r="V44">
         <v>1.775</v>
       </c>
-      <c r="V44">
-        <v>2.025</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4782,7 +4791,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4797,7 +4806,7 @@
         <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4806,61 +4815,61 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>2.025</v>
       </c>
-      <c r="V45">
-        <v>1.775</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4871,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068596</v>
+        <v>7068595</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4886,46 +4895,46 @@
         <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U46">
         <v>1.85</v>
@@ -4934,25 +4943,25 @@
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4960,7 +4969,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4975,46 +4984,46 @@
         <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -5023,25 +5032,25 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5073,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K48">
         <v>2.875</v>
@@ -5162,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K49">
         <v>4.5</v>
@@ -5251,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K50">
         <v>1.909</v>
@@ -5331,7 +5340,7 @@
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5340,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5429,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K52">
         <v>1.571</v>
@@ -5509,7 +5518,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5518,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5598,7 +5607,7 @@
         <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5607,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K54">
         <v>3.2</v>
@@ -5687,7 +5696,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5696,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5785,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5865,7 +5874,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5874,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5963,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K58">
         <v>1.285</v>
@@ -6043,7 +6052,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6052,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K59">
         <v>4.5</v>
@@ -6117,7 +6126,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7118488</v>
+        <v>7118490</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6129,28 +6138,28 @@
         <v>45164.25</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L60">
         <v>4</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
         <v>2.2</v>
@@ -6159,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6171,34 +6180,34 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6206,7 +6215,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7118490</v>
+        <v>7118488</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -6218,28 +6227,28 @@
         <v>45164.25</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K61">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>4</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
         <v>2.2</v>
@@ -6248,7 +6257,7 @@
         <v>4</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6260,34 +6269,34 @@
         <v>2.025</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6310,7 +6319,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6319,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K62">
         <v>1.8</v>
@@ -6399,7 +6408,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6408,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6488,7 +6497,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6497,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K64">
         <v>1.2</v>
@@ -6562,7 +6571,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7140477</v>
+        <v>7140479</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6577,7 +6586,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6586,43 +6595,43 @@
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>4</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
         <v>3.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6631,16 +6640,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6651,7 +6660,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7140479</v>
+        <v>7140477</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6666,7 +6675,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6675,43 +6684,43 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
         <v>4</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
         <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6720,16 +6729,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6764,7 +6773,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K67">
         <v>3.4</v>
@@ -6853,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6933,7 +6942,7 @@
         <v>83</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6942,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -7022,7 +7031,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7031,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -7111,7 +7120,7 @@
         <v>85</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7120,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K71">
         <v>3.5</v>
@@ -7185,7 +7194,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7183410</v>
+        <v>7183407</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7197,46 +7206,46 @@
         <v>45178.25</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
+        <v>2.25</v>
+      </c>
+      <c r="L72">
+        <v>3.75</v>
+      </c>
+      <c r="M72">
+        <v>2.5</v>
+      </c>
+      <c r="N72">
+        <v>4.5</v>
+      </c>
+      <c r="O72">
+        <v>4.2</v>
+      </c>
+      <c r="P72">
+        <v>1.533</v>
+      </c>
+      <c r="Q72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72" t="s">
-        <v>160</v>
-      </c>
-      <c r="K72">
-        <v>2.6</v>
-      </c>
-      <c r="L72">
-        <v>3.6</v>
-      </c>
-      <c r="M72">
-        <v>2.2</v>
-      </c>
-      <c r="N72">
-        <v>2.6</v>
-      </c>
-      <c r="O72">
-        <v>3.6</v>
-      </c>
-      <c r="P72">
-        <v>2.2</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
         <v>3.5</v>
@@ -7254,13 +7263,13 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -7274,7 +7283,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7183411</v>
+        <v>7183410</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7286,46 +7295,46 @@
         <v>45178.25</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>3.5</v>
@@ -7343,19 +7352,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7363,7 +7372,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7183407</v>
+        <v>7183411</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7375,46 +7384,46 @@
         <v>45178.25</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>2.9</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>3.5</v>
@@ -7432,19 +7441,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7467,7 +7476,7 @@
         <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7476,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K75">
         <v>5.5</v>
@@ -7565,7 +7574,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7645,7 +7654,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7654,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K77">
         <v>2.25</v>
@@ -7734,7 +7743,7 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7743,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K78">
         <v>2.1</v>
@@ -7808,7 +7817,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7216475</v>
+        <v>7216474</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7820,58 +7829,58 @@
         <v>45185.25</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N79">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7880,16 +7889,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7897,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7216474</v>
+        <v>7216475</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7909,76 +7918,76 @@
         <v>45185.25</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G80" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K80">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80">
+        <v>1.363</v>
+      </c>
+      <c r="O80">
+        <v>4.75</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
         <v>3.75</v>
       </c>
-      <c r="M80">
-        <v>2.55</v>
-      </c>
-      <c r="N80">
-        <v>3.2</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
-      <c r="P80">
-        <v>1.85</v>
-      </c>
-      <c r="Q80">
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1.8</v>
+      </c>
+      <c r="W80">
+        <v>0.363</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
-      <c r="W80">
-        <v>2.2</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8001,7 +8010,7 @@
         <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -8010,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K81">
         <v>3.6</v>
@@ -8090,7 +8099,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8099,7 +8108,7 @@
         <v>5</v>
       </c>
       <c r="J82" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -8179,7 +8188,7 @@
         <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8188,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -8277,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -8366,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8431,7 +8440,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7246022</v>
+        <v>7246020</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8443,76 +8452,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K86">
+        <v>1.166</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>11</v>
+      </c>
+      <c r="N86">
         <v>1.3</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>7</v>
-      </c>
-      <c r="N86">
-        <v>1.25</v>
       </c>
       <c r="O86">
         <v>5.5</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>3.5</v>
+      </c>
+      <c r="U86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>3.75</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X86">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA86">
+        <v>-0.5</v>
+      </c>
+      <c r="AB86">
         <v>0.8</v>
       </c>
-      <c r="AB86">
-        <v>0.475</v>
-      </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8532,7 +8541,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
         <v>100</v>
@@ -8544,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8609,7 +8618,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7246020</v>
+        <v>7246022</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8621,76 +8630,76 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K88">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
         <v>7</v>
       </c>
-      <c r="M88">
-        <v>11</v>
-      </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O88">
         <v>5.5</v>
       </c>
       <c r="P88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.8</v>
+      </c>
+      <c r="AB88">
+        <v>0.475</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AB88">
-        <v>0.8</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8722,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8802,7 +8811,7 @@
         <v>59</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8811,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8891,7 +8900,7 @@
         <v>95</v>
       </c>
       <c r="G91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8900,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8980,7 +8989,7 @@
         <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -8989,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K92">
         <v>1.833</v>
@@ -9066,10 +9075,10 @@
         <v>45206.25</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9078,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K93">
         <v>1.8</v>
@@ -9158,7 +9167,7 @@
         <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9167,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K94">
         <v>1.5</v>
@@ -9247,7 +9256,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9256,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K95">
         <v>1.333</v>
@@ -9336,7 +9345,7 @@
         <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9345,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K96">
         <v>1.533</v>
@@ -9425,7 +9434,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9434,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9514,7 +9523,7 @@
         <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9523,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K98">
         <v>2.6</v>
@@ -9603,7 +9612,7 @@
         <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9612,7 +9621,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K99">
         <v>2.625</v>
@@ -9677,7 +9686,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7371707</v>
+        <v>7371709</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9689,40 +9698,40 @@
         <v>45221.25</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K100">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R100">
         <v>2</v>
@@ -9731,13 +9740,13 @@
         <v>1.8</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9746,7 +9755,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9755,10 +9764,10 @@
         <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9766,7 +9775,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7371709</v>
+        <v>7371707</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9778,40 +9787,40 @@
         <v>45221.25</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
       <c r="J101" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K101">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -9820,13 +9829,13 @@
         <v>1.8</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9835,7 +9844,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9844,10 +9853,10 @@
         <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9870,7 +9879,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9879,7 +9888,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K102">
         <v>1.869</v>
@@ -9968,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10048,7 +10057,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10057,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K104">
         <v>2.6</v>
@@ -10137,7 +10146,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10146,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K105">
         <v>4.2</v>
@@ -10235,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K106">
         <v>2.375</v>
@@ -10324,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K107">
         <v>1.571</v>
@@ -10389,7 +10398,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7433002</v>
+        <v>7433001</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10401,55 +10410,55 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K108">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L108">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O108">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T108">
         <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10458,19 +10467,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10490,7 +10499,7 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s">
         <v>105</v>
@@ -10502,7 +10511,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10567,7 +10576,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7433001</v>
+        <v>7433002</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10579,55 +10588,55 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G110" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K110">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10636,19 +10645,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10671,7 +10680,7 @@
         <v>94</v>
       </c>
       <c r="G111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -10680,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K111">
         <v>1.533</v>
@@ -10769,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10849,7 +10858,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10858,7 +10867,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K113">
         <v>3.2</v>
@@ -10938,7 +10947,7 @@
         <v>102</v>
       </c>
       <c r="G114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10947,7 +10956,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -11027,7 +11036,7 @@
         <v>103</v>
       </c>
       <c r="G115" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11036,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K115">
         <v>2.2</v>
@@ -11125,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K116">
         <v>2.6</v>
@@ -11214,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K117">
         <v>1.142</v>
@@ -11291,7 +11300,7 @@
         <v>45353.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
         <v>47</v>
@@ -11303,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K118">
         <v>1.166</v>
@@ -11383,7 +11392,7 @@
         <v>105</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11392,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11481,7 +11490,7 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K120">
         <v>9</v>
@@ -11561,7 +11570,7 @@
         <v>77</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11570,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K121">
         <v>1.2</v>
@@ -11650,7 +11659,7 @@
         <v>94</v>
       </c>
       <c r="G122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11659,7 +11668,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K122">
         <v>2.25</v>
@@ -11724,7 +11733,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7995804</v>
+        <v>7995829</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11736,46 +11745,46 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K123">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>3.5</v>
@@ -11787,19 +11796,19 @@
         <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11813,7 +11822,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7995829</v>
+        <v>7995827</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11825,76 +11834,76 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G124" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K124">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.222</v>
+        <v>1.666</v>
       </c>
       <c r="O124">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11902,7 +11911,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7995827</v>
+        <v>7995804</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11914,10 +11923,10 @@
         <v>45374.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11926,43 +11935,43 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11971,19 +11980,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12006,7 +12015,7 @@
         <v>106</v>
       </c>
       <c r="G126" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -12015,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K126">
         <v>1.571</v>
@@ -12092,7 +12101,7 @@
         <v>45374.625</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
         <v>56</v>
@@ -12104,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K127">
         <v>1.3</v>
@@ -12184,7 +12193,7 @@
         <v>107</v>
       </c>
       <c r="G128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12193,7 +12202,7 @@
         <v>5</v>
       </c>
       <c r="J128" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K128">
         <v>4.75</v>
@@ -12270,10 +12279,10 @@
         <v>45380.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12282,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K129">
         <v>3.8</v>
@@ -12371,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K130">
         <v>1.166</v>
@@ -12436,7 +12445,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8027495</v>
+        <v>8027498</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12448,76 +12457,76 @@
         <v>45381.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K131">
-        <v>5.2</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>5.2</v>
+        <v>2.75</v>
       </c>
       <c r="O131">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q131">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>3.25</v>
+      </c>
+      <c r="U131">
         <v>1.8</v>
       </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.8</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>1</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>0.875</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12525,7 +12534,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8027498</v>
+        <v>8027495</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12537,76 +12546,76 @@
         <v>45381.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>5.2</v>
       </c>
       <c r="L132">
+        <v>4.8</v>
+      </c>
+      <c r="M132">
+        <v>1.4</v>
+      </c>
+      <c r="N132">
+        <v>5.2</v>
+      </c>
+      <c r="O132">
+        <v>4.8</v>
+      </c>
+      <c r="P132">
+        <v>1.4</v>
+      </c>
+      <c r="Q132">
+        <v>1.25</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>1.8</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
+        <v>1.875</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>3.8</v>
       </c>
-      <c r="M132">
-        <v>2.05</v>
-      </c>
-      <c r="N132">
-        <v>2.75</v>
-      </c>
-      <c r="O132">
-        <v>3.8</v>
-      </c>
-      <c r="P132">
-        <v>2.05</v>
-      </c>
-      <c r="Q132">
-        <v>0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.9</v>
-      </c>
-      <c r="S132">
-        <v>1.9</v>
-      </c>
-      <c r="T132">
-        <v>3.25</v>
-      </c>
-      <c r="U132">
-        <v>1.8</v>
-      </c>
-      <c r="V132">
-        <v>2</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12629,7 +12638,7 @@
         <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12638,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K133">
         <v>1.533</v>
@@ -12727,7 +12736,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K134">
         <v>10</v>
@@ -12784,6 +12793,451 @@
         <v>0.925</v>
       </c>
       <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8056033</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45388.25</v>
+      </c>
+      <c r="F135" t="s">
+        <v>105</v>
+      </c>
+      <c r="G135" t="s">
+        <v>159</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135" t="s">
+        <v>163</v>
+      </c>
+      <c r="K135">
+        <v>2.4</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>2.4</v>
+      </c>
+      <c r="N135">
+        <v>1.95</v>
+      </c>
+      <c r="O135">
+        <v>3.75</v>
+      </c>
+      <c r="P135">
+        <v>3.2</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.8</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>2.2</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.8</v>
+      </c>
+      <c r="AB135">
+        <v>0.95</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>8056039</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45388.29166666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G136" t="s">
+        <v>160</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>161</v>
+      </c>
+      <c r="K136">
+        <v>1.5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>1.333</v>
+      </c>
+      <c r="O136">
+        <v>4.75</v>
+      </c>
+      <c r="P136">
+        <v>6.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1.5</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>0.333</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.925</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>8056681</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45388.29166666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>161</v>
+      </c>
+      <c r="K137">
+        <v>1.25</v>
+      </c>
+      <c r="L137">
+        <v>5.5</v>
+      </c>
+      <c r="M137">
+        <v>7.5</v>
+      </c>
+      <c r="N137">
+        <v>1.25</v>
+      </c>
+      <c r="O137">
+        <v>5.5</v>
+      </c>
+      <c r="P137">
+        <v>7.5</v>
+      </c>
+      <c r="Q137">
+        <v>-1.75</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>0.25</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.475</v>
+      </c>
+      <c r="AA137">
+        <v>-0.5</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>8061188</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45389.25</v>
+      </c>
+      <c r="F138" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>162</v>
+      </c>
+      <c r="K138">
+        <v>1.909</v>
+      </c>
+      <c r="L138">
+        <v>3.75</v>
+      </c>
+      <c r="M138">
+        <v>3.1</v>
+      </c>
+      <c r="N138">
+        <v>1.909</v>
+      </c>
+      <c r="O138">
+        <v>3.75</v>
+      </c>
+      <c r="P138">
+        <v>3.1</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.975</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3.5</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>1.975</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>2.75</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.825</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>8061187</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45389.25</v>
+      </c>
+      <c r="F139" t="s">
+        <v>83</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>161</v>
+      </c>
+      <c r="K139">
+        <v>1.142</v>
+      </c>
+      <c r="L139">
+        <v>7</v>
+      </c>
+      <c r="M139">
+        <v>12</v>
+      </c>
+      <c r="N139">
+        <v>1.04</v>
+      </c>
+      <c r="O139">
+        <v>10</v>
+      </c>
+      <c r="P139">
+        <v>29</v>
+      </c>
+      <c r="Q139">
+        <v>-3.5</v>
+      </c>
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>4.25</v>
+      </c>
+      <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>0.825</v>
+      </c>
+      <c r="AC139">
         <v>-1</v>
       </c>
     </row>

--- a/Poland IV Liga/Poland IV Liga.xlsx
+++ b/Poland IV Liga/Poland IV Liga.xlsx
@@ -103,12 +103,12 @@
     <t>Poland IV Liga</t>
   </si>
   <si>
+    <t>AS Kolbudy</t>
+  </si>
+  <si>
     <t>Chemik Bydgoszcz</t>
   </si>
   <si>
-    <t>AS Kolbudy</t>
-  </si>
-  <si>
     <t>Tecza Biskupiec</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Huragan Pobiedziska</t>
   </si>
   <si>
+    <t>Polonia 1908 Marcinki Kepno</t>
+  </si>
+  <si>
     <t>Grom Nowy Staw</t>
   </si>
   <si>
-    <t>Polonia 1908 Marcinki Kepno</t>
-  </si>
-  <si>
     <t>Pomezania Malbork</t>
   </si>
   <si>
@@ -199,30 +199,30 @@
     <t>Baltyk Gdynia</t>
   </si>
   <si>
+    <t>Jaguar Gdansk</t>
+  </si>
+  <si>
     <t>Wierna Malogoszcz</t>
   </si>
   <si>
-    <t>Jaguar Gdansk</t>
-  </si>
-  <si>
     <t>Oskar Przysucha</t>
   </si>
   <si>
     <t>Motor Lubawa</t>
   </si>
   <si>
+    <t>Prochowiczanka Prochowice</t>
+  </si>
+  <si>
+    <t>Tarnovia Tarnowo Podgorne</t>
+  </si>
+  <si>
+    <t>MGKS Moto Jelcz Olawa</t>
+  </si>
+  <si>
     <t>Korona Piaski</t>
   </si>
   <si>
-    <t>Tarnovia Tarnowo Podgorne</t>
-  </si>
-  <si>
-    <t>Prochowiczanka Prochowice</t>
-  </si>
-  <si>
-    <t>MGKS Moto Jelcz Olawa</t>
-  </si>
-  <si>
     <t>LKS Start Pruszcz</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Polonia Lidzbark</t>
   </si>
   <si>
+    <t>Wisla Krakow II</t>
+  </si>
+  <si>
     <t>Hetman Wloszczowa</t>
   </si>
   <si>
-    <t>Wisla Krakow II</t>
-  </si>
-  <si>
     <t>Wiara Lecha Poznan</t>
   </si>
   <si>
@@ -343,12 +343,12 @@
     <t>KSS Kotwica Kornik</t>
   </si>
   <si>
+    <t>LKS Pogon Lebork</t>
+  </si>
+  <si>
     <t>Cuiavia Inowroclaw</t>
   </si>
   <si>
-    <t>LKS Pogon Lebork</t>
-  </si>
-  <si>
     <t>Huragan Morag</t>
   </si>
   <si>
@@ -391,15 +391,15 @@
     <t>Mazovia Minsk Mazowiecki</t>
   </si>
   <si>
+    <t>Piast Nowa Ruda</t>
+  </si>
+  <si>
+    <t>Victoria Wrzesnia</t>
+  </si>
+  <si>
     <t>Lipno Steszew</t>
   </si>
   <si>
-    <t>Victoria Wrzesnia</t>
-  </si>
-  <si>
-    <t>Piast Nowa Ruda</t>
-  </si>
-  <si>
     <t>BKS Bochnia</t>
   </si>
   <si>
@@ -457,10 +457,10 @@
     <t>Gornik Zlotoryja</t>
   </si>
   <si>
+    <t>MKS Myszkow</t>
+  </si>
+  <si>
     <t>Unia Wabrzezno</t>
-  </si>
-  <si>
-    <t>MKS Myszkow</t>
   </si>
   <si>
     <t>Orzel Miedary</t>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6727458</v>
+        <v>6727459</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -982,7 +982,7 @@
         <v>109</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -991,43 +991,43 @@
         <v>161</v>
       </c>
       <c r="K2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.7</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>3.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -1036,16 +1036,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.475</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6727459</v>
+        <v>6727458</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1071,7 +1071,7 @@
         <v>110</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1080,43 +1080,43 @@
         <v>161</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.7</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -1125,16 +1125,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1335,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6757268</v>
+        <v>6758656</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2225,10 +2225,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2237,43 +2237,43 @@
         <v>161</v>
       </c>
       <c r="K16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>1.05</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.05000000000000004</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2282,16 +2282,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2299,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6758656</v>
+        <v>6757268</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2314,10 +2314,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2326,43 +2326,43 @@
         <v>161</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="N17">
-        <v>1.727</v>
+        <v>1.05</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>0.7270000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2371,16 +2371,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2403,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7052335</v>
+        <v>7052336</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4094,16 +4094,16 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>2.375</v>
@@ -4115,22 +4115,22 @@
         <v>2.375</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>3.5</v>
@@ -4142,25 +4142,25 @@
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4168,7 +4168,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7052336</v>
+        <v>7052335</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4183,16 +4183,16 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K38">
         <v>2.375</v>
@@ -4204,22 +4204,22 @@
         <v>2.375</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>3.5</v>
@@ -4231,25 +4231,25 @@
         <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4613,7 +4613,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7068599</v>
+        <v>7068595</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4625,49 +4625,49 @@
         <v>45153.5</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="S43">
-        <v>2</v>
-      </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
         <v>1.85</v>
@@ -4676,19 +4676,19 @@
         <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
         <v>-1</v>
@@ -4702,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7068603</v>
+        <v>7068602</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4714,10 +4714,10 @@
         <v>45153.5</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4729,58 +4729,58 @@
         <v>162</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
+        <v>1.775</v>
+      </c>
+      <c r="V44">
         <v>2.025</v>
       </c>
-      <c r="V44">
-        <v>1.775</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.333</v>
+        <v>3.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4791,7 +4791,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7068602</v>
+        <v>7068599</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4803,76 +4803,76 @@
         <v>45153.5</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.775</v>
-      </c>
-      <c r="V45">
-        <v>2.025</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4880,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7068595</v>
+        <v>7068596</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4895,46 +4895,46 @@
         <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>4</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.85</v>
@@ -4943,25 +4943,25 @@
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
